--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-20.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H745"/>
+  <dimension ref="A1:H722"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15169,10 +15169,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H423" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="424">
@@ -15203,10 +15201,8 @@
         </is>
       </c>
       <c r="G424" t="inlineStr"/>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H424" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="425">
@@ -15233,10 +15229,8 @@
       </c>
       <c r="F425" t="inlineStr"/>
       <c r="G425" t="inlineStr"/>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H425" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="426">
@@ -15263,10 +15257,8 @@
       </c>
       <c r="F426" t="inlineStr"/>
       <c r="G426" t="inlineStr"/>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H426" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="427">
@@ -15297,10 +15289,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H427" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="428">
@@ -15331,10 +15321,8 @@
           <t>4.9%</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H428" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="429">
@@ -15369,10 +15357,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H429" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="430">
@@ -15407,10 +15393,8 @@
           <t>-1.4%</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H430" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="431">
@@ -15441,10 +15425,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H431" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="432">
@@ -15475,10 +15457,8 @@
           <t>-2.5%</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H432" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="433">
@@ -15513,10 +15493,8 @@
           <t>6.8%</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H433" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="434">
@@ -15551,10 +15529,8 @@
           <t>11.0K</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H434" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="435">
@@ -15585,10 +15561,8 @@
           <t>10K</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H435" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="436">
@@ -15619,10 +15593,8 @@
           <t>1K</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H436" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="437">
@@ -15653,10 +15625,8 @@
           <t>65%</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H437" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="438">
@@ -15687,10 +15657,8 @@
           <t>3.9%</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H438" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="439">
@@ -15725,10 +15693,8 @@
           <t>1.0%</t>
         </is>
       </c>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H439" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="440">
@@ -15763,10 +15729,8 @@
           <t>200K</t>
         </is>
       </c>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H440" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="441">
@@ -15801,10 +15765,8 @@
           <t>4.30%</t>
         </is>
       </c>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H441" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="442">
@@ -15839,10 +15801,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H442" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="443">
@@ -15877,10 +15837,8 @@
           <t>4%</t>
         </is>
       </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H443" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="444">
@@ -15911,10 +15869,8 @@
           <t>62.8%</t>
         </is>
       </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H444" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="445">
@@ -15949,10 +15905,8 @@
           <t>34.3</t>
         </is>
       </c>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H445" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="446">
@@ -15983,10 +15937,8 @@
           <t>15K</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H446" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="447">
@@ -16021,10 +15973,8 @@
           <t>29K</t>
         </is>
       </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H447" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="448">
@@ -16059,10 +16009,8 @@
           <t>185K</t>
         </is>
       </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H448" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="449">
@@ -16093,10 +16041,8 @@
           <t>7.9%</t>
         </is>
       </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H449" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="450">
@@ -16127,10 +16073,8 @@
           <t>€22.5B</t>
         </is>
       </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H450" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="451">
@@ -16165,10 +16109,8 @@
           <t>75</t>
         </is>
       </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H451" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="452">
@@ -16199,10 +16141,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H452" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="453">
@@ -16233,10 +16173,8 @@
           <t>74</t>
         </is>
       </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H453" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="454">
@@ -16267,10 +16205,8 @@
           <t>78</t>
         </is>
       </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H454" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="455">
@@ -16301,10 +16237,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H455" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="456">
@@ -16327,10 +16261,8 @@
       <c r="E456" t="inlineStr"/>
       <c r="F456" t="inlineStr"/>
       <c r="G456" t="inlineStr"/>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H456" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="457">
@@ -16357,10 +16289,8 @@
       </c>
       <c r="F457" t="inlineStr"/>
       <c r="G457" t="inlineStr"/>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H457" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="458">
@@ -16387,10 +16317,8 @@
       </c>
       <c r="F458" t="inlineStr"/>
       <c r="G458" t="inlineStr"/>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H458" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="459">
@@ -16417,10 +16345,8 @@
       </c>
       <c r="F459" t="inlineStr"/>
       <c r="G459" t="inlineStr"/>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H459" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="460">
@@ -16443,10 +16369,8 @@
       </c>
       <c r="F460" t="inlineStr"/>
       <c r="G460" t="inlineStr"/>
-      <c r="H460" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H460" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="461">
@@ -16477,10 +16401,8 @@
           <t>CNY690.0B</t>
         </is>
       </c>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H461" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="462">
@@ -16507,10 +16429,8 @@
         </is>
       </c>
       <c r="G462" t="inlineStr"/>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H462" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="463">
@@ -16541,10 +16461,8 @@
           <t>7.5%</t>
         </is>
       </c>
-      <c r="H463" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H463" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="464">
@@ -16575,10 +16493,8 @@
           <t>CNY1850.0B</t>
         </is>
       </c>
-      <c r="H464" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H464" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="465">
@@ -16601,10 +16517,8 @@
       </c>
       <c r="F465" t="inlineStr"/>
       <c r="G465" t="inlineStr"/>
-      <c r="H465" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H465" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="466">
@@ -16645,10 +16559,8 @@
       </c>
       <c r="F467" t="inlineStr"/>
       <c r="G467" t="inlineStr"/>
-      <c r="H467" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H467" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="468">
@@ -16697,10 +16609,8 @@
           <t>$ 85B</t>
         </is>
       </c>
-      <c r="H469" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H469" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="470">
@@ -16735,10 +16645,8 @@
           <t>7.1%</t>
         </is>
       </c>
-      <c r="H470" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H470" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="471">
@@ -16773,10 +16681,8 @@
           <t>-2%</t>
         </is>
       </c>
-      <c r="H471" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H471" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="472">
@@ -16821,10 +16727,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H473" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H473" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="474">
@@ -16855,10 +16759,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H474" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H474" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="475">
@@ -16893,10 +16795,8 @@
           <t>$3.4B</t>
         </is>
       </c>
-      <c r="H475" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H475" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="476">
@@ -16927,10 +16827,8 @@
           <t>0%</t>
         </is>
       </c>
-      <c r="H476" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H476" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="477">
@@ -16961,10 +16859,8 @@
           <t>14.1%</t>
         </is>
       </c>
-      <c r="H477" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H477" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="478">
@@ -16991,10 +16887,8 @@
       </c>
       <c r="F478" t="inlineStr"/>
       <c r="G478" t="inlineStr"/>
-      <c r="H478" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H478" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="479">
@@ -17021,10 +16915,8 @@
       </c>
       <c r="F479" t="inlineStr"/>
       <c r="G479" t="inlineStr"/>
-      <c r="H479" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H479" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="480">
@@ -17051,10 +16943,8 @@
       </c>
       <c r="F480" t="inlineStr"/>
       <c r="G480" t="inlineStr"/>
-      <c r="H480" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H480" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="481">
@@ -17089,10 +16979,8 @@
           <t>5.2%</t>
         </is>
       </c>
-      <c r="H481" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H481" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="482">
@@ -17123,10 +17011,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H482" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H482" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="483">
@@ -17153,10 +17039,8 @@
       </c>
       <c r="F483" t="inlineStr"/>
       <c r="G483" t="inlineStr"/>
-      <c r="H483" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H483" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="484">
@@ -17183,10 +17067,8 @@
       </c>
       <c r="F484" t="inlineStr"/>
       <c r="G484" t="inlineStr"/>
-      <c r="H484" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H484" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="485">
@@ -17213,10 +17095,8 @@
       </c>
       <c r="F485" t="inlineStr"/>
       <c r="G485" t="inlineStr"/>
-      <c r="H485" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H485" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="486">
@@ -17247,10 +17127,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H486" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H486" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="487">
@@ -17277,10 +17155,8 @@
       </c>
       <c r="F487" t="inlineStr"/>
       <c r="G487" t="inlineStr"/>
-      <c r="H487" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H487" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="488">
@@ -17307,10 +17183,8 @@
       </c>
       <c r="F488" t="inlineStr"/>
       <c r="G488" t="inlineStr"/>
-      <c r="H488" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H488" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="489">
@@ -17337,10 +17211,8 @@
       </c>
       <c r="F489" t="inlineStr"/>
       <c r="G489" t="inlineStr"/>
-      <c r="H489" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H489" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="490">
@@ -17367,10 +17239,8 @@
       </c>
       <c r="F490" t="inlineStr"/>
       <c r="G490" t="inlineStr"/>
-      <c r="H490" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H490" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="491">
@@ -17397,10 +17267,8 @@
       </c>
       <c r="F491" t="inlineStr"/>
       <c r="G491" t="inlineStr"/>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H491" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="492">
@@ -17423,10 +17291,8 @@
       </c>
       <c r="F492" t="inlineStr"/>
       <c r="G492" t="inlineStr"/>
-      <c r="H492" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H492" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="493">
@@ -17453,10 +17319,8 @@
           <t>-19.0%</t>
         </is>
       </c>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H493" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="494">
@@ -17483,10 +17347,8 @@
           <t>-4.0%</t>
         </is>
       </c>
-      <c r="H494" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H494" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="495">
@@ -17513,10 +17375,8 @@
           <t>6.4%</t>
         </is>
       </c>
-      <c r="H495" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H495" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="496">
@@ -17539,10 +17399,8 @@
       </c>
       <c r="F496" t="inlineStr"/>
       <c r="G496" t="inlineStr"/>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H496" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="497">
@@ -17561,10 +17419,8 @@
       <c r="E497" t="inlineStr"/>
       <c r="F497" t="inlineStr"/>
       <c r="G497" t="inlineStr"/>
-      <c r="H497" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H497" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="498">
@@ -17609,10 +17465,8 @@
           <t>$-220.0B</t>
         </is>
       </c>
-      <c r="H499" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H499" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="500">
@@ -17639,10 +17493,8 @@
       </c>
       <c r="F500" t="inlineStr"/>
       <c r="G500" t="inlineStr"/>
-      <c r="H500" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H500" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="501">
@@ -17669,10 +17521,8 @@
       </c>
       <c r="F501" t="inlineStr"/>
       <c r="G501" t="inlineStr"/>
-      <c r="H501" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H501" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="502">
@@ -17703,10 +17553,8 @@
           <t>¥1990.0B</t>
         </is>
       </c>
-      <c r="H502" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H502" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="503">
@@ -17737,10 +17585,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H503" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H503" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="504">
@@ -17771,10 +17617,8 @@
         </is>
       </c>
       <c r="G504" t="inlineStr"/>
-      <c r="H504" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H504" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="505">
@@ -17805,10 +17649,8 @@
         </is>
       </c>
       <c r="G505" t="inlineStr"/>
-      <c r="H505" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H505" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="506">
@@ -17835,10 +17677,8 @@
       </c>
       <c r="F506" t="inlineStr"/>
       <c r="G506" t="inlineStr"/>
-      <c r="H506" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H506" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="507">
@@ -17869,10 +17709,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H507" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H507" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="508">
@@ -17903,10 +17741,8 @@
           <t>49.6</t>
         </is>
       </c>
-      <c r="H508" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H508" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="509">
@@ -17933,10 +17769,8 @@
       </c>
       <c r="F509" t="inlineStr"/>
       <c r="G509" t="inlineStr"/>
-      <c r="H509" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H509" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="510">
@@ -17963,10 +17797,8 @@
       </c>
       <c r="F510" t="inlineStr"/>
       <c r="G510" t="inlineStr"/>
-      <c r="H510" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H510" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="511">
@@ -17997,10 +17829,8 @@
           <t>10.2%</t>
         </is>
       </c>
-      <c r="H511" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H511" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="512">
@@ -18031,10 +17861,8 @@
           <t>-3.2%</t>
         </is>
       </c>
-      <c r="H512" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H512" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="513">
@@ -18069,10 +17897,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H513" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H513" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="514">
@@ -18103,10 +17929,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H514" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H514" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="515">
@@ -18137,10 +17961,8 @@
           <t>€-162.0B</t>
         </is>
       </c>
-      <c r="H515" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H515" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="516">
@@ -18171,10 +17993,8 @@
           <t>-0.3%</t>
         </is>
       </c>
-      <c r="H516" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H516" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="517">
@@ -18205,10 +18025,8 @@
           <t>-3.3%</t>
         </is>
       </c>
-      <c r="H517" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H517" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="518">
@@ -18235,10 +18053,8 @@
       </c>
       <c r="F518" t="inlineStr"/>
       <c r="G518" t="inlineStr"/>
-      <c r="H518" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H518" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="519">
@@ -18265,10 +18081,8 @@
       </c>
       <c r="F519" t="inlineStr"/>
       <c r="G519" t="inlineStr"/>
-      <c r="H519" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H519" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="520">
@@ -18295,10 +18109,8 @@
       </c>
       <c r="F520" t="inlineStr"/>
       <c r="G520" t="inlineStr"/>
-      <c r="H520" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H520" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="521">
@@ -18325,10 +18137,8 @@
       </c>
       <c r="F521" t="inlineStr"/>
       <c r="G521" t="inlineStr"/>
-      <c r="H521" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H521" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="522">
@@ -18359,10 +18169,8 @@
           <t>102</t>
         </is>
       </c>
-      <c r="H522" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H522" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="523">
@@ -18397,10 +18205,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H523" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H523" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="524">
@@ -18435,10 +18241,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H524" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H524" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="525">
@@ -18473,10 +18277,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H525" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H525" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="526">
@@ -18507,10 +18309,8 @@
           <t>146.8</t>
         </is>
       </c>
-      <c r="H526" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H526" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="527">
@@ -18541,10 +18341,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H527" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H527" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="528">
@@ -18575,10 +18373,8 @@
           <t>3.5%</t>
         </is>
       </c>
-      <c r="H528" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H528" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="529">
@@ -18613,10 +18409,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H529" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H529" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="530">
@@ -18643,10 +18437,8 @@
       </c>
       <c r="F530" t="inlineStr"/>
       <c r="G530" t="inlineStr"/>
-      <c r="H530" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H530" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="531">
@@ -18669,10 +18461,8 @@
       <c r="E531" t="inlineStr"/>
       <c r="F531" t="inlineStr"/>
       <c r="G531" t="inlineStr"/>
-      <c r="H531" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H531" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="532">
@@ -18703,10 +18493,8 @@
           <t>54.2</t>
         </is>
       </c>
-      <c r="H532" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H532" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="533">
@@ -18729,10 +18517,8 @@
       </c>
       <c r="F533" t="inlineStr"/>
       <c r="G533" t="inlineStr"/>
-      <c r="H533" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H533" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="534">
@@ -18777,10 +18563,8 @@
           <t>2.0%</t>
         </is>
       </c>
-      <c r="H535" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H535" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="536">
@@ -18811,10 +18595,8 @@
           <t>116.0%</t>
         </is>
       </c>
-      <c r="H536" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H536" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="537">
@@ -18837,10 +18619,8 @@
       <c r="E537" t="inlineStr"/>
       <c r="F537" t="inlineStr"/>
       <c r="G537" t="inlineStr"/>
-      <c r="H537" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H537" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="538">
@@ -18871,10 +18651,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H538" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H538" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="539">
@@ -18905,10 +18683,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H539" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H539" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="540">
@@ -18935,10 +18711,8 @@
       </c>
       <c r="F540" t="inlineStr"/>
       <c r="G540" t="inlineStr"/>
-      <c r="H540" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H540" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="541">
@@ -18969,10 +18743,8 @@
           <t>$ 2.8B</t>
         </is>
       </c>
-      <c r="H541" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H541" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="542">
@@ -18999,10 +18771,8 @@
       </c>
       <c r="F542" t="inlineStr"/>
       <c r="G542" t="inlineStr"/>
-      <c r="H542" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H542" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="543">
@@ -19029,10 +18799,8 @@
       </c>
       <c r="F543" t="inlineStr"/>
       <c r="G543" t="inlineStr"/>
-      <c r="H543" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H543" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="544">
@@ -19067,10 +18835,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H544" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H544" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="545">
@@ -19101,10 +18867,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H545" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H545" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="546">
@@ -19135,10 +18899,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H546" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H546" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="547">
@@ -19169,10 +18931,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H547" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H547" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="548">
@@ -19203,10 +18963,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H548" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H548" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="549">
@@ -19237,10 +18995,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H549" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H549" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="550">
@@ -19271,10 +19027,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H550" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H550" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="551">
@@ -19305,10 +19059,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H551" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H551" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="552">
@@ -19339,10 +19091,8 @@
           <t>2.1%</t>
         </is>
       </c>
-      <c r="H552" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H552" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="553">
@@ -19373,10 +19123,8 @@
           <t>-1.3%</t>
         </is>
       </c>
-      <c r="H553" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H553" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="554">
@@ -19407,10 +19155,8 @@
           <t>-1%</t>
         </is>
       </c>
-      <c r="H554" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H554" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="555">
@@ -19441,10 +19187,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H555" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H555" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="556">
@@ -19475,10 +19219,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H556" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H556" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="557">
@@ -19509,10 +19251,8 @@
           <t>0.0%</t>
         </is>
       </c>
-      <c r="H557" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H557" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="558">
@@ -19543,10 +19283,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H558" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H558" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="559">
@@ -19577,10 +19315,8 @@
           <t>10%</t>
         </is>
       </c>
-      <c r="H559" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H559" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="560">
@@ -19611,10 +19347,8 @@
           <t>6%</t>
         </is>
       </c>
-      <c r="H560" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H560" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="561">
@@ -19645,10 +19379,8 @@
           <t>5.25%</t>
         </is>
       </c>
-      <c r="H561" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H561" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="562">
@@ -19679,10 +19411,8 @@
           <t>6.75%</t>
         </is>
       </c>
-      <c r="H562" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H562" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="563">
@@ -19717,10 +19447,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H563" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H563" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="564">
@@ -19755,10 +19483,8 @@
           <t>1.3%</t>
         </is>
       </c>
-      <c r="H564" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H564" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="565">
@@ -19793,10 +19519,8 @@
           <t>1.8%</t>
         </is>
       </c>
-      <c r="H565" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H565" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="566">
@@ -19831,10 +19555,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H566" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H566" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="567">
@@ -19869,10 +19591,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H567" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H567" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="568">
@@ -19907,10 +19627,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H568" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H568" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="569">
@@ -19945,10 +19663,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H569" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H569" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="570">
@@ -19983,10 +19699,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H570" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H570" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="571">
@@ -20021,10 +19735,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H571" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H571" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="572">
@@ -20055,10 +19767,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H572" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H572" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="573">
@@ -20089,10 +19799,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H573" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H573" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="574">
@@ -20123,10 +19831,8 @@
           <t>-1.5%</t>
         </is>
       </c>
-      <c r="H574" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H574" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="575">
@@ -20153,10 +19859,8 @@
       </c>
       <c r="F575" t="inlineStr"/>
       <c r="G575" t="inlineStr"/>
-      <c r="H575" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H575" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="576">
@@ -20183,10 +19887,8 @@
       </c>
       <c r="F576" t="inlineStr"/>
       <c r="G576" t="inlineStr"/>
-      <c r="H576" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H576" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="577">
@@ -20217,10 +19919,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H577" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H577" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="578">
@@ -20251,10 +19951,8 @@
           <t>-5.0%</t>
         </is>
       </c>
-      <c r="H578" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H578" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="579">
@@ -20281,10 +19979,8 @@
       </c>
       <c r="F579" t="inlineStr"/>
       <c r="G579" t="inlineStr"/>
-      <c r="H579" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H579" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="580">
@@ -20311,10 +20007,8 @@
       </c>
       <c r="F580" t="inlineStr"/>
       <c r="G580" t="inlineStr"/>
-      <c r="H580" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H580" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="581">
@@ -20341,10 +20035,8 @@
       </c>
       <c r="F581" t="inlineStr"/>
       <c r="G581" t="inlineStr"/>
-      <c r="H581" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H581" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="582">
@@ -20371,10 +20063,8 @@
       </c>
       <c r="F582" t="inlineStr"/>
       <c r="G582" t="inlineStr"/>
-      <c r="H582" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H582" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="583">
@@ -20401,10 +20091,8 @@
       </c>
       <c r="F583" t="inlineStr"/>
       <c r="G583" t="inlineStr"/>
-      <c r="H583" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H583" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="584">
@@ -20435,10 +20123,8 @@
           <t>$615.0B</t>
         </is>
       </c>
-      <c r="H584" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H584" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="585">
@@ -20461,10 +20147,8 @@
       <c r="E585" t="inlineStr"/>
       <c r="F585" t="inlineStr"/>
       <c r="G585" t="inlineStr"/>
-      <c r="H585" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H585" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="586">
@@ -20499,10 +20183,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H586" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H586" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="587">
@@ -20529,10 +20211,8 @@
       </c>
       <c r="F587" t="inlineStr"/>
       <c r="G587" t="inlineStr"/>
-      <c r="H587" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H587" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="588">
@@ -20567,10 +20247,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H588" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H588" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="589">
@@ -20605,10 +20283,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H589" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H589" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="590">
@@ -20639,10 +20315,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H590" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H590" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="591">
@@ -20677,10 +20351,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H591" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H591" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="592">
@@ -20711,10 +20383,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H592" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H592" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="593">
@@ -20745,10 +20415,8 @@
           <t>315.6</t>
         </is>
       </c>
-      <c r="H593" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H593" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="594">
@@ -20779,10 +20447,8 @@
           <t>317.4</t>
         </is>
       </c>
-      <c r="H594" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H594" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="595">
@@ -20813,10 +20479,8 @@
           <t>0.15</t>
         </is>
       </c>
-      <c r="H595" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H595" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="596">
@@ -20839,10 +20503,8 @@
       <c r="E596" t="inlineStr"/>
       <c r="F596" t="inlineStr"/>
       <c r="G596" t="inlineStr"/>
-      <c r="H596" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H596" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="597">
@@ -20869,10 +20531,8 @@
       </c>
       <c r="F597" t="inlineStr"/>
       <c r="G597" t="inlineStr"/>
-      <c r="H597" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H597" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="598">
@@ -20899,10 +20559,8 @@
       </c>
       <c r="F598" t="inlineStr"/>
       <c r="G598" t="inlineStr"/>
-      <c r="H598" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H598" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="599">
@@ -20929,10 +20587,8 @@
       </c>
       <c r="F599" t="inlineStr"/>
       <c r="G599" t="inlineStr"/>
-      <c r="H599" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H599" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="600">
@@ -20959,10 +20615,8 @@
       </c>
       <c r="F600" t="inlineStr"/>
       <c r="G600" t="inlineStr"/>
-      <c r="H600" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H600" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="601">
@@ -20989,10 +20643,8 @@
       </c>
       <c r="F601" t="inlineStr"/>
       <c r="G601" t="inlineStr"/>
-      <c r="H601" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H601" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="602">
@@ -21019,10 +20671,8 @@
       </c>
       <c r="F602" t="inlineStr"/>
       <c r="G602" t="inlineStr"/>
-      <c r="H602" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H602" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="603">
@@ -21049,10 +20699,8 @@
       </c>
       <c r="F603" t="inlineStr"/>
       <c r="G603" t="inlineStr"/>
-      <c r="H603" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H603" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="604">
@@ -21079,10 +20727,8 @@
       </c>
       <c r="F604" t="inlineStr"/>
       <c r="G604" t="inlineStr"/>
-      <c r="H604" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H604" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="605">
@@ -21109,10 +20755,8 @@
       </c>
       <c r="F605" t="inlineStr"/>
       <c r="G605" t="inlineStr"/>
-      <c r="H605" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H605" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="606">
@@ -21143,10 +20787,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H606" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H606" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="607">
@@ -21177,10 +20819,8 @@
           <t>9.5%</t>
         </is>
       </c>
-      <c r="H607" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H607" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="608">
@@ -21203,10 +20843,8 @@
       <c r="E608" t="inlineStr"/>
       <c r="F608" t="inlineStr"/>
       <c r="G608" t="inlineStr"/>
-      <c r="H608" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H608" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="609">
@@ -21233,10 +20871,8 @@
       </c>
       <c r="F609" t="inlineStr"/>
       <c r="G609" t="inlineStr"/>
-      <c r="H609" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H609" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="610">
@@ -21267,10 +20903,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H610" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H610" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="611">
@@ -21297,10 +20931,8 @@
       </c>
       <c r="F611" t="inlineStr"/>
       <c r="G611" t="inlineStr"/>
-      <c r="H611" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H611" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="612">
@@ -21323,10 +20955,8 @@
       <c r="E612" t="inlineStr"/>
       <c r="F612" t="inlineStr"/>
       <c r="G612" t="inlineStr"/>
-      <c r="H612" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H612" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="613">
@@ -21349,10 +20979,8 @@
       </c>
       <c r="F613" t="inlineStr"/>
       <c r="G613" t="inlineStr"/>
-      <c r="H613" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H613" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="614">
@@ -21379,10 +21007,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H614" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H614" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="615">
@@ -21409,10 +21035,8 @@
           <t>2%</t>
         </is>
       </c>
-      <c r="H615" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H615" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="616">
@@ -21439,10 +21063,8 @@
           <t>1.0%</t>
         </is>
       </c>
-      <c r="H616" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H616" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="617">
@@ -21465,10 +21087,8 @@
       </c>
       <c r="F617" t="inlineStr"/>
       <c r="G617" t="inlineStr"/>
-      <c r="H617" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H617" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="618">
@@ -21487,10 +21107,8 @@
       <c r="E618" t="inlineStr"/>
       <c r="F618" t="inlineStr"/>
       <c r="G618" t="inlineStr"/>
-      <c r="H618" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H618" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="619">
@@ -21517,10 +21135,8 @@
           <t>$ -38.0B</t>
         </is>
       </c>
-      <c r="H619" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H619" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="620">
@@ -21547,10 +21163,8 @@
           <t>$ 32.5B</t>
         </is>
       </c>
-      <c r="H620" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H620" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="621">
@@ -21577,10 +21191,8 @@
           <t>$ 70.5B</t>
         </is>
       </c>
-      <c r="H621" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H621" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="622">
@@ -21625,10 +21237,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H623" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H623" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="624">
@@ -21659,10 +21269,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H624" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H624" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="625">
@@ -21693,10 +21301,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H625" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H625" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="626">
@@ -21727,10 +21333,8 @@
           <t>17.0%</t>
         </is>
       </c>
-      <c r="H626" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H626" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="627">
@@ -21761,10 +21365,8 @@
           <t>4.30%</t>
         </is>
       </c>
-      <c r="H627" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H627" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="628">
@@ -21795,10 +21397,8 @@
           <t>25.1K</t>
         </is>
       </c>
-      <c r="H628" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H628" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="629">
@@ -21825,10 +21425,8 @@
       </c>
       <c r="F629" t="inlineStr"/>
       <c r="G629" t="inlineStr"/>
-      <c r="H629" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H629" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="630">
@@ -21855,10 +21453,8 @@
       </c>
       <c r="F630" t="inlineStr"/>
       <c r="G630" t="inlineStr"/>
-      <c r="H630" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H630" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="631">
@@ -21889,10 +21485,8 @@
           <t>66.8%</t>
         </is>
       </c>
-      <c r="H631" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H631" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="632">
@@ -21927,10 +21521,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H632" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H632" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="633">
@@ -21957,10 +21549,8 @@
       </c>
       <c r="F633" t="inlineStr"/>
       <c r="G633" t="inlineStr"/>
-      <c r="H633" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H633" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="634">
@@ -21987,10 +21577,8 @@
       </c>
       <c r="F634" t="inlineStr"/>
       <c r="G634" t="inlineStr"/>
-      <c r="H634" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H634" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="635">
@@ -22017,10 +21605,8 @@
       </c>
       <c r="F635" t="inlineStr"/>
       <c r="G635" t="inlineStr"/>
-      <c r="H635" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H635" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="636">
@@ -22055,10 +21641,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H636" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H636" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="637">
@@ -22093,10 +21677,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H637" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H637" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="638">
@@ -22131,10 +21713,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H638" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H638" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="639">
@@ -22169,10 +21749,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H639" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H639" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="640">
@@ -22203,10 +21781,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H640" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H640" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="641">
@@ -22237,10 +21813,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H641" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H641" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="642">
@@ -22271,10 +21845,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H642" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H642" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="643">
@@ -22305,10 +21877,8 @@
           <t>£-17.0B</t>
         </is>
       </c>
-      <c r="H643" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H643" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="644">
@@ -22339,10 +21909,8 @@
           <t>£-6.8B</t>
         </is>
       </c>
-      <c r="H644" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H644" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="645">
@@ -22373,10 +21941,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H645" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H645" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="646">
@@ -22407,10 +21973,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H646" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H646" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="647">
@@ -22441,10 +22005,8 @@
           <t>£-3.9B</t>
         </is>
       </c>
-      <c r="H647" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H647" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="648">
@@ -22475,10 +22037,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H648" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H648" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="649">
@@ -22509,10 +22069,8 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H649" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H649" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="650">
@@ -22543,10 +22101,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H650" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H650" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="651">
@@ -22577,10 +22133,8 @@
           <t>€3.2B</t>
         </is>
       </c>
-      <c r="H651" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H651" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="652">
@@ -22615,10 +22169,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H652" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H652" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="653">
@@ -22653,10 +22205,8 @@
           <t>1.3%</t>
         </is>
       </c>
-      <c r="H653" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H653" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="654">
@@ -22691,10 +22241,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H654" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H654" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="655">
@@ -22729,10 +22277,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H655" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H655" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="656">
@@ -22755,10 +22301,8 @@
       <c r="E656" t="inlineStr"/>
       <c r="F656" t="inlineStr"/>
       <c r="G656" t="inlineStr"/>
-      <c r="H656" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H656" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="657">
@@ -22781,10 +22325,8 @@
       <c r="E657" t="inlineStr"/>
       <c r="F657" t="inlineStr"/>
       <c r="G657" t="inlineStr"/>
-      <c r="H657" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H657" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="658">
@@ -22807,10 +22349,8 @@
       <c r="E658" t="inlineStr"/>
       <c r="F658" t="inlineStr"/>
       <c r="G658" t="inlineStr"/>
-      <c r="H658" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H658" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="659">
@@ -22841,10 +22381,8 @@
           <t>€1.8B</t>
         </is>
       </c>
-      <c r="H659" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H659" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="660">
@@ -22871,10 +22409,8 @@
       </c>
       <c r="F660" t="inlineStr"/>
       <c r="G660" t="inlineStr"/>
-      <c r="H660" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H660" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="661">
@@ -22905,10 +22441,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H661" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H661" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="662">
@@ -22939,10 +22473,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H662" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H662" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="663">
@@ -22973,10 +22505,8 @@
           <t>240.0K</t>
         </is>
       </c>
-      <c r="H663" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H663" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="664">
@@ -23011,10 +22541,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H664" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H664" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="665">
@@ -23045,10 +22573,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H665" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H665" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="666">
@@ -23079,10 +22605,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H666" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H666" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="667">
@@ -23113,10 +22637,8 @@
           <t>209.0K</t>
         </is>
       </c>
-      <c r="H667" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H667" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="668">
@@ -23147,10 +22669,8 @@
           <t>-10</t>
         </is>
       </c>
-      <c r="H668" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H668" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="669">
@@ -23185,10 +22705,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H669" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H669" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="670">
@@ -23219,10 +22737,8 @@
           <t>1870.0K</t>
         </is>
       </c>
-      <c r="H670" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H670" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="671">
@@ -23253,10 +22769,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H671" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H671" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="672">
@@ -23287,10 +22801,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H672" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H672" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="673">
@@ -23321,10 +22833,8 @@
           <t>215.0K</t>
         </is>
       </c>
-      <c r="H673" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H673" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="674">
@@ -23351,10 +22861,8 @@
       </c>
       <c r="F674" t="inlineStr"/>
       <c r="G674" t="inlineStr"/>
-      <c r="H674" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H674" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="675">
@@ -23381,10 +22889,8 @@
       </c>
       <c r="F675" t="inlineStr"/>
       <c r="G675" t="inlineStr"/>
-      <c r="H675" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H675" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="676">
@@ -23411,10 +22917,8 @@
       </c>
       <c r="F676" t="inlineStr"/>
       <c r="G676" t="inlineStr"/>
-      <c r="H676" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H676" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="677">
@@ -23441,10 +22945,8 @@
       </c>
       <c r="F677" t="inlineStr"/>
       <c r="G677" t="inlineStr"/>
-      <c r="H677" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H677" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="678">
@@ -23471,10 +22973,8 @@
       </c>
       <c r="F678" t="inlineStr"/>
       <c r="G678" t="inlineStr"/>
-      <c r="H678" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H678" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="679">
@@ -23505,10 +23005,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H679" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H679" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="680">
@@ -23539,10 +23037,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H680" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H680" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="681">
@@ -23573,10 +23069,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H681" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H681" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="682">
@@ -23611,10 +23105,8 @@
           <t>45</t>
         </is>
       </c>
-      <c r="H682" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H682" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="683">
@@ -23649,10 +23141,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H683" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H683" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="684">
@@ -23679,10 +23169,8 @@
       </c>
       <c r="F684" t="inlineStr"/>
       <c r="G684" t="inlineStr"/>
-      <c r="H684" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H684" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="685">
@@ -23709,10 +23197,8 @@
       </c>
       <c r="F685" t="inlineStr"/>
       <c r="G685" t="inlineStr"/>
-      <c r="H685" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H685" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="686">
@@ -23739,10 +23225,8 @@
       </c>
       <c r="F686" t="inlineStr"/>
       <c r="G686" t="inlineStr"/>
-      <c r="H686" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H686" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="687">
@@ -23765,10 +23249,8 @@
       <c r="E687" t="inlineStr"/>
       <c r="F687" t="inlineStr"/>
       <c r="G687" t="inlineStr"/>
-      <c r="H687" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H687" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="688">
@@ -23795,106 +23277,144 @@
       </c>
       <c r="F688" t="inlineStr"/>
       <c r="G688" t="inlineStr"/>
-      <c r="H688" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H688" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>Friday January 17 2025</t>
-        </is>
-      </c>
-      <c r="B689" t="inlineStr"/>
-      <c r="C689" t="inlineStr"/>
+          <t>02:30 PM</t>
+        </is>
+      </c>
+      <c r="B689" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="C689" t="inlineStr">
+        <is>
+          <t>Current Account s.aNOV</t>
+        </is>
+      </c>
       <c r="D689" t="inlineStr"/>
-      <c r="E689" t="inlineStr"/>
+      <c r="E689" t="inlineStr">
+        <is>
+          <t>€33.5B</t>
+        </is>
+      </c>
       <c r="F689" t="inlineStr"/>
       <c r="G689" t="inlineStr"/>
-      <c r="H689" t="inlineStr"/>
+      <c r="H689" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C690" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJAN/15</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D690" t="inlineStr"/>
-      <c r="E690" t="inlineStr"/>
+      <c r="E690" t="inlineStr">
+        <is>
+          <t>€-3.93B</t>
+        </is>
+      </c>
       <c r="F690" t="inlineStr"/>
-      <c r="G690" t="inlineStr"/>
+      <c r="G690" t="inlineStr">
+        <is>
+          <t>€-4.2B</t>
+        </is>
+      </c>
       <c r="H690" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C691" t="inlineStr">
         <is>
-          <t>Reuters Tankan IndexJAN</t>
+          <t>Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D691" t="inlineStr"/>
       <c r="E691" t="inlineStr">
         <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="F691" t="inlineStr"/>
+          <t>2.2%</t>
+        </is>
+      </c>
+      <c r="F691" t="inlineStr">
+        <is>
+          <t>2.4%</t>
+        </is>
+      </c>
       <c r="G691" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="H691" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C692" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentJAN/11</t>
+          <t>Core Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D692" t="inlineStr"/>
-      <c r="E692" t="inlineStr"/>
-      <c r="F692" t="inlineStr"/>
-      <c r="G692" t="inlineStr"/>
+      <c r="E692" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
+      <c r="F692" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="G692" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="H692" t="inlineStr">
         <is>
           <t>3</t>
@@ -23904,23 +23424,35 @@
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C693" t="inlineStr">
         <is>
-          <t>Stock Investment by ForeignersJAN/11</t>
+          <t>Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D693" t="inlineStr"/>
-      <c r="E693" t="inlineStr"/>
-      <c r="F693" t="inlineStr"/>
-      <c r="G693" t="inlineStr"/>
+      <c r="E693" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
+      <c r="F693" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="G693" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H693" t="inlineStr">
         <is>
           <t>3</t>
@@ -23930,29 +23462,33 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C694" t="inlineStr">
         <is>
-          <t>Non-Oil Exports MoMDEC</t>
+          <t>CPI FinalDEC</t>
         </is>
       </c>
       <c r="D694" t="inlineStr"/>
       <c r="E694" t="inlineStr">
         <is>
-          <t>14.7%</t>
-        </is>
-      </c>
-      <c r="F694" t="inlineStr"/>
+          <t>126.62</t>
+        </is>
+      </c>
+      <c r="F694" t="inlineStr">
+        <is>
+          <t>127.08</t>
+        </is>
+      </c>
       <c r="G694" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>127.08</t>
         </is>
       </c>
       <c r="H694" t="inlineStr">
@@ -23964,29 +23500,29 @@
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C695" t="inlineStr">
         <is>
-          <t>Non-Oil Exports YoYDEC</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D695" t="inlineStr"/>
       <c r="E695" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>€5628M</t>
         </is>
       </c>
       <c r="F695" t="inlineStr"/>
       <c r="G695" t="inlineStr">
         <is>
-          <t>7.5%</t>
+          <t>€2900.0M</t>
         </is>
       </c>
       <c r="H695" t="inlineStr">
@@ -23998,23 +23534,23 @@
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C696" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsJAN</t>
+          <t>Bank Loan Growth YoYJAN/03</t>
         </is>
       </c>
       <c r="D696" t="inlineStr"/>
       <c r="E696" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>11.5%</t>
         </is>
       </c>
       <c r="F696" t="inlineStr"/>
@@ -24028,65 +23564,53 @@
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C697" t="inlineStr">
         <is>
-          <t>House Price Index YoYDEC</t>
+          <t>Deposit Growth YoYJAN/03</t>
         </is>
       </c>
       <c r="D697" t="inlineStr"/>
       <c r="E697" t="inlineStr">
         <is>
-          <t>-5.7%</t>
+          <t>11.5%</t>
         </is>
       </c>
       <c r="F697" t="inlineStr"/>
-      <c r="G697" t="inlineStr">
-        <is>
-          <t>-5.8%</t>
-        </is>
-      </c>
+      <c r="G697" t="inlineStr"/>
       <c r="H697" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C698" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Foreign Exchange ReservesJAN/10</t>
         </is>
       </c>
       <c r="D698" t="inlineStr"/>
-      <c r="E698" t="inlineStr">
-        <is>
-          <t>$6.52B</t>
-        </is>
-      </c>
+      <c r="E698" t="inlineStr"/>
       <c r="F698" t="inlineStr"/>
-      <c r="G698" t="inlineStr">
-        <is>
-          <t>$ 3.6B</t>
-        </is>
-      </c>
+      <c r="G698" t="inlineStr"/>
       <c r="H698" t="inlineStr">
         <is>
           <t>3</t>
@@ -24096,109 +23620,89 @@
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B699" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C699" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoYQ4</t>
+          <t>Foreign Securities PurchasesNOV</t>
         </is>
       </c>
       <c r="D699" t="inlineStr"/>
       <c r="E699" t="inlineStr">
         <is>
-          <t>4.6%</t>
-        </is>
-      </c>
-      <c r="F699" t="inlineStr">
-        <is>
-          <t>5.1%</t>
-        </is>
-      </c>
-      <c r="G699" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
+          <t>C$21.55B</t>
+        </is>
+      </c>
+      <c r="F699" t="inlineStr"/>
+      <c r="G699" t="inlineStr"/>
       <c r="H699" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B700" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C700" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Foreign Securities Purchases by CanadiansNOV</t>
         </is>
       </c>
       <c r="D700" t="inlineStr"/>
       <c r="E700" t="inlineStr">
         <is>
-          <t>5.4%</t>
-        </is>
-      </c>
-      <c r="F700" t="inlineStr">
-        <is>
-          <t>5.5%</t>
-        </is>
-      </c>
-      <c r="G700" t="inlineStr">
-        <is>
-          <t>5.5%</t>
-        </is>
-      </c>
+          <t>C$-2.65B</t>
+        </is>
+      </c>
+      <c r="F700" t="inlineStr"/>
+      <c r="G700" t="inlineStr"/>
       <c r="H700" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B701" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C701" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Building Permits PrelDEC</t>
         </is>
       </c>
       <c r="D701" t="inlineStr"/>
       <c r="E701" t="inlineStr">
         <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="F701" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
+          <t>1.493M</t>
+        </is>
+      </c>
+      <c r="F701" t="inlineStr"/>
       <c r="G701" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>1.48M</t>
         </is>
       </c>
       <c r="H701" t="inlineStr">
@@ -24210,71 +23714,67 @@
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B702" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C702" t="inlineStr">
         <is>
-          <t>Fixed Asset Investment (YTD) YoYDEC</t>
+          <t>Housing StartsDEC</t>
         </is>
       </c>
       <c r="D702" t="inlineStr"/>
       <c r="E702" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>1.289M</t>
         </is>
       </c>
       <c r="F702" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>1.31M</t>
         </is>
       </c>
       <c r="G702" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>1.32M</t>
         </is>
       </c>
       <c r="H702" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C703" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQQ4</t>
+          <t>Building Permits MoM PrelDEC</t>
         </is>
       </c>
       <c r="D703" t="inlineStr"/>
       <c r="E703" t="inlineStr">
         <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="F703" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
+          <t>5.2%</t>
+        </is>
+      </c>
+      <c r="F703" t="inlineStr"/>
       <c r="G703" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>-0.9%</t>
         </is>
       </c>
       <c r="H703" t="inlineStr">
@@ -24286,91 +23786,107 @@
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C704" t="inlineStr">
         <is>
-          <t>Industrial Capacity UtilizationQ4</t>
+          <t>Housing Starts MoMDEC</t>
         </is>
       </c>
       <c r="D704" t="inlineStr"/>
       <c r="E704" t="inlineStr">
         <is>
-          <t>75.1%</t>
+          <t>-1.8%</t>
         </is>
       </c>
       <c r="F704" t="inlineStr"/>
       <c r="G704" t="inlineStr">
         <is>
-          <t>75.3%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="H704" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B705" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C705" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D705" t="inlineStr"/>
       <c r="E705" t="inlineStr">
         <is>
-          <t>5%</t>
-        </is>
-      </c>
-      <c r="F705" t="inlineStr"/>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="F705" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G705" t="inlineStr">
         <is>
-          <t>5.00%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="H705" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B706" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C706" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Capacity UtilizationDEC</t>
         </is>
       </c>
       <c r="D706" t="inlineStr"/>
-      <c r="E706" t="inlineStr"/>
-      <c r="F706" t="inlineStr"/>
-      <c r="G706" t="inlineStr"/>
+      <c r="E706" t="inlineStr">
+        <is>
+          <t>76.8%</t>
+        </is>
+      </c>
+      <c r="F706" t="inlineStr">
+        <is>
+          <t>77.6%</t>
+        </is>
+      </c>
+      <c r="G706" t="inlineStr">
+        <is>
+          <t>76.9%</t>
+        </is>
+      </c>
       <c r="H706" t="inlineStr">
         <is>
           <t>3</t>
@@ -24380,97 +23896,97 @@
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B707" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C707" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D707" t="inlineStr"/>
       <c r="E707" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-0.9%</t>
         </is>
       </c>
       <c r="F707" t="inlineStr"/>
       <c r="G707" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="H707" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B708" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C708" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Manufacturing Production MoMDEC</t>
         </is>
       </c>
       <c r="D708" t="inlineStr"/>
       <c r="E708" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F708" t="inlineStr"/>
       <c r="G708" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H708" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B709" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C709" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel MoMDEC</t>
+          <t>Manufacturing Production YoYDEC</t>
         </is>
       </c>
       <c r="D709" t="inlineStr"/>
       <c r="E709" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>-1%</t>
         </is>
       </c>
       <c r="F709" t="inlineStr"/>
       <c r="G709" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="H709" t="inlineStr">
@@ -24482,31 +23998,23 @@
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C710" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel YoYDEC</t>
+          <t>Baker Hughes Oil Rig CountJAN/17</t>
         </is>
       </c>
       <c r="D710" t="inlineStr"/>
-      <c r="E710" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="E710" t="inlineStr"/>
       <c r="F710" t="inlineStr"/>
-      <c r="G710" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
+      <c r="G710" t="inlineStr"/>
       <c r="H710" t="inlineStr">
         <is>
           <t>3</t>
@@ -24516,31 +24024,23 @@
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C711" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Baker Hughes Total Rigs CountJAN/17</t>
         </is>
       </c>
       <c r="D711" t="inlineStr"/>
-      <c r="E711" t="inlineStr">
-        <is>
-          <t>€32B</t>
-        </is>
-      </c>
+      <c r="E711" t="inlineStr"/>
       <c r="F711" t="inlineStr"/>
-      <c r="G711" t="inlineStr">
-        <is>
-          <t>€33.0B</t>
-        </is>
-      </c>
+      <c r="G711" t="inlineStr"/>
       <c r="H711" t="inlineStr">
         <is>
           <t>3</t>
@@ -24548,25 +24048,21 @@
       </c>
     </row>
     <row r="712">
-      <c r="A712" t="inlineStr">
-        <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
+      <c r="A712" t="inlineStr"/>
       <c r="B712" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C712" t="inlineStr">
         <is>
-          <t>Current Account s.aNOV</t>
+          <t>50-Year KTB Auction</t>
         </is>
       </c>
       <c r="D712" t="inlineStr"/>
       <c r="E712" t="inlineStr">
         <is>
-          <t>€33.5B</t>
+          <t>2.40%</t>
         </is>
       </c>
       <c r="F712" t="inlineStr"/>
@@ -24580,69 +24076,41 @@
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
-      <c r="B713" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C713" t="inlineStr">
-        <is>
-          <t>Balance of TradeNOV</t>
-        </is>
-      </c>
+          <t>Saturday January 18 2025</t>
+        </is>
+      </c>
+      <c r="B713" t="inlineStr"/>
+      <c r="C713" t="inlineStr"/>
       <c r="D713" t="inlineStr"/>
-      <c r="E713" t="inlineStr">
-        <is>
-          <t>€-3.93B</t>
-        </is>
-      </c>
+      <c r="E713" t="inlineStr"/>
       <c r="F713" t="inlineStr"/>
-      <c r="G713" t="inlineStr">
-        <is>
-          <t>€-4.2B</t>
-        </is>
-      </c>
-      <c r="H713" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G713" t="inlineStr"/>
+      <c r="H713" t="inlineStr"/>
     </row>
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B714" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C714" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FinalDEC</t>
+          <t>Net Long-term TIC FlowsNOV</t>
         </is>
       </c>
       <c r="D714" t="inlineStr"/>
       <c r="E714" t="inlineStr">
         <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="F714" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="G714" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
+          <t>$152.3B</t>
+        </is>
+      </c>
+      <c r="F714" t="inlineStr"/>
+      <c r="G714" t="inlineStr"/>
       <c r="H714" t="inlineStr">
         <is>
           <t>2</t>
@@ -24652,35 +24120,27 @@
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B715" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C715" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FinalDEC</t>
+          <t>Foreign Bond InvestmentNOV</t>
         </is>
       </c>
       <c r="D715" t="inlineStr"/>
       <c r="E715" t="inlineStr">
         <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="F715" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="G715" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+          <t>$92.1B</t>
+        </is>
+      </c>
+      <c r="F715" t="inlineStr"/>
+      <c r="G715" t="inlineStr"/>
       <c r="H715" t="inlineStr">
         <is>
           <t>3</t>
@@ -24690,35 +24150,27 @@
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B716" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C716" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FinalDEC</t>
+          <t>Overall Net Capital FlowsNOV</t>
         </is>
       </c>
       <c r="D716" t="inlineStr"/>
       <c r="E716" t="inlineStr">
         <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F716" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G716" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>$203.6B</t>
+        </is>
+      </c>
+      <c r="F716" t="inlineStr"/>
+      <c r="G716" t="inlineStr"/>
       <c r="H716" t="inlineStr">
         <is>
           <t>3</t>
@@ -24728,880 +24180,162 @@
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B717" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C717" t="inlineStr">
-        <is>
-          <t>CPI FinalDEC</t>
-        </is>
-      </c>
+          <t>Monday January 20 2025</t>
+        </is>
+      </c>
+      <c r="B717" t="inlineStr"/>
+      <c r="C717" t="inlineStr"/>
       <c r="D717" t="inlineStr"/>
-      <c r="E717" t="inlineStr">
-        <is>
-          <t>126.62</t>
-        </is>
-      </c>
-      <c r="F717" t="inlineStr">
-        <is>
-          <t>127.08</t>
-        </is>
-      </c>
-      <c r="G717" t="inlineStr">
-        <is>
-          <t>127.08</t>
-        </is>
-      </c>
-      <c r="H717" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="E717" t="inlineStr"/>
+      <c r="F717" t="inlineStr"/>
+      <c r="G717" t="inlineStr"/>
+      <c r="H717" t="inlineStr"/>
     </row>
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B718" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C718" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Machinery Orders MoMNOV</t>
         </is>
       </c>
       <c r="D718" t="inlineStr"/>
       <c r="E718" t="inlineStr">
         <is>
-          <t>€5628M</t>
+          <t>2.1%</t>
         </is>
       </c>
       <c r="F718" t="inlineStr"/>
       <c r="G718" t="inlineStr">
         <is>
-          <t>€2900.0M</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H718" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B719" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C719" t="inlineStr">
         <is>
-          <t>Bank Loan Growth YoYJAN/03</t>
+          <t>Machinery Orders YoYNOV</t>
         </is>
       </c>
       <c r="D719" t="inlineStr"/>
       <c r="E719" t="inlineStr">
         <is>
-          <t>11.5%</t>
+          <t>5.6%</t>
         </is>
       </c>
       <c r="F719" t="inlineStr"/>
-      <c r="G719" t="inlineStr"/>
+      <c r="G719" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
       <c r="H719" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>06:45 AM</t>
         </is>
       </c>
       <c r="B720" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C720" t="inlineStr">
         <is>
-          <t>Deposit Growth YoYJAN/03</t>
+          <t>Loan Prime Rate 1Y</t>
         </is>
       </c>
       <c r="D720" t="inlineStr"/>
       <c r="E720" t="inlineStr">
         <is>
-          <t>11.5%</t>
+          <t>3.1%</t>
         </is>
       </c>
       <c r="F720" t="inlineStr"/>
       <c r="G720" t="inlineStr"/>
       <c r="H720" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>06:45 AM</t>
         </is>
       </c>
       <c r="B721" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C721" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/10</t>
+          <t>Loan Prime Rate 5YJAN</t>
         </is>
       </c>
       <c r="D721" t="inlineStr"/>
-      <c r="E721" t="inlineStr"/>
+      <c r="E721" t="inlineStr">
+        <is>
+          <t>3.6%</t>
+        </is>
+      </c>
       <c r="F721" t="inlineStr"/>
       <c r="G721" t="inlineStr"/>
       <c r="H721" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="722">
-      <c r="A722" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A722" t="inlineStr"/>
       <c r="B722" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C722" t="inlineStr">
         <is>
-          <t>Foreign Securities PurchasesNOV</t>
+          <t>Eurogroup Meeting</t>
         </is>
       </c>
       <c r="D722" t="inlineStr"/>
-      <c r="E722" t="inlineStr">
-        <is>
-          <t>C$21.55B</t>
-        </is>
-      </c>
+      <c r="E722" t="inlineStr"/>
       <c r="F722" t="inlineStr"/>
       <c r="G722" t="inlineStr"/>
       <c r="H722" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="723">
-      <c r="A723" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B723" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C723" t="inlineStr">
-        <is>
-          <t>Foreign Securities Purchases by CanadiansNOV</t>
-        </is>
-      </c>
-      <c r="D723" t="inlineStr"/>
-      <c r="E723" t="inlineStr">
-        <is>
-          <t>C$-2.65B</t>
-        </is>
-      </c>
-      <c r="F723" t="inlineStr"/>
-      <c r="G723" t="inlineStr"/>
-      <c r="H723" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="724">
-      <c r="A724" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B724" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C724" t="inlineStr">
-        <is>
-          <t>Building Permits PrelDEC</t>
-        </is>
-      </c>
-      <c r="D724" t="inlineStr"/>
-      <c r="E724" t="inlineStr">
-        <is>
-          <t>1.493M</t>
-        </is>
-      </c>
-      <c r="F724" t="inlineStr"/>
-      <c r="G724" t="inlineStr">
-        <is>
-          <t>1.48M</t>
-        </is>
-      </c>
-      <c r="H724" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="725">
-      <c r="A725" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B725" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C725" t="inlineStr">
-        <is>
-          <t>Housing StartsDEC</t>
-        </is>
-      </c>
-      <c r="D725" t="inlineStr"/>
-      <c r="E725" t="inlineStr">
-        <is>
-          <t>1.289M</t>
-        </is>
-      </c>
-      <c r="F725" t="inlineStr">
-        <is>
-          <t>1.31M</t>
-        </is>
-      </c>
-      <c r="G725" t="inlineStr">
-        <is>
-          <t>1.32M</t>
-        </is>
-      </c>
-      <c r="H725" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="726">
-      <c r="A726" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B726" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C726" t="inlineStr">
-        <is>
-          <t>Building Permits MoM PrelDEC</t>
-        </is>
-      </c>
-      <c r="D726" t="inlineStr"/>
-      <c r="E726" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="F726" t="inlineStr"/>
-      <c r="G726" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
-      <c r="H726" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="727">
-      <c r="A727" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B727" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C727" t="inlineStr">
-        <is>
-          <t>Housing Starts MoMDEC</t>
-        </is>
-      </c>
-      <c r="D727" t="inlineStr"/>
-      <c r="E727" t="inlineStr">
-        <is>
-          <t>-1.8%</t>
-        </is>
-      </c>
-      <c r="F727" t="inlineStr"/>
-      <c r="G727" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="H727" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="728">
-      <c r="A728" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B728" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C728" t="inlineStr">
-        <is>
-          <t>Industrial Production MoMDEC</t>
-        </is>
-      </c>
-      <c r="D728" t="inlineStr"/>
-      <c r="E728" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F728" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G728" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="H728" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="729">
-      <c r="A729" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B729" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C729" t="inlineStr">
-        <is>
-          <t>Capacity UtilizationDEC</t>
-        </is>
-      </c>
-      <c r="D729" t="inlineStr"/>
-      <c r="E729" t="inlineStr">
-        <is>
-          <t>76.8%</t>
-        </is>
-      </c>
-      <c r="F729" t="inlineStr">
-        <is>
-          <t>77.6%</t>
-        </is>
-      </c>
-      <c r="G729" t="inlineStr">
-        <is>
-          <t>76.9%</t>
-        </is>
-      </c>
-      <c r="H729" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="730">
-      <c r="A730" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B730" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C730" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYDEC</t>
-        </is>
-      </c>
-      <c r="D730" t="inlineStr"/>
-      <c r="E730" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
-      <c r="F730" t="inlineStr"/>
-      <c r="G730" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="H730" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="731">
-      <c r="A731" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B731" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C731" t="inlineStr">
-        <is>
-          <t>Manufacturing Production MoMDEC</t>
-        </is>
-      </c>
-      <c r="D731" t="inlineStr"/>
-      <c r="E731" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F731" t="inlineStr"/>
-      <c r="G731" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H731" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="732">
-      <c r="A732" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B732" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C732" t="inlineStr">
-        <is>
-          <t>Manufacturing Production YoYDEC</t>
-        </is>
-      </c>
-      <c r="D732" t="inlineStr"/>
-      <c r="E732" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
-      <c r="F732" t="inlineStr"/>
-      <c r="G732" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="H732" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="733">
-      <c r="A733" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B733" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C733" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountJAN/17</t>
-        </is>
-      </c>
-      <c r="D733" t="inlineStr"/>
-      <c r="E733" t="inlineStr"/>
-      <c r="F733" t="inlineStr"/>
-      <c r="G733" t="inlineStr"/>
-      <c r="H733" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="734">
-      <c r="A734" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B734" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C734" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountJAN/17</t>
-        </is>
-      </c>
-      <c r="D734" t="inlineStr"/>
-      <c r="E734" t="inlineStr"/>
-      <c r="F734" t="inlineStr"/>
-      <c r="G734" t="inlineStr"/>
-      <c r="H734" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="735">
-      <c r="A735" t="inlineStr"/>
-      <c r="B735" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C735" t="inlineStr">
-        <is>
-          <t>50-Year KTB Auction</t>
-        </is>
-      </c>
-      <c r="D735" t="inlineStr"/>
-      <c r="E735" t="inlineStr">
-        <is>
-          <t>2.40%</t>
-        </is>
-      </c>
-      <c r="F735" t="inlineStr"/>
-      <c r="G735" t="inlineStr"/>
-      <c r="H735" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="736">
-      <c r="A736" t="inlineStr">
-        <is>
-          <t>Saturday January 18 2025</t>
-        </is>
-      </c>
-      <c r="B736" t="inlineStr"/>
-      <c r="C736" t="inlineStr"/>
-      <c r="D736" t="inlineStr"/>
-      <c r="E736" t="inlineStr"/>
-      <c r="F736" t="inlineStr"/>
-      <c r="G736" t="inlineStr"/>
-      <c r="H736" t="inlineStr"/>
-    </row>
-    <row r="737">
-      <c r="A737" t="inlineStr">
-        <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
-      <c r="B737" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C737" t="inlineStr">
-        <is>
-          <t>Net Long-term TIC FlowsNOV</t>
-        </is>
-      </c>
-      <c r="D737" t="inlineStr"/>
-      <c r="E737" t="inlineStr">
-        <is>
-          <t>$152.3B</t>
-        </is>
-      </c>
-      <c r="F737" t="inlineStr"/>
-      <c r="G737" t="inlineStr"/>
-      <c r="H737" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="738">
-      <c r="A738" t="inlineStr">
-        <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
-      <c r="B738" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C738" t="inlineStr">
-        <is>
-          <t>Foreign Bond InvestmentNOV</t>
-        </is>
-      </c>
-      <c r="D738" t="inlineStr"/>
-      <c r="E738" t="inlineStr">
-        <is>
-          <t>$92.1B</t>
-        </is>
-      </c>
-      <c r="F738" t="inlineStr"/>
-      <c r="G738" t="inlineStr"/>
-      <c r="H738" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="739">
-      <c r="A739" t="inlineStr">
-        <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
-      <c r="B739" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C739" t="inlineStr">
-        <is>
-          <t>Overall Net Capital FlowsNOV</t>
-        </is>
-      </c>
-      <c r="D739" t="inlineStr"/>
-      <c r="E739" t="inlineStr">
-        <is>
-          <t>$203.6B</t>
-        </is>
-      </c>
-      <c r="F739" t="inlineStr"/>
-      <c r="G739" t="inlineStr"/>
-      <c r="H739" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="740">
-      <c r="A740" t="inlineStr">
-        <is>
-          <t>Monday January 20 2025</t>
-        </is>
-      </c>
-      <c r="B740" t="inlineStr"/>
-      <c r="C740" t="inlineStr"/>
-      <c r="D740" t="inlineStr"/>
-      <c r="E740" t="inlineStr"/>
-      <c r="F740" t="inlineStr"/>
-      <c r="G740" t="inlineStr"/>
-      <c r="H740" t="inlineStr"/>
-    </row>
-    <row r="741">
-      <c r="A741" t="inlineStr">
-        <is>
-          <t>05:20 AM</t>
-        </is>
-      </c>
-      <c r="B741" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C741" t="inlineStr">
-        <is>
-          <t>Machinery Orders MoMNOV</t>
-        </is>
-      </c>
-      <c r="D741" t="inlineStr"/>
-      <c r="E741" t="inlineStr">
-        <is>
-          <t>2.1%</t>
-        </is>
-      </c>
-      <c r="F741" t="inlineStr"/>
-      <c r="G741" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H741" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="742">
-      <c r="A742" t="inlineStr">
-        <is>
-          <t>05:20 AM</t>
-        </is>
-      </c>
-      <c r="B742" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C742" t="inlineStr">
-        <is>
-          <t>Machinery Orders YoYNOV</t>
-        </is>
-      </c>
-      <c r="D742" t="inlineStr"/>
-      <c r="E742" t="inlineStr">
-        <is>
-          <t>5.6%</t>
-        </is>
-      </c>
-      <c r="F742" t="inlineStr"/>
-      <c r="G742" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
-      <c r="H742" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="743">
-      <c r="A743" t="inlineStr">
-        <is>
-          <t>06:45 AM</t>
-        </is>
-      </c>
-      <c r="B743" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C743" t="inlineStr">
-        <is>
-          <t>Loan Prime Rate 1Y</t>
-        </is>
-      </c>
-      <c r="D743" t="inlineStr"/>
-      <c r="E743" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="F743" t="inlineStr"/>
-      <c r="G743" t="inlineStr"/>
-      <c r="H743" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="744">
-      <c r="A744" t="inlineStr">
-        <is>
-          <t>06:45 AM</t>
-        </is>
-      </c>
-      <c r="B744" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C744" t="inlineStr">
-        <is>
-          <t>Loan Prime Rate 5YJAN</t>
-        </is>
-      </c>
-      <c r="D744" t="inlineStr"/>
-      <c r="E744" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="F744" t="inlineStr"/>
-      <c r="G744" t="inlineStr"/>
-      <c r="H744" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="745">
-      <c r="A745" t="inlineStr"/>
-      <c r="B745" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C745" t="inlineStr">
-        <is>
-          <t>Eurogroup Meeting</t>
-        </is>
-      </c>
-      <c r="D745" t="inlineStr"/>
-      <c r="E745" t="inlineStr"/>
-      <c r="F745" t="inlineStr"/>
-      <c r="G745" t="inlineStr"/>
-      <c r="H745" t="inlineStr">
         <is>
           <t>2</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-20.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H732"/>
+  <dimension ref="A1:H709"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16709,10 +16709,8 @@
       </c>
       <c r="F472" t="inlineStr"/>
       <c r="G472" t="inlineStr"/>
-      <c r="H472" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H472" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="473">
@@ -16735,10 +16733,8 @@
       </c>
       <c r="F473" t="inlineStr"/>
       <c r="G473" t="inlineStr"/>
-      <c r="H473" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H473" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="474">
@@ -16761,10 +16757,8 @@
       </c>
       <c r="F474" t="inlineStr"/>
       <c r="G474" t="inlineStr"/>
-      <c r="H474" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H474" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="475">
@@ -16791,10 +16785,8 @@
           <t>-19.0%</t>
         </is>
       </c>
-      <c r="H475" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H475" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="476">
@@ -16821,10 +16813,8 @@
           <t>-4.0%</t>
         </is>
       </c>
-      <c r="H476" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H476" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="477">
@@ -16851,10 +16841,8 @@
           <t>6.4%</t>
         </is>
       </c>
-      <c r="H477" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H477" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="478">
@@ -16877,10 +16865,8 @@
       </c>
       <c r="F478" t="inlineStr"/>
       <c r="G478" t="inlineStr"/>
-      <c r="H478" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H478" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="479">
@@ -16899,10 +16885,8 @@
       <c r="E479" t="inlineStr"/>
       <c r="F479" t="inlineStr"/>
       <c r="G479" t="inlineStr"/>
-      <c r="H479" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H479" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="480">
@@ -16947,10 +16931,8 @@
           <t>$-220.0B</t>
         </is>
       </c>
-      <c r="H481" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H481" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="482">
@@ -16977,10 +16959,8 @@
       </c>
       <c r="F482" t="inlineStr"/>
       <c r="G482" t="inlineStr"/>
-      <c r="H482" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H482" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="483">
@@ -17007,10 +16987,8 @@
       </c>
       <c r="F483" t="inlineStr"/>
       <c r="G483" t="inlineStr"/>
-      <c r="H483" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H483" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="484">
@@ -17041,10 +17019,8 @@
           <t>¥1990.0B</t>
         </is>
       </c>
-      <c r="H484" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H484" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="485">
@@ -17075,10 +17051,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H485" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H485" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="486">
@@ -17109,10 +17083,8 @@
         </is>
       </c>
       <c r="G486" t="inlineStr"/>
-      <c r="H486" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H486" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="487">
@@ -17143,10 +17115,8 @@
         </is>
       </c>
       <c r="G487" t="inlineStr"/>
-      <c r="H487" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H487" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="488">
@@ -17173,10 +17143,8 @@
       </c>
       <c r="F488" t="inlineStr"/>
       <c r="G488" t="inlineStr"/>
-      <c r="H488" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H488" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="489">
@@ -17207,10 +17175,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H489" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H489" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="490">
@@ -17241,10 +17207,8 @@
           <t>49.6</t>
         </is>
       </c>
-      <c r="H490" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H490" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="491">
@@ -17271,10 +17235,8 @@
       </c>
       <c r="F491" t="inlineStr"/>
       <c r="G491" t="inlineStr"/>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H491" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="492">
@@ -17301,10 +17263,8 @@
       </c>
       <c r="F492" t="inlineStr"/>
       <c r="G492" t="inlineStr"/>
-      <c r="H492" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H492" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="493">
@@ -17335,10 +17295,8 @@
           <t>10.2%</t>
         </is>
       </c>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H493" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="494">
@@ -17369,10 +17327,8 @@
           <t>-3.2%</t>
         </is>
       </c>
-      <c r="H494" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H494" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="495">
@@ -17407,10 +17363,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H495" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H495" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="496">
@@ -17441,10 +17395,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H496" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="497">
@@ -17475,10 +17427,8 @@
           <t>€-162.0B</t>
         </is>
       </c>
-      <c r="H497" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H497" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="498">
@@ -17509,10 +17459,8 @@
           <t>-0.3%</t>
         </is>
       </c>
-      <c r="H498" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H498" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="499">
@@ -17543,10 +17491,8 @@
           <t>-3.3%</t>
         </is>
       </c>
-      <c r="H499" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H499" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="500">
@@ -17573,10 +17519,8 @@
       </c>
       <c r="F500" t="inlineStr"/>
       <c r="G500" t="inlineStr"/>
-      <c r="H500" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H500" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="501">
@@ -17603,10 +17547,8 @@
       </c>
       <c r="F501" t="inlineStr"/>
       <c r="G501" t="inlineStr"/>
-      <c r="H501" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H501" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="502">
@@ -17633,10 +17575,8 @@
       </c>
       <c r="F502" t="inlineStr"/>
       <c r="G502" t="inlineStr"/>
-      <c r="H502" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H502" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="503">
@@ -17663,10 +17603,8 @@
       </c>
       <c r="F503" t="inlineStr"/>
       <c r="G503" t="inlineStr"/>
-      <c r="H503" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H503" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="504">
@@ -17697,10 +17635,8 @@
           <t>102</t>
         </is>
       </c>
-      <c r="H504" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H504" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="505">
@@ -17735,10 +17671,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H505" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H505" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="506">
@@ -17773,10 +17707,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H506" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H506" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="507">
@@ -17811,10 +17743,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H507" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H507" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="508">
@@ -17845,10 +17775,8 @@
           <t>146.8</t>
         </is>
       </c>
-      <c r="H508" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H508" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="509">
@@ -17879,10 +17807,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H509" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H509" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="510">
@@ -17913,10 +17839,8 @@
           <t>3.5%</t>
         </is>
       </c>
-      <c r="H510" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H510" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="511">
@@ -17951,10 +17875,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H511" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H511" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="512">
@@ -17981,10 +17903,8 @@
       </c>
       <c r="F512" t="inlineStr"/>
       <c r="G512" t="inlineStr"/>
-      <c r="H512" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H512" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="513">
@@ -18007,10 +17927,8 @@
       <c r="E513" t="inlineStr"/>
       <c r="F513" t="inlineStr"/>
       <c r="G513" t="inlineStr"/>
-      <c r="H513" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H513" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="514">
@@ -18041,10 +17959,8 @@
           <t>54.2</t>
         </is>
       </c>
-      <c r="H514" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H514" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="515">
@@ -18067,10 +17983,8 @@
       </c>
       <c r="F515" t="inlineStr"/>
       <c r="G515" t="inlineStr"/>
-      <c r="H515" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H515" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="516">
@@ -18115,10 +18029,8 @@
           <t>2.0%</t>
         </is>
       </c>
-      <c r="H517" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H517" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="518">
@@ -18149,10 +18061,8 @@
           <t>116.0%</t>
         </is>
       </c>
-      <c r="H518" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H518" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="519">
@@ -18175,10 +18085,8 @@
       <c r="E519" t="inlineStr"/>
       <c r="F519" t="inlineStr"/>
       <c r="G519" t="inlineStr"/>
-      <c r="H519" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H519" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="520">
@@ -18209,10 +18117,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H520" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H520" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="521">
@@ -18243,10 +18149,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H521" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H521" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="522">
@@ -18273,10 +18177,8 @@
       </c>
       <c r="F522" t="inlineStr"/>
       <c r="G522" t="inlineStr"/>
-      <c r="H522" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H522" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="523">
@@ -18307,10 +18209,8 @@
           <t>$ 2.8B</t>
         </is>
       </c>
-      <c r="H523" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H523" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="524">
@@ -18337,10 +18237,8 @@
       </c>
       <c r="F524" t="inlineStr"/>
       <c r="G524" t="inlineStr"/>
-      <c r="H524" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H524" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="525">
@@ -18367,10 +18265,8 @@
       </c>
       <c r="F525" t="inlineStr"/>
       <c r="G525" t="inlineStr"/>
-      <c r="H525" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H525" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="526">
@@ -18405,10 +18301,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H526" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H526" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="527">
@@ -18439,10 +18333,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H527" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H527" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="528">
@@ -18473,10 +18365,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H528" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H528" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="529">
@@ -18507,10 +18397,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H529" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H529" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="530">
@@ -18541,10 +18429,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H530" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H530" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="531">
@@ -18575,10 +18461,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H531" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H531" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="532">
@@ -18609,10 +18493,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H532" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H532" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="533">
@@ -18643,10 +18525,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H533" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H533" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="534">
@@ -18677,10 +18557,8 @@
           <t>2.1%</t>
         </is>
       </c>
-      <c r="H534" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H534" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="535">
@@ -18711,10 +18589,8 @@
           <t>-1.3%</t>
         </is>
       </c>
-      <c r="H535" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H535" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="536">
@@ -18745,10 +18621,8 @@
           <t>-1%</t>
         </is>
       </c>
-      <c r="H536" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H536" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="537">
@@ -18779,10 +18653,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H537" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H537" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="538">
@@ -18813,10 +18685,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H538" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H538" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="539">
@@ -18847,10 +18717,8 @@
           <t>0.0%</t>
         </is>
       </c>
-      <c r="H539" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H539" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="540">
@@ -18881,10 +18749,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H540" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H540" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="541">
@@ -18915,10 +18781,8 @@
           <t>10%</t>
         </is>
       </c>
-      <c r="H541" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H541" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="542">
@@ -18949,10 +18813,8 @@
           <t>6%</t>
         </is>
       </c>
-      <c r="H542" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H542" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="543">
@@ -18983,10 +18845,8 @@
           <t>5.25%</t>
         </is>
       </c>
-      <c r="H543" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H543" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="544">
@@ -19017,10 +18877,8 @@
           <t>6.75%</t>
         </is>
       </c>
-      <c r="H544" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H544" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="545">
@@ -19055,10 +18913,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H545" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H545" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="546">
@@ -19093,10 +18949,8 @@
           <t>1.3%</t>
         </is>
       </c>
-      <c r="H546" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H546" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="547">
@@ -19131,10 +18985,8 @@
           <t>1.8%</t>
         </is>
       </c>
-      <c r="H547" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H547" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="548">
@@ -19169,10 +19021,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H548" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H548" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="549">
@@ -19207,10 +19057,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H549" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H549" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="550">
@@ -19245,10 +19093,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H550" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H550" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="551">
@@ -19283,10 +19129,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H551" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H551" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="552">
@@ -19321,10 +19165,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H552" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H552" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="553">
@@ -19359,10 +19201,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H553" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H553" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="554">
@@ -19393,10 +19233,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H554" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H554" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="555">
@@ -19427,10 +19265,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H555" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H555" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="556">
@@ -19461,10 +19297,8 @@
           <t>-1.5%</t>
         </is>
       </c>
-      <c r="H556" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H556" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="557">
@@ -19491,10 +19325,8 @@
       </c>
       <c r="F557" t="inlineStr"/>
       <c r="G557" t="inlineStr"/>
-      <c r="H557" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H557" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="558">
@@ -19521,10 +19353,8 @@
       </c>
       <c r="F558" t="inlineStr"/>
       <c r="G558" t="inlineStr"/>
-      <c r="H558" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H558" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="559">
@@ -19555,10 +19385,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H559" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H559" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="560">
@@ -19589,10 +19417,8 @@
           <t>-5.0%</t>
         </is>
       </c>
-      <c r="H560" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H560" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="561">
@@ -19619,10 +19445,8 @@
       </c>
       <c r="F561" t="inlineStr"/>
       <c r="G561" t="inlineStr"/>
-      <c r="H561" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H561" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="562">
@@ -19649,10 +19473,8 @@
       </c>
       <c r="F562" t="inlineStr"/>
       <c r="G562" t="inlineStr"/>
-      <c r="H562" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H562" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="563">
@@ -19679,10 +19501,8 @@
       </c>
       <c r="F563" t="inlineStr"/>
       <c r="G563" t="inlineStr"/>
-      <c r="H563" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H563" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="564">
@@ -19709,10 +19529,8 @@
       </c>
       <c r="F564" t="inlineStr"/>
       <c r="G564" t="inlineStr"/>
-      <c r="H564" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H564" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="565">
@@ -19739,10 +19557,8 @@
       </c>
       <c r="F565" t="inlineStr"/>
       <c r="G565" t="inlineStr"/>
-      <c r="H565" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H565" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="566">
@@ -19773,10 +19589,8 @@
           <t>$615.0B</t>
         </is>
       </c>
-      <c r="H566" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H566" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="567">
@@ -19799,10 +19613,8 @@
       <c r="E567" t="inlineStr"/>
       <c r="F567" t="inlineStr"/>
       <c r="G567" t="inlineStr"/>
-      <c r="H567" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H567" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="568">
@@ -19837,10 +19649,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H568" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H568" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="569">
@@ -19867,10 +19677,8 @@
       </c>
       <c r="F569" t="inlineStr"/>
       <c r="G569" t="inlineStr"/>
-      <c r="H569" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H569" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="570">
@@ -19905,10 +19713,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H570" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H570" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="571">
@@ -19943,10 +19749,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H571" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H571" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="572">
@@ -19977,10 +19781,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H572" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H572" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="573">
@@ -20015,10 +19817,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H573" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H573" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="574">
@@ -20049,10 +19849,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H574" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H574" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="575">
@@ -20083,10 +19881,8 @@
           <t>315.6</t>
         </is>
       </c>
-      <c r="H575" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H575" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="576">
@@ -20117,10 +19913,8 @@
           <t>317.4</t>
         </is>
       </c>
-      <c r="H576" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H576" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="577">
@@ -20151,10 +19945,8 @@
           <t>0.15</t>
         </is>
       </c>
-      <c r="H577" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H577" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="578">
@@ -20177,10 +19969,8 @@
       <c r="E578" t="inlineStr"/>
       <c r="F578" t="inlineStr"/>
       <c r="G578" t="inlineStr"/>
-      <c r="H578" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H578" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="579">
@@ -20207,10 +19997,8 @@
       </c>
       <c r="F579" t="inlineStr"/>
       <c r="G579" t="inlineStr"/>
-      <c r="H579" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H579" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="580">
@@ -20237,10 +20025,8 @@
       </c>
       <c r="F580" t="inlineStr"/>
       <c r="G580" t="inlineStr"/>
-      <c r="H580" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H580" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="581">
@@ -20267,10 +20053,8 @@
       </c>
       <c r="F581" t="inlineStr"/>
       <c r="G581" t="inlineStr"/>
-      <c r="H581" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H581" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="582">
@@ -20297,10 +20081,8 @@
       </c>
       <c r="F582" t="inlineStr"/>
       <c r="G582" t="inlineStr"/>
-      <c r="H582" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H582" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="583">
@@ -20327,10 +20109,8 @@
       </c>
       <c r="F583" t="inlineStr"/>
       <c r="G583" t="inlineStr"/>
-      <c r="H583" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H583" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="584">
@@ -20357,10 +20137,8 @@
       </c>
       <c r="F584" t="inlineStr"/>
       <c r="G584" t="inlineStr"/>
-      <c r="H584" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H584" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="585">
@@ -20387,10 +20165,8 @@
       </c>
       <c r="F585" t="inlineStr"/>
       <c r="G585" t="inlineStr"/>
-      <c r="H585" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H585" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="586">
@@ -20417,10 +20193,8 @@
       </c>
       <c r="F586" t="inlineStr"/>
       <c r="G586" t="inlineStr"/>
-      <c r="H586" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H586" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="587">
@@ -20447,10 +20221,8 @@
       </c>
       <c r="F587" t="inlineStr"/>
       <c r="G587" t="inlineStr"/>
-      <c r="H587" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H587" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="588">
@@ -20481,10 +20253,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H588" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H588" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="589">
@@ -20515,10 +20285,8 @@
           <t>9.5%</t>
         </is>
       </c>
-      <c r="H589" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H589" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="590">
@@ -20541,10 +20309,8 @@
       <c r="E590" t="inlineStr"/>
       <c r="F590" t="inlineStr"/>
       <c r="G590" t="inlineStr"/>
-      <c r="H590" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H590" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="591">
@@ -20571,10 +20337,8 @@
       </c>
       <c r="F591" t="inlineStr"/>
       <c r="G591" t="inlineStr"/>
-      <c r="H591" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H591" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="592">
@@ -20605,10 +20369,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H592" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H592" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="593">
@@ -20635,10 +20397,8 @@
       </c>
       <c r="F593" t="inlineStr"/>
       <c r="G593" t="inlineStr"/>
-      <c r="H593" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H593" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="594">
@@ -20661,10 +20421,8 @@
       <c r="E594" t="inlineStr"/>
       <c r="F594" t="inlineStr"/>
       <c r="G594" t="inlineStr"/>
-      <c r="H594" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H594" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="595">
@@ -20687,10 +20445,8 @@
       </c>
       <c r="F595" t="inlineStr"/>
       <c r="G595" t="inlineStr"/>
-      <c r="H595" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H595" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="596">
@@ -20717,10 +20473,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H596" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H596" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="597">
@@ -20747,10 +20501,8 @@
           <t>2%</t>
         </is>
       </c>
-      <c r="H597" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H597" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="598">
@@ -20777,10 +20529,8 @@
           <t>1.0%</t>
         </is>
       </c>
-      <c r="H598" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H598" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="599">
@@ -20803,10 +20553,8 @@
       </c>
       <c r="F599" t="inlineStr"/>
       <c r="G599" t="inlineStr"/>
-      <c r="H599" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H599" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="600">
@@ -20825,10 +20573,8 @@
       <c r="E600" t="inlineStr"/>
       <c r="F600" t="inlineStr"/>
       <c r="G600" t="inlineStr"/>
-      <c r="H600" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H600" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="601">
@@ -20855,10 +20601,8 @@
           <t>$ -38.0B</t>
         </is>
       </c>
-      <c r="H601" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H601" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="602">
@@ -20885,10 +20629,8 @@
           <t>$ 32.5B</t>
         </is>
       </c>
-      <c r="H602" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H602" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="603">
@@ -20915,10 +20657,8 @@
           <t>$ 70.5B</t>
         </is>
       </c>
-      <c r="H603" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H603" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="604">
@@ -20963,10 +20703,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H605" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H605" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="606">
@@ -20997,10 +20735,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H606" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H606" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="607">
@@ -21031,10 +20767,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H607" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H607" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="608">
@@ -21065,10 +20799,8 @@
           <t>17.0%</t>
         </is>
       </c>
-      <c r="H608" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H608" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="609">
@@ -21099,10 +20831,8 @@
           <t>4.30%</t>
         </is>
       </c>
-      <c r="H609" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H609" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="610">
@@ -21133,10 +20863,8 @@
           <t>25.1K</t>
         </is>
       </c>
-      <c r="H610" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H610" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="611">
@@ -21163,10 +20891,8 @@
       </c>
       <c r="F611" t="inlineStr"/>
       <c r="G611" t="inlineStr"/>
-      <c r="H611" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H611" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="612">
@@ -21193,10 +20919,8 @@
       </c>
       <c r="F612" t="inlineStr"/>
       <c r="G612" t="inlineStr"/>
-      <c r="H612" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H612" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="613">
@@ -21227,10 +20951,8 @@
           <t>66.8%</t>
         </is>
       </c>
-      <c r="H613" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H613" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="614">
@@ -21265,10 +20987,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H614" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H614" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="615">
@@ -21295,10 +21015,8 @@
       </c>
       <c r="F615" t="inlineStr"/>
       <c r="G615" t="inlineStr"/>
-      <c r="H615" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H615" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="616">
@@ -21325,10 +21043,8 @@
       </c>
       <c r="F616" t="inlineStr"/>
       <c r="G616" t="inlineStr"/>
-      <c r="H616" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H616" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="617">
@@ -21355,10 +21071,8 @@
       </c>
       <c r="F617" t="inlineStr"/>
       <c r="G617" t="inlineStr"/>
-      <c r="H617" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H617" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="618">
@@ -21393,10 +21107,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H618" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H618" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="619">
@@ -21431,10 +21143,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H619" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H619" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="620">
@@ -21469,10 +21179,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H620" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H620" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="621">
@@ -21507,10 +21215,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H621" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H621" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="622">
@@ -21541,10 +21247,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H622" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H622" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="623">
@@ -21575,10 +21279,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H623" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H623" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="624">
@@ -21609,10 +21311,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H624" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H624" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="625">
@@ -21643,10 +21343,8 @@
           <t>£-17.0B</t>
         </is>
       </c>
-      <c r="H625" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H625" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="626">
@@ -21677,10 +21375,8 @@
           <t>£-6.8B</t>
         </is>
       </c>
-      <c r="H626" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H626" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="627">
@@ -21711,10 +21407,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H627" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H627" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="628">
@@ -21745,10 +21439,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H628" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H628" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="629">
@@ -21779,10 +21471,8 @@
           <t>£-3.9B</t>
         </is>
       </c>
-      <c r="H629" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H629" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="630">
@@ -21813,10 +21503,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H630" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H630" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="631">
@@ -21847,10 +21535,8 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H631" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H631" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="632">
@@ -21881,10 +21567,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H632" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H632" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="633">
@@ -21915,10 +21599,8 @@
           <t>€3.2B</t>
         </is>
       </c>
-      <c r="H633" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H633" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="634">
@@ -21953,10 +21635,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H634" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H634" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="635">
@@ -21991,10 +21671,8 @@
           <t>1.3%</t>
         </is>
       </c>
-      <c r="H635" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H635" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="636">
@@ -22029,10 +21707,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H636" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H636" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="637">
@@ -22067,10 +21743,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H637" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H637" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="638">
@@ -22093,10 +21767,8 @@
       <c r="E638" t="inlineStr"/>
       <c r="F638" t="inlineStr"/>
       <c r="G638" t="inlineStr"/>
-      <c r="H638" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H638" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="639">
@@ -22119,10 +21791,8 @@
       <c r="E639" t="inlineStr"/>
       <c r="F639" t="inlineStr"/>
       <c r="G639" t="inlineStr"/>
-      <c r="H639" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H639" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="640">
@@ -22145,10 +21815,8 @@
       <c r="E640" t="inlineStr"/>
       <c r="F640" t="inlineStr"/>
       <c r="G640" t="inlineStr"/>
-      <c r="H640" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H640" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="641">
@@ -22179,10 +21847,8 @@
           <t>€1.8B</t>
         </is>
       </c>
-      <c r="H641" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H641" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="642">
@@ -22209,10 +21875,8 @@
       </c>
       <c r="F642" t="inlineStr"/>
       <c r="G642" t="inlineStr"/>
-      <c r="H642" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H642" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="643">
@@ -22243,10 +21907,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H643" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H643" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="644">
@@ -22277,10 +21939,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H644" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H644" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="645">
@@ -22311,10 +21971,8 @@
           <t>240.0K</t>
         </is>
       </c>
-      <c r="H645" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H645" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="646">
@@ -22349,10 +22007,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H646" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H646" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="647">
@@ -22383,10 +22039,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H647" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H647" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="648">
@@ -22417,10 +22071,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H648" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H648" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="649">
@@ -22451,10 +22103,8 @@
           <t>209.0K</t>
         </is>
       </c>
-      <c r="H649" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H649" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="650">
@@ -22485,10 +22135,8 @@
           <t>-10</t>
         </is>
       </c>
-      <c r="H650" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H650" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="651">
@@ -22523,10 +22171,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H651" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H651" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="652">
@@ -22557,10 +22203,8 @@
           <t>1870.0K</t>
         </is>
       </c>
-      <c r="H652" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H652" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="653">
@@ -22591,10 +22235,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H653" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H653" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="654">
@@ -22625,10 +22267,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H654" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H654" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="655">
@@ -22659,10 +22299,8 @@
           <t>215.0K</t>
         </is>
       </c>
-      <c r="H655" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H655" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="656">
@@ -22689,10 +22327,8 @@
       </c>
       <c r="F656" t="inlineStr"/>
       <c r="G656" t="inlineStr"/>
-      <c r="H656" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H656" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="657">
@@ -22719,10 +22355,8 @@
       </c>
       <c r="F657" t="inlineStr"/>
       <c r="G657" t="inlineStr"/>
-      <c r="H657" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H657" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="658">
@@ -22749,10 +22383,8 @@
       </c>
       <c r="F658" t="inlineStr"/>
       <c r="G658" t="inlineStr"/>
-      <c r="H658" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H658" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="659">
@@ -22779,10 +22411,8 @@
       </c>
       <c r="F659" t="inlineStr"/>
       <c r="G659" t="inlineStr"/>
-      <c r="H659" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H659" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="660">
@@ -22809,10 +22439,8 @@
       </c>
       <c r="F660" t="inlineStr"/>
       <c r="G660" t="inlineStr"/>
-      <c r="H660" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H660" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="661">
@@ -22843,10 +22471,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H661" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H661" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="662">
@@ -22877,10 +22503,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H662" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H662" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="663">
@@ -22911,10 +22535,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H663" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H663" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="664">
@@ -22949,10 +22571,8 @@
           <t>45</t>
         </is>
       </c>
-      <c r="H664" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H664" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="665">
@@ -22987,10 +22607,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H665" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H665" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="666">
@@ -23017,10 +22635,8 @@
       </c>
       <c r="F666" t="inlineStr"/>
       <c r="G666" t="inlineStr"/>
-      <c r="H666" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H666" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="667">
@@ -23047,10 +22663,8 @@
       </c>
       <c r="F667" t="inlineStr"/>
       <c r="G667" t="inlineStr"/>
-      <c r="H667" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H667" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="668">
@@ -23077,10 +22691,8 @@
       </c>
       <c r="F668" t="inlineStr"/>
       <c r="G668" t="inlineStr"/>
-      <c r="H668" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H668" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="669">
@@ -23103,10 +22715,8 @@
       <c r="E669" t="inlineStr"/>
       <c r="F669" t="inlineStr"/>
       <c r="G669" t="inlineStr"/>
-      <c r="H669" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H669" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="670">
@@ -23133,106 +22743,144 @@
       </c>
       <c r="F670" t="inlineStr"/>
       <c r="G670" t="inlineStr"/>
-      <c r="H670" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H670" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>Friday January 17 2025</t>
-        </is>
-      </c>
-      <c r="B671" t="inlineStr"/>
-      <c r="C671" t="inlineStr"/>
+          <t>02:30 PM</t>
+        </is>
+      </c>
+      <c r="B671" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="C671" t="inlineStr">
+        <is>
+          <t>Current Account s.aNOV</t>
+        </is>
+      </c>
       <c r="D671" t="inlineStr"/>
-      <c r="E671" t="inlineStr"/>
+      <c r="E671" t="inlineStr">
+        <is>
+          <t>€33.5B</t>
+        </is>
+      </c>
       <c r="F671" t="inlineStr"/>
       <c r="G671" t="inlineStr"/>
-      <c r="H671" t="inlineStr"/>
+      <c r="H671" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C672" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJAN/15</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D672" t="inlineStr"/>
-      <c r="E672" t="inlineStr"/>
+      <c r="E672" t="inlineStr">
+        <is>
+          <t>€-3.93B</t>
+        </is>
+      </c>
       <c r="F672" t="inlineStr"/>
-      <c r="G672" t="inlineStr"/>
+      <c r="G672" t="inlineStr">
+        <is>
+          <t>€-4.2B</t>
+        </is>
+      </c>
       <c r="H672" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C673" t="inlineStr">
         <is>
-          <t>Reuters Tankan IndexJAN</t>
+          <t>Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D673" t="inlineStr"/>
       <c r="E673" t="inlineStr">
         <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="F673" t="inlineStr"/>
+          <t>2.2%</t>
+        </is>
+      </c>
+      <c r="F673" t="inlineStr">
+        <is>
+          <t>2.4%</t>
+        </is>
+      </c>
       <c r="G673" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="H673" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C674" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentJAN/11</t>
+          <t>Core Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D674" t="inlineStr"/>
-      <c r="E674" t="inlineStr"/>
-      <c r="F674" t="inlineStr"/>
-      <c r="G674" t="inlineStr"/>
+      <c r="E674" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
+      <c r="F674" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="G674" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="H674" t="inlineStr">
         <is>
           <t>3</t>
@@ -23242,23 +22890,35 @@
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C675" t="inlineStr">
         <is>
-          <t>Stock Investment by ForeignersJAN/11</t>
+          <t>Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D675" t="inlineStr"/>
-      <c r="E675" t="inlineStr"/>
-      <c r="F675" t="inlineStr"/>
-      <c r="G675" t="inlineStr"/>
+      <c r="E675" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
+      <c r="F675" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="G675" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H675" t="inlineStr">
         <is>
           <t>3</t>
@@ -23268,29 +22928,33 @@
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C676" t="inlineStr">
         <is>
-          <t>Non-Oil Exports MoMDEC</t>
+          <t>CPI FinalDEC</t>
         </is>
       </c>
       <c r="D676" t="inlineStr"/>
       <c r="E676" t="inlineStr">
         <is>
-          <t>14.7%</t>
-        </is>
-      </c>
-      <c r="F676" t="inlineStr"/>
+          <t>126.62</t>
+        </is>
+      </c>
+      <c r="F676" t="inlineStr">
+        <is>
+          <t>127.08</t>
+        </is>
+      </c>
       <c r="G676" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>127.08</t>
         </is>
       </c>
       <c r="H676" t="inlineStr">
@@ -23302,29 +22966,29 @@
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C677" t="inlineStr">
         <is>
-          <t>Non-Oil Exports YoYDEC</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D677" t="inlineStr"/>
       <c r="E677" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>€5628M</t>
         </is>
       </c>
       <c r="F677" t="inlineStr"/>
       <c r="G677" t="inlineStr">
         <is>
-          <t>7.5%</t>
+          <t>€2900.0M</t>
         </is>
       </c>
       <c r="H677" t="inlineStr">
@@ -23336,23 +23000,23 @@
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C678" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsJAN</t>
+          <t>Bank Loan Growth YoYJAN/03</t>
         </is>
       </c>
       <c r="D678" t="inlineStr"/>
       <c r="E678" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>11.5%</t>
         </is>
       </c>
       <c r="F678" t="inlineStr"/>
@@ -23366,65 +23030,53 @@
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C679" t="inlineStr">
         <is>
-          <t>House Price Index YoYDEC</t>
+          <t>Deposit Growth YoYJAN/03</t>
         </is>
       </c>
       <c r="D679" t="inlineStr"/>
       <c r="E679" t="inlineStr">
         <is>
-          <t>-5.7%</t>
+          <t>11.5%</t>
         </is>
       </c>
       <c r="F679" t="inlineStr"/>
-      <c r="G679" t="inlineStr">
-        <is>
-          <t>-5.8%</t>
-        </is>
-      </c>
+      <c r="G679" t="inlineStr"/>
       <c r="H679" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C680" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Foreign Exchange ReservesJAN/10</t>
         </is>
       </c>
       <c r="D680" t="inlineStr"/>
-      <c r="E680" t="inlineStr">
-        <is>
-          <t>$6.52B</t>
-        </is>
-      </c>
+      <c r="E680" t="inlineStr"/>
       <c r="F680" t="inlineStr"/>
-      <c r="G680" t="inlineStr">
-        <is>
-          <t>$ 3.6B</t>
-        </is>
-      </c>
+      <c r="G680" t="inlineStr"/>
       <c r="H680" t="inlineStr">
         <is>
           <t>3</t>
@@ -23434,109 +23086,89 @@
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C681" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoYQ4</t>
+          <t>Foreign Securities PurchasesNOV</t>
         </is>
       </c>
       <c r="D681" t="inlineStr"/>
       <c r="E681" t="inlineStr">
         <is>
-          <t>4.6%</t>
-        </is>
-      </c>
-      <c r="F681" t="inlineStr">
-        <is>
-          <t>5.1%</t>
-        </is>
-      </c>
-      <c r="G681" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
+          <t>C$21.55B</t>
+        </is>
+      </c>
+      <c r="F681" t="inlineStr"/>
+      <c r="G681" t="inlineStr"/>
       <c r="H681" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C682" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Foreign Securities Purchases by CanadiansNOV</t>
         </is>
       </c>
       <c r="D682" t="inlineStr"/>
       <c r="E682" t="inlineStr">
         <is>
-          <t>5.4%</t>
-        </is>
-      </c>
-      <c r="F682" t="inlineStr">
-        <is>
-          <t>5.5%</t>
-        </is>
-      </c>
-      <c r="G682" t="inlineStr">
-        <is>
-          <t>5.5%</t>
-        </is>
-      </c>
+          <t>C$-2.65B</t>
+        </is>
+      </c>
+      <c r="F682" t="inlineStr"/>
+      <c r="G682" t="inlineStr"/>
       <c r="H682" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B683" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C683" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Building Permits PrelDEC</t>
         </is>
       </c>
       <c r="D683" t="inlineStr"/>
       <c r="E683" t="inlineStr">
         <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="F683" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
+          <t>1.493M</t>
+        </is>
+      </c>
+      <c r="F683" t="inlineStr"/>
       <c r="G683" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>1.48M</t>
         </is>
       </c>
       <c r="H683" t="inlineStr">
@@ -23548,71 +23180,67 @@
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C684" t="inlineStr">
         <is>
-          <t>Fixed Asset Investment (YTD) YoYDEC</t>
+          <t>Housing StartsDEC</t>
         </is>
       </c>
       <c r="D684" t="inlineStr"/>
       <c r="E684" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>1.289M</t>
         </is>
       </c>
       <c r="F684" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>1.31M</t>
         </is>
       </c>
       <c r="G684" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>1.32M</t>
         </is>
       </c>
       <c r="H684" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C685" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQQ4</t>
+          <t>Building Permits MoM PrelDEC</t>
         </is>
       </c>
       <c r="D685" t="inlineStr"/>
       <c r="E685" t="inlineStr">
         <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="F685" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
+          <t>5.2%</t>
+        </is>
+      </c>
+      <c r="F685" t="inlineStr"/>
       <c r="G685" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>-0.9%</t>
         </is>
       </c>
       <c r="H685" t="inlineStr">
@@ -23624,95 +23252,107 @@
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C686" t="inlineStr">
         <is>
-          <t>Industrial Capacity UtilizationQ4</t>
+          <t>Housing Starts MoMDEC</t>
         </is>
       </c>
       <c r="D686" t="inlineStr"/>
       <c r="E686" t="inlineStr">
         <is>
-          <t>75.1%</t>
+          <t>-1.8%</t>
         </is>
       </c>
       <c r="F686" t="inlineStr"/>
       <c r="G686" t="inlineStr">
         <is>
-          <t>75.3%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="H686" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C687" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D687" t="inlineStr"/>
       <c r="E687" t="inlineStr">
         <is>
-          <t>5%</t>
-        </is>
-      </c>
-      <c r="F687" t="inlineStr"/>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="F687" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G687" t="inlineStr">
         <is>
-          <t>5.00%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="H687" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B688" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C688" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Capacity UtilizationDEC</t>
         </is>
       </c>
       <c r="D688" t="inlineStr"/>
       <c r="E688" t="inlineStr">
         <is>
-          <t>0.2402%</t>
-        </is>
-      </c>
-      <c r="F688" t="inlineStr"/>
-      <c r="G688" t="inlineStr"/>
+          <t>76.8%</t>
+        </is>
+      </c>
+      <c r="F688" t="inlineStr">
+        <is>
+          <t>77.6%</t>
+        </is>
+      </c>
+      <c r="G688" t="inlineStr">
+        <is>
+          <t>76.9%</t>
+        </is>
+      </c>
       <c r="H688" t="inlineStr">
         <is>
           <t>3</t>
@@ -23722,97 +23362,97 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C689" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D689" t="inlineStr"/>
       <c r="E689" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-0.9%</t>
         </is>
       </c>
       <c r="F689" t="inlineStr"/>
       <c r="G689" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="H689" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C690" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Manufacturing Production MoMDEC</t>
         </is>
       </c>
       <c r="D690" t="inlineStr"/>
       <c r="E690" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F690" t="inlineStr"/>
       <c r="G690" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H690" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C691" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel MoMDEC</t>
+          <t>Manufacturing Production YoYDEC</t>
         </is>
       </c>
       <c r="D691" t="inlineStr"/>
       <c r="E691" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>-1%</t>
         </is>
       </c>
       <c r="F691" t="inlineStr"/>
       <c r="G691" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="H691" t="inlineStr">
@@ -23824,31 +23464,23 @@
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C692" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel YoYDEC</t>
+          <t>Baker Hughes Oil Rig CountJAN/17</t>
         </is>
       </c>
       <c r="D692" t="inlineStr"/>
-      <c r="E692" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="E692" t="inlineStr"/>
       <c r="F692" t="inlineStr"/>
-      <c r="G692" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
+      <c r="G692" t="inlineStr"/>
       <c r="H692" t="inlineStr">
         <is>
           <t>3</t>
@@ -23858,31 +23490,23 @@
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C693" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Baker Hughes Total Rigs CountJAN/17</t>
         </is>
       </c>
       <c r="D693" t="inlineStr"/>
-      <c r="E693" t="inlineStr">
-        <is>
-          <t>€32B</t>
-        </is>
-      </c>
+      <c r="E693" t="inlineStr"/>
       <c r="F693" t="inlineStr"/>
-      <c r="G693" t="inlineStr">
-        <is>
-          <t>€33.0B</t>
-        </is>
-      </c>
+      <c r="G693" t="inlineStr"/>
       <c r="H693" t="inlineStr">
         <is>
           <t>3</t>
@@ -23890,25 +23514,21 @@
       </c>
     </row>
     <row r="694">
-      <c r="A694" t="inlineStr">
-        <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
+      <c r="A694" t="inlineStr"/>
       <c r="B694" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C694" t="inlineStr">
         <is>
-          <t>Current Account s.aNOV</t>
+          <t>50-Year KTB Auction</t>
         </is>
       </c>
       <c r="D694" t="inlineStr"/>
       <c r="E694" t="inlineStr">
         <is>
-          <t>€33.5B</t>
+          <t>2.40%</t>
         </is>
       </c>
       <c r="F694" t="inlineStr"/>
@@ -23922,69 +23542,41 @@
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
-      <c r="B695" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C695" t="inlineStr">
-        <is>
-          <t>Balance of TradeNOV</t>
-        </is>
-      </c>
+          <t>Saturday January 18 2025</t>
+        </is>
+      </c>
+      <c r="B695" t="inlineStr"/>
+      <c r="C695" t="inlineStr"/>
       <c r="D695" t="inlineStr"/>
-      <c r="E695" t="inlineStr">
-        <is>
-          <t>€-3.93B</t>
-        </is>
-      </c>
+      <c r="E695" t="inlineStr"/>
       <c r="F695" t="inlineStr"/>
-      <c r="G695" t="inlineStr">
-        <is>
-          <t>€-4.2B</t>
-        </is>
-      </c>
-      <c r="H695" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G695" t="inlineStr"/>
+      <c r="H695" t="inlineStr"/>
     </row>
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C696" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FinalDEC</t>
+          <t>Net Long-term TIC FlowsNOV</t>
         </is>
       </c>
       <c r="D696" t="inlineStr"/>
       <c r="E696" t="inlineStr">
         <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="F696" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="G696" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
+          <t>$152.3B</t>
+        </is>
+      </c>
+      <c r="F696" t="inlineStr"/>
+      <c r="G696" t="inlineStr"/>
       <c r="H696" t="inlineStr">
         <is>
           <t>2</t>
@@ -23994,35 +23586,27 @@
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C697" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FinalDEC</t>
+          <t>Foreign Bond InvestmentNOV</t>
         </is>
       </c>
       <c r="D697" t="inlineStr"/>
       <c r="E697" t="inlineStr">
         <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="F697" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="G697" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+          <t>$92.1B</t>
+        </is>
+      </c>
+      <c r="F697" t="inlineStr"/>
+      <c r="G697" t="inlineStr"/>
       <c r="H697" t="inlineStr">
         <is>
           <t>3</t>
@@ -24032,35 +23616,27 @@
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C698" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FinalDEC</t>
+          <t>Overall Net Capital FlowsNOV</t>
         </is>
       </c>
       <c r="D698" t="inlineStr"/>
       <c r="E698" t="inlineStr">
         <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F698" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G698" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>$203.6B</t>
+        </is>
+      </c>
+      <c r="F698" t="inlineStr"/>
+      <c r="G698" t="inlineStr"/>
       <c r="H698" t="inlineStr">
         <is>
           <t>3</t>
@@ -24070,181 +23646,165 @@
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B699" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C699" t="inlineStr">
-        <is>
-          <t>CPI FinalDEC</t>
-        </is>
-      </c>
+          <t>Monday January 20 2025</t>
+        </is>
+      </c>
+      <c r="B699" t="inlineStr"/>
+      <c r="C699" t="inlineStr"/>
       <c r="D699" t="inlineStr"/>
-      <c r="E699" t="inlineStr">
-        <is>
-          <t>126.62</t>
-        </is>
-      </c>
-      <c r="F699" t="inlineStr">
-        <is>
-          <t>127.08</t>
-        </is>
-      </c>
-      <c r="G699" t="inlineStr">
-        <is>
-          <t>127.08</t>
-        </is>
-      </c>
-      <c r="H699" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="E699" t="inlineStr"/>
+      <c r="F699" t="inlineStr"/>
+      <c r="G699" t="inlineStr"/>
+      <c r="H699" t="inlineStr"/>
     </row>
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B700" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C700" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Machinery Orders MoMNOV</t>
         </is>
       </c>
       <c r="D700" t="inlineStr"/>
       <c r="E700" t="inlineStr">
         <is>
-          <t>€5628M</t>
+          <t>2.1%</t>
         </is>
       </c>
       <c r="F700" t="inlineStr"/>
       <c r="G700" t="inlineStr">
         <is>
-          <t>€2900.0M</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H700" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B701" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C701" t="inlineStr">
         <is>
-          <t>Bank Loan Growth YoYJAN/03</t>
+          <t>Machinery Orders YoYNOV</t>
         </is>
       </c>
       <c r="D701" t="inlineStr"/>
       <c r="E701" t="inlineStr">
         <is>
-          <t>11.5%</t>
+          <t>5.6%</t>
         </is>
       </c>
       <c r="F701" t="inlineStr"/>
-      <c r="G701" t="inlineStr"/>
+      <c r="G701" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
       <c r="H701" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>06:45 AM</t>
         </is>
       </c>
       <c r="B702" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C702" t="inlineStr">
         <is>
-          <t>Deposit Growth YoYJAN/03</t>
+          <t>Loan Prime Rate 1Y</t>
         </is>
       </c>
       <c r="D702" t="inlineStr"/>
       <c r="E702" t="inlineStr">
         <is>
-          <t>11.5%</t>
+          <t>3.1%</t>
         </is>
       </c>
       <c r="F702" t="inlineStr"/>
       <c r="G702" t="inlineStr"/>
       <c r="H702" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>06:45 AM</t>
         </is>
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C703" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/10</t>
+          <t>Loan Prime Rate 5YJAN</t>
         </is>
       </c>
       <c r="D703" t="inlineStr"/>
-      <c r="E703" t="inlineStr"/>
+      <c r="E703" t="inlineStr">
+        <is>
+          <t>3.6%</t>
+        </is>
+      </c>
       <c r="F703" t="inlineStr"/>
       <c r="G703" t="inlineStr"/>
       <c r="H703" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C704" t="inlineStr">
         <is>
-          <t>Foreign Securities PurchasesNOV</t>
+          <t>Capacity Utilization MoMNOV</t>
         </is>
       </c>
       <c r="D704" t="inlineStr"/>
       <c r="E704" t="inlineStr">
         <is>
-          <t>C$21.55B</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F704" t="inlineStr"/>
@@ -24258,27 +23818,35 @@
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B705" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C705" t="inlineStr">
         <is>
-          <t>Foreign Securities Purchases by CanadiansNOV</t>
+          <t>Industrial Production MoM FinalNOV</t>
         </is>
       </c>
       <c r="D705" t="inlineStr"/>
       <c r="E705" t="inlineStr">
         <is>
-          <t>C$-2.65B</t>
-        </is>
-      </c>
-      <c r="F705" t="inlineStr"/>
-      <c r="G705" t="inlineStr"/>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="F705" t="inlineStr">
+        <is>
+          <t>-2.3%</t>
+        </is>
+      </c>
+      <c r="G705" t="inlineStr">
+        <is>
+          <t>-2.3%</t>
+        </is>
+      </c>
       <c r="H705" t="inlineStr">
         <is>
           <t>3</t>
@@ -24288,820 +23856,110 @@
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B706" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C706" t="inlineStr">
         <is>
-          <t>Building Permits PrelDEC</t>
+          <t>Industrial Production YoY FinalNOV</t>
         </is>
       </c>
       <c r="D706" t="inlineStr"/>
       <c r="E706" t="inlineStr">
         <is>
-          <t>1.493M</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F706" t="inlineStr"/>
       <c r="G706" t="inlineStr">
         <is>
-          <t>1.48M</t>
+          <t>-2.8%</t>
         </is>
       </c>
       <c r="H706" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B707" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C707" t="inlineStr">
         <is>
-          <t>Housing StartsDEC</t>
+          <t>Tertiary Industry Index MoMNOV</t>
         </is>
       </c>
       <c r="D707" t="inlineStr"/>
       <c r="E707" t="inlineStr">
         <is>
-          <t>1.289M</t>
-        </is>
-      </c>
-      <c r="F707" t="inlineStr">
-        <is>
-          <t>1.31M</t>
-        </is>
-      </c>
-      <c r="G707" t="inlineStr">
-        <is>
-          <t>1.32M</t>
-        </is>
-      </c>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F707" t="inlineStr"/>
+      <c r="G707" t="inlineStr"/>
       <c r="H707" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="708">
-      <c r="A708" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A708" t="inlineStr"/>
       <c r="B708" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C708" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelDEC</t>
+          <t>Eurogroup Meeting</t>
         </is>
       </c>
       <c r="D708" t="inlineStr"/>
-      <c r="E708" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
+      <c r="E708" t="inlineStr"/>
       <c r="F708" t="inlineStr"/>
-      <c r="G708" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
+      <c r="G708" t="inlineStr"/>
       <c r="H708" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="709">
-      <c r="A709" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A709" t="inlineStr"/>
       <c r="B709" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C709" t="inlineStr">
         <is>
-          <t>Housing Starts MoMDEC</t>
+          <t>10-Year KTB Auction</t>
         </is>
       </c>
       <c r="D709" t="inlineStr"/>
       <c r="E709" t="inlineStr">
         <is>
-          <t>-1.8%</t>
+          <t>2.665%</t>
         </is>
       </c>
       <c r="F709" t="inlineStr"/>
-      <c r="G709" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
+      <c r="G709" t="inlineStr"/>
       <c r="H709" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="710">
-      <c r="A710" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B710" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C710" t="inlineStr">
-        <is>
-          <t>Industrial Production MoMDEC</t>
-        </is>
-      </c>
-      <c r="D710" t="inlineStr"/>
-      <c r="E710" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F710" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G710" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="H710" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="711">
-      <c r="A711" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B711" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C711" t="inlineStr">
-        <is>
-          <t>Capacity UtilizationDEC</t>
-        </is>
-      </c>
-      <c r="D711" t="inlineStr"/>
-      <c r="E711" t="inlineStr">
-        <is>
-          <t>76.8%</t>
-        </is>
-      </c>
-      <c r="F711" t="inlineStr">
-        <is>
-          <t>77.6%</t>
-        </is>
-      </c>
-      <c r="G711" t="inlineStr">
-        <is>
-          <t>76.9%</t>
-        </is>
-      </c>
-      <c r="H711" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="712">
-      <c r="A712" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B712" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C712" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYDEC</t>
-        </is>
-      </c>
-      <c r="D712" t="inlineStr"/>
-      <c r="E712" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
-      <c r="F712" t="inlineStr"/>
-      <c r="G712" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="H712" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="713">
-      <c r="A713" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B713" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C713" t="inlineStr">
-        <is>
-          <t>Manufacturing Production MoMDEC</t>
-        </is>
-      </c>
-      <c r="D713" t="inlineStr"/>
-      <c r="E713" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F713" t="inlineStr"/>
-      <c r="G713" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H713" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="714">
-      <c r="A714" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B714" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C714" t="inlineStr">
-        <is>
-          <t>Manufacturing Production YoYDEC</t>
-        </is>
-      </c>
-      <c r="D714" t="inlineStr"/>
-      <c r="E714" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
-      <c r="F714" t="inlineStr"/>
-      <c r="G714" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="H714" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="715">
-      <c r="A715" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B715" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C715" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountJAN/17</t>
-        </is>
-      </c>
-      <c r="D715" t="inlineStr"/>
-      <c r="E715" t="inlineStr"/>
-      <c r="F715" t="inlineStr"/>
-      <c r="G715" t="inlineStr"/>
-      <c r="H715" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="716">
-      <c r="A716" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B716" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C716" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountJAN/17</t>
-        </is>
-      </c>
-      <c r="D716" t="inlineStr"/>
-      <c r="E716" t="inlineStr"/>
-      <c r="F716" t="inlineStr"/>
-      <c r="G716" t="inlineStr"/>
-      <c r="H716" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="717">
-      <c r="A717" t="inlineStr"/>
-      <c r="B717" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C717" t="inlineStr">
-        <is>
-          <t>50-Year KTB Auction</t>
-        </is>
-      </c>
-      <c r="D717" t="inlineStr"/>
-      <c r="E717" t="inlineStr">
-        <is>
-          <t>2.40%</t>
-        </is>
-      </c>
-      <c r="F717" t="inlineStr"/>
-      <c r="G717" t="inlineStr"/>
-      <c r="H717" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="718">
-      <c r="A718" t="inlineStr">
-        <is>
-          <t>Saturday January 18 2025</t>
-        </is>
-      </c>
-      <c r="B718" t="inlineStr"/>
-      <c r="C718" t="inlineStr"/>
-      <c r="D718" t="inlineStr"/>
-      <c r="E718" t="inlineStr"/>
-      <c r="F718" t="inlineStr"/>
-      <c r="G718" t="inlineStr"/>
-      <c r="H718" t="inlineStr"/>
-    </row>
-    <row r="719">
-      <c r="A719" t="inlineStr">
-        <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
-      <c r="B719" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C719" t="inlineStr">
-        <is>
-          <t>Net Long-term TIC FlowsNOV</t>
-        </is>
-      </c>
-      <c r="D719" t="inlineStr"/>
-      <c r="E719" t="inlineStr">
-        <is>
-          <t>$152.3B</t>
-        </is>
-      </c>
-      <c r="F719" t="inlineStr"/>
-      <c r="G719" t="inlineStr"/>
-      <c r="H719" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="720">
-      <c r="A720" t="inlineStr">
-        <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
-      <c r="B720" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C720" t="inlineStr">
-        <is>
-          <t>Foreign Bond InvestmentNOV</t>
-        </is>
-      </c>
-      <c r="D720" t="inlineStr"/>
-      <c r="E720" t="inlineStr">
-        <is>
-          <t>$92.1B</t>
-        </is>
-      </c>
-      <c r="F720" t="inlineStr"/>
-      <c r="G720" t="inlineStr"/>
-      <c r="H720" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="721">
-      <c r="A721" t="inlineStr">
-        <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
-      <c r="B721" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C721" t="inlineStr">
-        <is>
-          <t>Overall Net Capital FlowsNOV</t>
-        </is>
-      </c>
-      <c r="D721" t="inlineStr"/>
-      <c r="E721" t="inlineStr">
-        <is>
-          <t>$203.6B</t>
-        </is>
-      </c>
-      <c r="F721" t="inlineStr"/>
-      <c r="G721" t="inlineStr"/>
-      <c r="H721" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="722">
-      <c r="A722" t="inlineStr">
-        <is>
-          <t>Monday January 20 2025</t>
-        </is>
-      </c>
-      <c r="B722" t="inlineStr"/>
-      <c r="C722" t="inlineStr"/>
-      <c r="D722" t="inlineStr"/>
-      <c r="E722" t="inlineStr"/>
-      <c r="F722" t="inlineStr"/>
-      <c r="G722" t="inlineStr"/>
-      <c r="H722" t="inlineStr"/>
-    </row>
-    <row r="723">
-      <c r="A723" t="inlineStr">
-        <is>
-          <t>05:20 AM</t>
-        </is>
-      </c>
-      <c r="B723" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C723" t="inlineStr">
-        <is>
-          <t>Machinery Orders MoMNOV</t>
-        </is>
-      </c>
-      <c r="D723" t="inlineStr"/>
-      <c r="E723" t="inlineStr">
-        <is>
-          <t>2.1%</t>
-        </is>
-      </c>
-      <c r="F723" t="inlineStr"/>
-      <c r="G723" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H723" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="724">
-      <c r="A724" t="inlineStr">
-        <is>
-          <t>05:20 AM</t>
-        </is>
-      </c>
-      <c r="B724" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C724" t="inlineStr">
-        <is>
-          <t>Machinery Orders YoYNOV</t>
-        </is>
-      </c>
-      <c r="D724" t="inlineStr"/>
-      <c r="E724" t="inlineStr">
-        <is>
-          <t>5.6%</t>
-        </is>
-      </c>
-      <c r="F724" t="inlineStr"/>
-      <c r="G724" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
-      <c r="H724" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="725">
-      <c r="A725" t="inlineStr">
-        <is>
-          <t>06:45 AM</t>
-        </is>
-      </c>
-      <c r="B725" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C725" t="inlineStr">
-        <is>
-          <t>Loan Prime Rate 1Y</t>
-        </is>
-      </c>
-      <c r="D725" t="inlineStr"/>
-      <c r="E725" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="F725" t="inlineStr"/>
-      <c r="G725" t="inlineStr"/>
-      <c r="H725" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="726">
-      <c r="A726" t="inlineStr">
-        <is>
-          <t>06:45 AM</t>
-        </is>
-      </c>
-      <c r="B726" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C726" t="inlineStr">
-        <is>
-          <t>Loan Prime Rate 5YJAN</t>
-        </is>
-      </c>
-      <c r="D726" t="inlineStr"/>
-      <c r="E726" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="F726" t="inlineStr"/>
-      <c r="G726" t="inlineStr"/>
-      <c r="H726" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="727">
-      <c r="A727" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B727" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C727" t="inlineStr">
-        <is>
-          <t>Capacity Utilization MoMNOV</t>
-        </is>
-      </c>
-      <c r="D727" t="inlineStr"/>
-      <c r="E727" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="F727" t="inlineStr"/>
-      <c r="G727" t="inlineStr"/>
-      <c r="H727" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="728">
-      <c r="A728" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B728" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C728" t="inlineStr">
-        <is>
-          <t>Industrial Production MoM FinalNOV</t>
-        </is>
-      </c>
-      <c r="D728" t="inlineStr"/>
-      <c r="E728" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F728" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
-      <c r="G728" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
-      <c r="H728" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="729">
-      <c r="A729" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B729" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C729" t="inlineStr">
-        <is>
-          <t>Industrial Production YoY FinalNOV</t>
-        </is>
-      </c>
-      <c r="D729" t="inlineStr"/>
-      <c r="E729" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="F729" t="inlineStr"/>
-      <c r="G729" t="inlineStr">
-        <is>
-          <t>-2.8%</t>
-        </is>
-      </c>
-      <c r="H729" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="730">
-      <c r="A730" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B730" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C730" t="inlineStr">
-        <is>
-          <t>Tertiary Industry Index MoMNOV</t>
-        </is>
-      </c>
-      <c r="D730" t="inlineStr"/>
-      <c r="E730" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F730" t="inlineStr"/>
-      <c r="G730" t="inlineStr"/>
-      <c r="H730" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="731">
-      <c r="A731" t="inlineStr"/>
-      <c r="B731" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C731" t="inlineStr">
-        <is>
-          <t>Eurogroup Meeting</t>
-        </is>
-      </c>
-      <c r="D731" t="inlineStr"/>
-      <c r="E731" t="inlineStr"/>
-      <c r="F731" t="inlineStr"/>
-      <c r="G731" t="inlineStr"/>
-      <c r="H731" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="732">
-      <c r="A732" t="inlineStr"/>
-      <c r="B732" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C732" t="inlineStr">
-        <is>
-          <t>10-Year KTB Auction</t>
-        </is>
-      </c>
-      <c r="D732" t="inlineStr"/>
-      <c r="E732" t="inlineStr">
-        <is>
-          <t>2.665%</t>
-        </is>
-      </c>
-      <c r="F732" t="inlineStr"/>
-      <c r="G732" t="inlineStr"/>
-      <c r="H732" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-20.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H740"/>
+  <dimension ref="A1:H718"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16545,10 +16545,8 @@
       </c>
       <c r="F466" t="inlineStr"/>
       <c r="G466" t="inlineStr"/>
-      <c r="H466" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H466" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="467">
@@ -16575,10 +16573,8 @@
       </c>
       <c r="F467" t="inlineStr"/>
       <c r="G467" t="inlineStr"/>
-      <c r="H467" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H467" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="468">
@@ -16613,10 +16609,8 @@
           <t>5.2%</t>
         </is>
       </c>
-      <c r="H468" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H468" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="469">
@@ -16647,10 +16641,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H469" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H469" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="470">
@@ -16677,10 +16669,8 @@
       </c>
       <c r="F470" t="inlineStr"/>
       <c r="G470" t="inlineStr"/>
-      <c r="H470" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H470" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="471">
@@ -16707,10 +16697,8 @@
       </c>
       <c r="F471" t="inlineStr"/>
       <c r="G471" t="inlineStr"/>
-      <c r="H471" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H471" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="472">
@@ -16737,10 +16725,8 @@
       </c>
       <c r="F472" t="inlineStr"/>
       <c r="G472" t="inlineStr"/>
-      <c r="H472" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H472" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="473">
@@ -16771,10 +16757,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H473" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H473" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="474">
@@ -16801,10 +16785,8 @@
       </c>
       <c r="F474" t="inlineStr"/>
       <c r="G474" t="inlineStr"/>
-      <c r="H474" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H474" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="475">
@@ -16831,10 +16813,8 @@
       </c>
       <c r="F475" t="inlineStr"/>
       <c r="G475" t="inlineStr"/>
-      <c r="H475" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H475" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="476">
@@ -16861,10 +16841,8 @@
       </c>
       <c r="F476" t="inlineStr"/>
       <c r="G476" t="inlineStr"/>
-      <c r="H476" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H476" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="477">
@@ -16891,10 +16869,8 @@
       </c>
       <c r="F477" t="inlineStr"/>
       <c r="G477" t="inlineStr"/>
-      <c r="H477" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H477" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="478">
@@ -16921,10 +16897,8 @@
       </c>
       <c r="F478" t="inlineStr"/>
       <c r="G478" t="inlineStr"/>
-      <c r="H478" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H478" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="479">
@@ -16947,10 +16921,8 @@
       </c>
       <c r="F479" t="inlineStr"/>
       <c r="G479" t="inlineStr"/>
-      <c r="H479" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H479" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="480">
@@ -16977,10 +16949,8 @@
           <t>-19.0%</t>
         </is>
       </c>
-      <c r="H480" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H480" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="481">
@@ -17007,10 +16977,8 @@
           <t>-4.0%</t>
         </is>
       </c>
-      <c r="H481" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H481" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="482">
@@ -17037,10 +17005,8 @@
           <t>6.4%</t>
         </is>
       </c>
-      <c r="H482" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H482" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="483">
@@ -17063,10 +17029,8 @@
       </c>
       <c r="F483" t="inlineStr"/>
       <c r="G483" t="inlineStr"/>
-      <c r="H483" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H483" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="484">
@@ -17085,10 +17049,8 @@
       <c r="E484" t="inlineStr"/>
       <c r="F484" t="inlineStr"/>
       <c r="G484" t="inlineStr"/>
-      <c r="H484" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H484" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="485">
@@ -17133,10 +17095,8 @@
           <t>$-220.0B</t>
         </is>
       </c>
-      <c r="H486" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H486" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="487">
@@ -17163,10 +17123,8 @@
       </c>
       <c r="F487" t="inlineStr"/>
       <c r="G487" t="inlineStr"/>
-      <c r="H487" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H487" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="488">
@@ -17193,10 +17151,8 @@
       </c>
       <c r="F488" t="inlineStr"/>
       <c r="G488" t="inlineStr"/>
-      <c r="H488" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H488" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="489">
@@ -17227,10 +17183,8 @@
           <t>¥1990.0B</t>
         </is>
       </c>
-      <c r="H489" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H489" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="490">
@@ -17261,10 +17215,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H490" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H490" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="491">
@@ -17295,10 +17247,8 @@
         </is>
       </c>
       <c r="G491" t="inlineStr"/>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H491" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="492">
@@ -17329,10 +17279,8 @@
         </is>
       </c>
       <c r="G492" t="inlineStr"/>
-      <c r="H492" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H492" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="493">
@@ -17359,10 +17307,8 @@
       </c>
       <c r="F493" t="inlineStr"/>
       <c r="G493" t="inlineStr"/>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H493" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="494">
@@ -17393,10 +17339,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H494" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H494" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="495">
@@ -17427,10 +17371,8 @@
           <t>49.6</t>
         </is>
       </c>
-      <c r="H495" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H495" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="496">
@@ -17457,10 +17399,8 @@
       </c>
       <c r="F496" t="inlineStr"/>
       <c r="G496" t="inlineStr"/>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H496" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="497">
@@ -17487,10 +17427,8 @@
       </c>
       <c r="F497" t="inlineStr"/>
       <c r="G497" t="inlineStr"/>
-      <c r="H497" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H497" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="498">
@@ -17521,10 +17459,8 @@
           <t>10.2%</t>
         </is>
       </c>
-      <c r="H498" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H498" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="499">
@@ -17555,10 +17491,8 @@
           <t>-3.2%</t>
         </is>
       </c>
-      <c r="H499" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H499" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="500">
@@ -17593,10 +17527,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H500" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H500" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="501">
@@ -17627,10 +17559,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H501" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H501" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="502">
@@ -17661,10 +17591,8 @@
           <t>€-162.0B</t>
         </is>
       </c>
-      <c r="H502" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H502" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="503">
@@ -17695,10 +17623,8 @@
           <t>-0.3%</t>
         </is>
       </c>
-      <c r="H503" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H503" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="504">
@@ -17729,10 +17655,8 @@
           <t>-3.3%</t>
         </is>
       </c>
-      <c r="H504" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H504" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="505">
@@ -17759,10 +17683,8 @@
       </c>
       <c r="F505" t="inlineStr"/>
       <c r="G505" t="inlineStr"/>
-      <c r="H505" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H505" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="506">
@@ -17789,10 +17711,8 @@
       </c>
       <c r="F506" t="inlineStr"/>
       <c r="G506" t="inlineStr"/>
-      <c r="H506" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H506" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="507">
@@ -17819,10 +17739,8 @@
       </c>
       <c r="F507" t="inlineStr"/>
       <c r="G507" t="inlineStr"/>
-      <c r="H507" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H507" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="508">
@@ -17849,10 +17767,8 @@
       </c>
       <c r="F508" t="inlineStr"/>
       <c r="G508" t="inlineStr"/>
-      <c r="H508" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H508" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="509">
@@ -17883,10 +17799,8 @@
           <t>102</t>
         </is>
       </c>
-      <c r="H509" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H509" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="510">
@@ -17921,10 +17835,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H510" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H510" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="511">
@@ -17959,10 +17871,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H511" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H511" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="512">
@@ -17997,10 +17907,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H512" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H512" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="513">
@@ -18031,10 +17939,8 @@
           <t>146.8</t>
         </is>
       </c>
-      <c r="H513" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H513" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="514">
@@ -18065,10 +17971,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H514" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H514" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="515">
@@ -18099,10 +18003,8 @@
           <t>3.5%</t>
         </is>
       </c>
-      <c r="H515" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H515" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="516">
@@ -18137,10 +18039,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H516" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H516" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="517">
@@ -18167,10 +18067,8 @@
       </c>
       <c r="F517" t="inlineStr"/>
       <c r="G517" t="inlineStr"/>
-      <c r="H517" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H517" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="518">
@@ -18193,10 +18091,8 @@
       <c r="E518" t="inlineStr"/>
       <c r="F518" t="inlineStr"/>
       <c r="G518" t="inlineStr"/>
-      <c r="H518" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H518" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="519">
@@ -18227,10 +18123,8 @@
           <t>54.2</t>
         </is>
       </c>
-      <c r="H519" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H519" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="520">
@@ -18253,10 +18147,8 @@
       </c>
       <c r="F520" t="inlineStr"/>
       <c r="G520" t="inlineStr"/>
-      <c r="H520" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H520" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="521">
@@ -18301,10 +18193,8 @@
           <t>2.0%</t>
         </is>
       </c>
-      <c r="H522" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H522" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="523">
@@ -18335,10 +18225,8 @@
           <t>116.0%</t>
         </is>
       </c>
-      <c r="H523" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H523" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="524">
@@ -18361,10 +18249,8 @@
       <c r="E524" t="inlineStr"/>
       <c r="F524" t="inlineStr"/>
       <c r="G524" t="inlineStr"/>
-      <c r="H524" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H524" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="525">
@@ -18395,10 +18281,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H525" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H525" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="526">
@@ -18429,10 +18313,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H526" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H526" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="527">
@@ -18459,10 +18341,8 @@
       </c>
       <c r="F527" t="inlineStr"/>
       <c r="G527" t="inlineStr"/>
-      <c r="H527" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H527" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="528">
@@ -18493,10 +18373,8 @@
           <t>$ 2.8B</t>
         </is>
       </c>
-      <c r="H528" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H528" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="529">
@@ -18523,10 +18401,8 @@
       </c>
       <c r="F529" t="inlineStr"/>
       <c r="G529" t="inlineStr"/>
-      <c r="H529" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H529" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="530">
@@ -18553,10 +18429,8 @@
       </c>
       <c r="F530" t="inlineStr"/>
       <c r="G530" t="inlineStr"/>
-      <c r="H530" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H530" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="531">
@@ -18591,10 +18465,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H531" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H531" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="532">
@@ -18625,10 +18497,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H532" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H532" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="533">
@@ -18659,10 +18529,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H533" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H533" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="534">
@@ -18693,10 +18561,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H534" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H534" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="535">
@@ -18727,10 +18593,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H535" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H535" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="536">
@@ -18761,10 +18625,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H536" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H536" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="537">
@@ -18795,10 +18657,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H537" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H537" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="538">
@@ -18829,10 +18689,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H538" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H538" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="539">
@@ -18863,10 +18721,8 @@
           <t>2.1%</t>
         </is>
       </c>
-      <c r="H539" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H539" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="540">
@@ -18897,10 +18753,8 @@
           <t>-1.3%</t>
         </is>
       </c>
-      <c r="H540" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H540" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="541">
@@ -18931,10 +18785,8 @@
           <t>-1%</t>
         </is>
       </c>
-      <c r="H541" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H541" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="542">
@@ -18965,10 +18817,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H542" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H542" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="543">
@@ -18999,10 +18849,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H543" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H543" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="544">
@@ -19033,10 +18881,8 @@
           <t>0.0%</t>
         </is>
       </c>
-      <c r="H544" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H544" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="545">
@@ -19067,10 +18913,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H545" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H545" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="546">
@@ -19101,10 +18945,8 @@
           <t>10%</t>
         </is>
       </c>
-      <c r="H546" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H546" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="547">
@@ -19135,10 +18977,8 @@
           <t>6%</t>
         </is>
       </c>
-      <c r="H547" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H547" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="548">
@@ -19169,10 +19009,8 @@
           <t>5.25%</t>
         </is>
       </c>
-      <c r="H548" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H548" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="549">
@@ -19203,10 +19041,8 @@
           <t>6.75%</t>
         </is>
       </c>
-      <c r="H549" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H549" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="550">
@@ -19241,10 +19077,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H550" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H550" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="551">
@@ -19279,10 +19113,8 @@
           <t>1.3%</t>
         </is>
       </c>
-      <c r="H551" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H551" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="552">
@@ -19317,10 +19149,8 @@
           <t>1.8%</t>
         </is>
       </c>
-      <c r="H552" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H552" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="553">
@@ -19355,10 +19185,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H553" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H553" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="554">
@@ -19393,10 +19221,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H554" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H554" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="555">
@@ -19431,10 +19257,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H555" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H555" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="556">
@@ -19469,10 +19293,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H556" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H556" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="557">
@@ -19507,10 +19329,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H557" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H557" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="558">
@@ -19545,10 +19365,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H558" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H558" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="559">
@@ -19579,10 +19397,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H559" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H559" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="560">
@@ -19613,10 +19429,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H560" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H560" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="561">
@@ -19647,10 +19461,8 @@
           <t>-1.5%</t>
         </is>
       </c>
-      <c r="H561" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H561" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="562">
@@ -19677,10 +19489,8 @@
       </c>
       <c r="F562" t="inlineStr"/>
       <c r="G562" t="inlineStr"/>
-      <c r="H562" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H562" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="563">
@@ -19707,10 +19517,8 @@
       </c>
       <c r="F563" t="inlineStr"/>
       <c r="G563" t="inlineStr"/>
-      <c r="H563" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H563" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="564">
@@ -19741,10 +19549,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H564" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H564" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="565">
@@ -19775,10 +19581,8 @@
           <t>-5.0%</t>
         </is>
       </c>
-      <c r="H565" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H565" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="566">
@@ -19805,10 +19609,8 @@
       </c>
       <c r="F566" t="inlineStr"/>
       <c r="G566" t="inlineStr"/>
-      <c r="H566" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H566" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="567">
@@ -19835,10 +19637,8 @@
       </c>
       <c r="F567" t="inlineStr"/>
       <c r="G567" t="inlineStr"/>
-      <c r="H567" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H567" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="568">
@@ -19865,10 +19665,8 @@
       </c>
       <c r="F568" t="inlineStr"/>
       <c r="G568" t="inlineStr"/>
-      <c r="H568" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H568" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="569">
@@ -19895,10 +19693,8 @@
       </c>
       <c r="F569" t="inlineStr"/>
       <c r="G569" t="inlineStr"/>
-      <c r="H569" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H569" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="570">
@@ -19925,10 +19721,8 @@
       </c>
       <c r="F570" t="inlineStr"/>
       <c r="G570" t="inlineStr"/>
-      <c r="H570" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H570" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="571">
@@ -19959,10 +19753,8 @@
           <t>$615.0B</t>
         </is>
       </c>
-      <c r="H571" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H571" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="572">
@@ -19985,10 +19777,8 @@
       <c r="E572" t="inlineStr"/>
       <c r="F572" t="inlineStr"/>
       <c r="G572" t="inlineStr"/>
-      <c r="H572" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H572" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="573">
@@ -20023,10 +19813,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H573" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H573" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="574">
@@ -20053,10 +19841,8 @@
       </c>
       <c r="F574" t="inlineStr"/>
       <c r="G574" t="inlineStr"/>
-      <c r="H574" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H574" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="575">
@@ -20091,10 +19877,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H575" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H575" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="576">
@@ -20129,10 +19913,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H576" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H576" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="577">
@@ -20163,10 +19945,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H577" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H577" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="578">
@@ -20201,10 +19981,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H578" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H578" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="579">
@@ -20235,10 +20013,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H579" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H579" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="580">
@@ -20269,10 +20045,8 @@
           <t>315.6</t>
         </is>
       </c>
-      <c r="H580" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H580" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="581">
@@ -20303,10 +20077,8 @@
           <t>317.4</t>
         </is>
       </c>
-      <c r="H581" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H581" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="582">
@@ -20337,10 +20109,8 @@
           <t>0.15</t>
         </is>
       </c>
-      <c r="H582" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H582" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="583">
@@ -20363,10 +20133,8 @@
       <c r="E583" t="inlineStr"/>
       <c r="F583" t="inlineStr"/>
       <c r="G583" t="inlineStr"/>
-      <c r="H583" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H583" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="584">
@@ -20393,10 +20161,8 @@
       </c>
       <c r="F584" t="inlineStr"/>
       <c r="G584" t="inlineStr"/>
-      <c r="H584" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H584" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="585">
@@ -20423,10 +20189,8 @@
       </c>
       <c r="F585" t="inlineStr"/>
       <c r="G585" t="inlineStr"/>
-      <c r="H585" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H585" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="586">
@@ -20453,10 +20217,8 @@
       </c>
       <c r="F586" t="inlineStr"/>
       <c r="G586" t="inlineStr"/>
-      <c r="H586" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H586" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="587">
@@ -20483,10 +20245,8 @@
       </c>
       <c r="F587" t="inlineStr"/>
       <c r="G587" t="inlineStr"/>
-      <c r="H587" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H587" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="588">
@@ -20513,10 +20273,8 @@
       </c>
       <c r="F588" t="inlineStr"/>
       <c r="G588" t="inlineStr"/>
-      <c r="H588" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H588" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="589">
@@ -20543,10 +20301,8 @@
       </c>
       <c r="F589" t="inlineStr"/>
       <c r="G589" t="inlineStr"/>
-      <c r="H589" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H589" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="590">
@@ -20573,10 +20329,8 @@
       </c>
       <c r="F590" t="inlineStr"/>
       <c r="G590" t="inlineStr"/>
-      <c r="H590" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H590" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="591">
@@ -20603,10 +20357,8 @@
       </c>
       <c r="F591" t="inlineStr"/>
       <c r="G591" t="inlineStr"/>
-      <c r="H591" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H591" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="592">
@@ -20633,10 +20385,8 @@
       </c>
       <c r="F592" t="inlineStr"/>
       <c r="G592" t="inlineStr"/>
-      <c r="H592" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H592" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="593">
@@ -20667,10 +20417,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H593" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H593" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="594">
@@ -20701,10 +20449,8 @@
           <t>9.5%</t>
         </is>
       </c>
-      <c r="H594" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H594" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="595">
@@ -20727,10 +20473,8 @@
       <c r="E595" t="inlineStr"/>
       <c r="F595" t="inlineStr"/>
       <c r="G595" t="inlineStr"/>
-      <c r="H595" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H595" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="596">
@@ -20757,10 +20501,8 @@
       </c>
       <c r="F596" t="inlineStr"/>
       <c r="G596" t="inlineStr"/>
-      <c r="H596" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H596" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="597">
@@ -20791,10 +20533,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H597" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H597" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="598">
@@ -20821,10 +20561,8 @@
       </c>
       <c r="F598" t="inlineStr"/>
       <c r="G598" t="inlineStr"/>
-      <c r="H598" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H598" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="599">
@@ -20847,10 +20585,8 @@
       <c r="E599" t="inlineStr"/>
       <c r="F599" t="inlineStr"/>
       <c r="G599" t="inlineStr"/>
-      <c r="H599" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H599" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="600">
@@ -20873,10 +20609,8 @@
       </c>
       <c r="F600" t="inlineStr"/>
       <c r="G600" t="inlineStr"/>
-      <c r="H600" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H600" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="601">
@@ -20903,10 +20637,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H601" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H601" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="602">
@@ -20933,10 +20665,8 @@
           <t>2%</t>
         </is>
       </c>
-      <c r="H602" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H602" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="603">
@@ -20963,10 +20693,8 @@
           <t>1.0%</t>
         </is>
       </c>
-      <c r="H603" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H603" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="604">
@@ -20989,10 +20717,8 @@
       </c>
       <c r="F604" t="inlineStr"/>
       <c r="G604" t="inlineStr"/>
-      <c r="H604" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H604" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="605">
@@ -21011,10 +20737,8 @@
       <c r="E605" t="inlineStr"/>
       <c r="F605" t="inlineStr"/>
       <c r="G605" t="inlineStr"/>
-      <c r="H605" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H605" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="606">
@@ -21041,10 +20765,8 @@
           <t>$ -38.0B</t>
         </is>
       </c>
-      <c r="H606" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H606" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="607">
@@ -21071,10 +20793,8 @@
           <t>$ 32.5B</t>
         </is>
       </c>
-      <c r="H607" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H607" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="608">
@@ -21101,10 +20821,8 @@
           <t>$ 70.5B</t>
         </is>
       </c>
-      <c r="H608" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H608" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="609">
@@ -21149,10 +20867,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H610" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H610" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="611">
@@ -21183,10 +20899,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H611" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H611" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="612">
@@ -21217,10 +20931,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H612" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H612" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="613">
@@ -21251,10 +20963,8 @@
           <t>17.0%</t>
         </is>
       </c>
-      <c r="H613" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H613" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="614">
@@ -21285,10 +20995,8 @@
           <t>4.30%</t>
         </is>
       </c>
-      <c r="H614" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H614" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="615">
@@ -21319,10 +21027,8 @@
           <t>25.1K</t>
         </is>
       </c>
-      <c r="H615" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H615" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="616">
@@ -21349,10 +21055,8 @@
       </c>
       <c r="F616" t="inlineStr"/>
       <c r="G616" t="inlineStr"/>
-      <c r="H616" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H616" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="617">
@@ -21379,10 +21083,8 @@
       </c>
       <c r="F617" t="inlineStr"/>
       <c r="G617" t="inlineStr"/>
-      <c r="H617" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H617" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="618">
@@ -21413,10 +21115,8 @@
           <t>66.8%</t>
         </is>
       </c>
-      <c r="H618" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H618" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="619">
@@ -21451,10 +21151,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H619" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H619" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="620">
@@ -21481,10 +21179,8 @@
       </c>
       <c r="F620" t="inlineStr"/>
       <c r="G620" t="inlineStr"/>
-      <c r="H620" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H620" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="621">
@@ -21511,10 +21207,8 @@
       </c>
       <c r="F621" t="inlineStr"/>
       <c r="G621" t="inlineStr"/>
-      <c r="H621" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H621" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="622">
@@ -21541,10 +21235,8 @@
       </c>
       <c r="F622" t="inlineStr"/>
       <c r="G622" t="inlineStr"/>
-      <c r="H622" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H622" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="623">
@@ -21579,10 +21271,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H623" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H623" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="624">
@@ -21617,10 +21307,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H624" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H624" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="625">
@@ -21655,10 +21343,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H625" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H625" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="626">
@@ -21693,10 +21379,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H626" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H626" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="627">
@@ -21727,10 +21411,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H627" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H627" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="628">
@@ -21761,10 +21443,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H628" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H628" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="629">
@@ -21795,10 +21475,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H629" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H629" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="630">
@@ -21829,10 +21507,8 @@
           <t>£-17.0B</t>
         </is>
       </c>
-      <c r="H630" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H630" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="631">
@@ -21863,10 +21539,8 @@
           <t>£-6.8B</t>
         </is>
       </c>
-      <c r="H631" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H631" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="632">
@@ -21897,10 +21571,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H632" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H632" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="633">
@@ -21931,10 +21603,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H633" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H633" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="634">
@@ -21965,10 +21635,8 @@
           <t>£-3.9B</t>
         </is>
       </c>
-      <c r="H634" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H634" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="635">
@@ -21999,10 +21667,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H635" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H635" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="636">
@@ -22033,10 +21699,8 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H636" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H636" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="637">
@@ -22067,10 +21731,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H637" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H637" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="638">
@@ -22101,10 +21763,8 @@
           <t>€3.2B</t>
         </is>
       </c>
-      <c r="H638" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H638" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="639">
@@ -22139,10 +21799,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H639" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H639" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="640">
@@ -22177,10 +21835,8 @@
           <t>1.3%</t>
         </is>
       </c>
-      <c r="H640" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H640" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="641">
@@ -22215,10 +21871,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H641" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H641" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="642">
@@ -22253,10 +21907,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H642" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H642" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="643">
@@ -22279,10 +21931,8 @@
       <c r="E643" t="inlineStr"/>
       <c r="F643" t="inlineStr"/>
       <c r="G643" t="inlineStr"/>
-      <c r="H643" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H643" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="644">
@@ -22305,10 +21955,8 @@
       <c r="E644" t="inlineStr"/>
       <c r="F644" t="inlineStr"/>
       <c r="G644" t="inlineStr"/>
-      <c r="H644" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H644" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="645">
@@ -22331,10 +21979,8 @@
       <c r="E645" t="inlineStr"/>
       <c r="F645" t="inlineStr"/>
       <c r="G645" t="inlineStr"/>
-      <c r="H645" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H645" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="646">
@@ -22365,10 +22011,8 @@
           <t>€1.8B</t>
         </is>
       </c>
-      <c r="H646" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H646" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="647">
@@ -22395,10 +22039,8 @@
       </c>
       <c r="F647" t="inlineStr"/>
       <c r="G647" t="inlineStr"/>
-      <c r="H647" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H647" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="648">
@@ -22429,10 +22071,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H648" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H648" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="649">
@@ -22463,10 +22103,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H649" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H649" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="650">
@@ -22497,10 +22135,8 @@
           <t>240.0K</t>
         </is>
       </c>
-      <c r="H650" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H650" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="651">
@@ -22535,10 +22171,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H651" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H651" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="652">
@@ -22569,10 +22203,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H652" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H652" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="653">
@@ -22603,10 +22235,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H653" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H653" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="654">
@@ -22637,10 +22267,8 @@
           <t>209.0K</t>
         </is>
       </c>
-      <c r="H654" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H654" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="655">
@@ -22671,10 +22299,8 @@
           <t>-10</t>
         </is>
       </c>
-      <c r="H655" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H655" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="656">
@@ -22709,10 +22335,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H656" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H656" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="657">
@@ -22743,10 +22367,8 @@
           <t>1870.0K</t>
         </is>
       </c>
-      <c r="H657" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H657" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="658">
@@ -22777,10 +22399,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H658" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H658" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="659">
@@ -22811,10 +22431,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H659" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H659" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="660">
@@ -22845,10 +22463,8 @@
           <t>215.0K</t>
         </is>
       </c>
-      <c r="H660" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H660" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="661">
@@ -22875,10 +22491,8 @@
       </c>
       <c r="F661" t="inlineStr"/>
       <c r="G661" t="inlineStr"/>
-      <c r="H661" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H661" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="662">
@@ -22905,10 +22519,8 @@
       </c>
       <c r="F662" t="inlineStr"/>
       <c r="G662" t="inlineStr"/>
-      <c r="H662" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H662" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="663">
@@ -22935,10 +22547,8 @@
       </c>
       <c r="F663" t="inlineStr"/>
       <c r="G663" t="inlineStr"/>
-      <c r="H663" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H663" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="664">
@@ -22965,10 +22575,8 @@
       </c>
       <c r="F664" t="inlineStr"/>
       <c r="G664" t="inlineStr"/>
-      <c r="H664" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H664" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="665">
@@ -22995,10 +22603,8 @@
       </c>
       <c r="F665" t="inlineStr"/>
       <c r="G665" t="inlineStr"/>
-      <c r="H665" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H665" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="666">
@@ -23029,10 +22635,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H666" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H666" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="667">
@@ -23063,10 +22667,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H667" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H667" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="668">
@@ -23101,10 +22703,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H668" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H668" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="669">
@@ -23139,10 +22739,8 @@
           <t>45</t>
         </is>
       </c>
-      <c r="H669" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H669" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="670">
@@ -23177,10 +22775,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H670" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H670" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="671">
@@ -23207,10 +22803,8 @@
       </c>
       <c r="F671" t="inlineStr"/>
       <c r="G671" t="inlineStr"/>
-      <c r="H671" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H671" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="672">
@@ -23237,10 +22831,8 @@
       </c>
       <c r="F672" t="inlineStr"/>
       <c r="G672" t="inlineStr"/>
-      <c r="H672" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H672" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="673">
@@ -23267,10 +22859,8 @@
       </c>
       <c r="F673" t="inlineStr"/>
       <c r="G673" t="inlineStr"/>
-      <c r="H673" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H673" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="674">
@@ -23293,10 +22883,8 @@
       <c r="E674" t="inlineStr"/>
       <c r="F674" t="inlineStr"/>
       <c r="G674" t="inlineStr"/>
-      <c r="H674" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H674" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="675">
@@ -23323,44 +22911,66 @@
       </c>
       <c r="F675" t="inlineStr"/>
       <c r="G675" t="inlineStr"/>
-      <c r="H675" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H675" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>Friday January 17 2025</t>
-        </is>
-      </c>
-      <c r="B676" t="inlineStr"/>
-      <c r="C676" t="inlineStr"/>
+          <t>02:30 PM</t>
+        </is>
+      </c>
+      <c r="B676" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="C676" t="inlineStr">
+        <is>
+          <t>Current AccountNOV</t>
+        </is>
+      </c>
       <c r="D676" t="inlineStr"/>
-      <c r="E676" t="inlineStr"/>
+      <c r="E676" t="inlineStr">
+        <is>
+          <t>€32B</t>
+        </is>
+      </c>
       <c r="F676" t="inlineStr"/>
-      <c r="G676" t="inlineStr"/>
-      <c r="H676" t="inlineStr"/>
+      <c r="G676" t="inlineStr">
+        <is>
+          <t>€33.0B</t>
+        </is>
+      </c>
+      <c r="H676" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C677" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJAN/15</t>
+          <t>Current Account s.aNOV</t>
         </is>
       </c>
       <c r="D677" t="inlineStr"/>
-      <c r="E677" t="inlineStr"/>
+      <c r="E677" t="inlineStr">
+        <is>
+          <t>€33.5B</t>
+        </is>
+      </c>
       <c r="F677" t="inlineStr"/>
       <c r="G677" t="inlineStr"/>
       <c r="H677" t="inlineStr">
@@ -23372,83 +22982,107 @@
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C678" t="inlineStr">
         <is>
-          <t>Reuters Tankan IndexJAN</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D678" t="inlineStr"/>
       <c r="E678" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>€-3.93B</t>
         </is>
       </c>
       <c r="F678" t="inlineStr"/>
       <c r="G678" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>€-4.2B</t>
         </is>
       </c>
       <c r="H678" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C679" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentJAN/11</t>
+          <t>Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D679" t="inlineStr"/>
-      <c r="E679" t="inlineStr"/>
-      <c r="F679" t="inlineStr"/>
-      <c r="G679" t="inlineStr"/>
+      <c r="E679" t="inlineStr">
+        <is>
+          <t>2.2%</t>
+        </is>
+      </c>
+      <c r="F679" t="inlineStr">
+        <is>
+          <t>2.4%</t>
+        </is>
+      </c>
+      <c r="G679" t="inlineStr">
+        <is>
+          <t>2.4%</t>
+        </is>
+      </c>
       <c r="H679" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C680" t="inlineStr">
         <is>
-          <t>Stock Investment by ForeignersJAN/11</t>
+          <t>Core Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D680" t="inlineStr"/>
-      <c r="E680" t="inlineStr"/>
-      <c r="F680" t="inlineStr"/>
-      <c r="G680" t="inlineStr"/>
+      <c r="E680" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
+      <c r="F680" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="G680" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="H680" t="inlineStr">
         <is>
           <t>3</t>
@@ -23458,29 +23092,33 @@
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C681" t="inlineStr">
         <is>
-          <t>Non-Oil Exports MoMDEC</t>
+          <t>Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D681" t="inlineStr"/>
       <c r="E681" t="inlineStr">
         <is>
-          <t>14.7%</t>
-        </is>
-      </c>
-      <c r="F681" t="inlineStr"/>
+          <t>-0.3%</t>
+        </is>
+      </c>
+      <c r="F681" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="G681" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H681" t="inlineStr">
@@ -23492,29 +23130,33 @@
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C682" t="inlineStr">
         <is>
-          <t>Non-Oil Exports YoYDEC</t>
+          <t>CPI FinalDEC</t>
         </is>
       </c>
       <c r="D682" t="inlineStr"/>
       <c r="E682" t="inlineStr">
         <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="F682" t="inlineStr"/>
+          <t>126.62</t>
+        </is>
+      </c>
+      <c r="F682" t="inlineStr">
+        <is>
+          <t>127.08</t>
+        </is>
+      </c>
       <c r="G682" t="inlineStr">
         <is>
-          <t>7.5%</t>
+          <t>127.08</t>
         </is>
       </c>
       <c r="H682" t="inlineStr">
@@ -23526,27 +23168,31 @@
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B683" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C683" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsJAN</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D683" t="inlineStr"/>
       <c r="E683" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>€5628M</t>
         </is>
       </c>
       <c r="F683" t="inlineStr"/>
-      <c r="G683" t="inlineStr"/>
+      <c r="G683" t="inlineStr">
+        <is>
+          <t>€2900.0M</t>
+        </is>
+      </c>
       <c r="H683" t="inlineStr">
         <is>
           <t>3</t>
@@ -23556,65 +23202,57 @@
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C684" t="inlineStr">
         <is>
-          <t>House Price Index YoYDEC</t>
+          <t>Bank Loan Growth YoYJAN/03</t>
         </is>
       </c>
       <c r="D684" t="inlineStr"/>
       <c r="E684" t="inlineStr">
         <is>
-          <t>-5.7%</t>
+          <t>11.5%</t>
         </is>
       </c>
       <c r="F684" t="inlineStr"/>
-      <c r="G684" t="inlineStr">
-        <is>
-          <t>-5.8%</t>
-        </is>
-      </c>
+      <c r="G684" t="inlineStr"/>
       <c r="H684" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C685" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Deposit Growth YoYJAN/03</t>
         </is>
       </c>
       <c r="D685" t="inlineStr"/>
       <c r="E685" t="inlineStr">
         <is>
-          <t>$6.52B</t>
+          <t>11.5%</t>
         </is>
       </c>
       <c r="F685" t="inlineStr"/>
-      <c r="G685" t="inlineStr">
-        <is>
-          <t>$ 3.6B</t>
-        </is>
-      </c>
+      <c r="G685" t="inlineStr"/>
       <c r="H685" t="inlineStr">
         <is>
           <t>3</t>
@@ -23624,385 +23262,365 @@
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C686" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoYQ4</t>
+          <t>Foreign Exchange ReservesJAN/10</t>
         </is>
       </c>
       <c r="D686" t="inlineStr"/>
-      <c r="E686" t="inlineStr">
-        <is>
-          <t>4.6%</t>
-        </is>
-      </c>
-      <c r="F686" t="inlineStr">
-        <is>
-          <t>5.1%</t>
-        </is>
-      </c>
-      <c r="G686" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
+      <c r="E686" t="inlineStr"/>
+      <c r="F686" t="inlineStr"/>
+      <c r="G686" t="inlineStr"/>
       <c r="H686" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C687" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Foreign Securities PurchasesNOV</t>
         </is>
       </c>
       <c r="D687" t="inlineStr"/>
       <c r="E687" t="inlineStr">
         <is>
-          <t>5.4%</t>
-        </is>
-      </c>
-      <c r="F687" t="inlineStr">
-        <is>
-          <t>5.5%</t>
-        </is>
-      </c>
-      <c r="G687" t="inlineStr">
-        <is>
-          <t>5.5%</t>
-        </is>
-      </c>
+          <t>C$21.55B</t>
+        </is>
+      </c>
+      <c r="F687" t="inlineStr"/>
+      <c r="G687" t="inlineStr"/>
       <c r="H687" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B688" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C688" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Foreign Securities Purchases by CanadiansNOV</t>
         </is>
       </c>
       <c r="D688" t="inlineStr"/>
       <c r="E688" t="inlineStr">
         <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="F688" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
-      <c r="G688" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
+          <t>C$-2.65B</t>
+        </is>
+      </c>
+      <c r="F688" t="inlineStr"/>
+      <c r="G688" t="inlineStr"/>
       <c r="H688" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C689" t="inlineStr">
         <is>
-          <t>Fixed Asset Investment (YTD) YoYDEC</t>
+          <t>Building Permits PrelDEC</t>
         </is>
       </c>
       <c r="D689" t="inlineStr"/>
       <c r="E689" t="inlineStr">
         <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="F689" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+          <t>1.493M</t>
+        </is>
+      </c>
+      <c r="F689" t="inlineStr"/>
       <c r="G689" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>1.48M</t>
         </is>
       </c>
       <c r="H689" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C690" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQQ4</t>
+          <t>Housing StartsDEC</t>
         </is>
       </c>
       <c r="D690" t="inlineStr"/>
       <c r="E690" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>1.289M</t>
         </is>
       </c>
       <c r="F690" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>1.31M</t>
         </is>
       </c>
       <c r="G690" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>1.32M</t>
         </is>
       </c>
       <c r="H690" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C691" t="inlineStr">
         <is>
-          <t>Industrial Capacity UtilizationQ4</t>
+          <t>Building Permits MoM PrelDEC</t>
         </is>
       </c>
       <c r="D691" t="inlineStr"/>
       <c r="E691" t="inlineStr">
         <is>
-          <t>75.1%</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="F691" t="inlineStr"/>
       <c r="G691" t="inlineStr">
         <is>
-          <t>75.3%</t>
+          <t>-0.9%</t>
         </is>
       </c>
       <c r="H691" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C692" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Housing Starts MoMDEC</t>
         </is>
       </c>
       <c r="D692" t="inlineStr"/>
       <c r="E692" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>-1.8%</t>
         </is>
       </c>
       <c r="F692" t="inlineStr"/>
       <c r="G692" t="inlineStr">
         <is>
-          <t>5.00%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="H692" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C693" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D693" t="inlineStr"/>
       <c r="E693" t="inlineStr">
         <is>
-          <t>0.2402%</t>
-        </is>
-      </c>
-      <c r="F693" t="inlineStr"/>
-      <c r="G693" t="inlineStr"/>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="F693" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="G693" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="H693" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C694" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Capacity UtilizationDEC</t>
         </is>
       </c>
       <c r="D694" t="inlineStr"/>
       <c r="E694" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F694" t="inlineStr"/>
+          <t>76.8%</t>
+        </is>
+      </c>
+      <c r="F694" t="inlineStr">
+        <is>
+          <t>77.6%</t>
+        </is>
+      </c>
       <c r="G694" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>76.9%</t>
         </is>
       </c>
       <c r="H694" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C695" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D695" t="inlineStr"/>
       <c r="E695" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>-0.9%</t>
         </is>
       </c>
       <c r="F695" t="inlineStr"/>
       <c r="G695" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="H695" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C696" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel MoMDEC</t>
+          <t>Manufacturing Production MoMDEC</t>
         </is>
       </c>
       <c r="D696" t="inlineStr"/>
       <c r="E696" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F696" t="inlineStr"/>
       <c r="G696" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H696" t="inlineStr">
@@ -24014,29 +23632,29 @@
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C697" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel YoYDEC</t>
+          <t>Manufacturing Production YoYDEC</t>
         </is>
       </c>
       <c r="D697" t="inlineStr"/>
       <c r="E697" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>-1%</t>
         </is>
       </c>
       <c r="F697" t="inlineStr"/>
       <c r="G697" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="H697" t="inlineStr">
@@ -24048,31 +23666,23 @@
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C698" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Baker Hughes Oil Rig CountJAN/17</t>
         </is>
       </c>
       <c r="D698" t="inlineStr"/>
-      <c r="E698" t="inlineStr">
-        <is>
-          <t>€32B</t>
-        </is>
-      </c>
+      <c r="E698" t="inlineStr"/>
       <c r="F698" t="inlineStr"/>
-      <c r="G698" t="inlineStr">
-        <is>
-          <t>€33.0B</t>
-        </is>
-      </c>
+      <c r="G698" t="inlineStr"/>
       <c r="H698" t="inlineStr">
         <is>
           <t>3</t>
@@ -24082,25 +23692,21 @@
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B699" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C699" t="inlineStr">
         <is>
-          <t>Current Account s.aNOV</t>
+          <t>Baker Hughes Total Rigs CountJAN/17</t>
         </is>
       </c>
       <c r="D699" t="inlineStr"/>
-      <c r="E699" t="inlineStr">
-        <is>
-          <t>€33.5B</t>
-        </is>
-      </c>
+      <c r="E699" t="inlineStr"/>
       <c r="F699" t="inlineStr"/>
       <c r="G699" t="inlineStr"/>
       <c r="H699" t="inlineStr">
@@ -24110,147 +23716,99 @@
       </c>
     </row>
     <row r="700">
-      <c r="A700" t="inlineStr">
-        <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
+      <c r="A700" t="inlineStr"/>
       <c r="B700" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C700" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>50-Year KTB Auction</t>
         </is>
       </c>
       <c r="D700" t="inlineStr"/>
       <c r="E700" t="inlineStr">
         <is>
-          <t>€-3.93B</t>
+          <t>2.40%</t>
         </is>
       </c>
       <c r="F700" t="inlineStr"/>
-      <c r="G700" t="inlineStr">
-        <is>
-          <t>€-4.2B</t>
-        </is>
-      </c>
+      <c r="G700" t="inlineStr"/>
       <c r="H700" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B701" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C701" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoY FinalDEC</t>
-        </is>
-      </c>
+          <t>Saturday January 18 2025</t>
+        </is>
+      </c>
+      <c r="B701" t="inlineStr"/>
+      <c r="C701" t="inlineStr"/>
       <c r="D701" t="inlineStr"/>
-      <c r="E701" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="F701" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="G701" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="H701" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="E701" t="inlineStr"/>
+      <c r="F701" t="inlineStr"/>
+      <c r="G701" t="inlineStr"/>
+      <c r="H701" t="inlineStr"/>
     </row>
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B702" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C702" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FinalDEC</t>
+          <t>Net Long-term TIC FlowsNOV</t>
         </is>
       </c>
       <c r="D702" t="inlineStr"/>
       <c r="E702" t="inlineStr">
         <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="F702" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="G702" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+          <t>$152.3B</t>
+        </is>
+      </c>
+      <c r="F702" t="inlineStr"/>
+      <c r="G702" t="inlineStr"/>
       <c r="H702" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C703" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FinalDEC</t>
+          <t>Foreign Bond InvestmentNOV</t>
         </is>
       </c>
       <c r="D703" t="inlineStr"/>
       <c r="E703" t="inlineStr">
         <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F703" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G703" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>$92.1B</t>
+        </is>
+      </c>
+      <c r="F703" t="inlineStr"/>
+      <c r="G703" t="inlineStr"/>
       <c r="H703" t="inlineStr">
         <is>
           <t>3</t>
@@ -24260,35 +23818,27 @@
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C704" t="inlineStr">
         <is>
-          <t>CPI FinalDEC</t>
+          <t>Overall Net Capital FlowsNOV</t>
         </is>
       </c>
       <c r="D704" t="inlineStr"/>
       <c r="E704" t="inlineStr">
         <is>
-          <t>126.62</t>
-        </is>
-      </c>
-      <c r="F704" t="inlineStr">
-        <is>
-          <t>127.08</t>
-        </is>
-      </c>
-      <c r="G704" t="inlineStr">
-        <is>
-          <t>127.08</t>
-        </is>
-      </c>
+          <t>$203.6B</t>
+        </is>
+      </c>
+      <c r="F704" t="inlineStr"/>
+      <c r="G704" t="inlineStr"/>
       <c r="H704" t="inlineStr">
         <is>
           <t>3</t>
@@ -24298,173 +23848,165 @@
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B705" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C705" t="inlineStr">
-        <is>
-          <t>Current AccountNOV</t>
-        </is>
-      </c>
+          <t>Monday January 20 2025</t>
+        </is>
+      </c>
+      <c r="B705" t="inlineStr"/>
+      <c r="C705" t="inlineStr"/>
       <c r="D705" t="inlineStr"/>
-      <c r="E705" t="inlineStr">
-        <is>
-          <t>€5628M</t>
-        </is>
-      </c>
+      <c r="E705" t="inlineStr"/>
       <c r="F705" t="inlineStr"/>
-      <c r="G705" t="inlineStr">
-        <is>
-          <t>€2900.0M</t>
-        </is>
-      </c>
-      <c r="H705" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G705" t="inlineStr"/>
+      <c r="H705" t="inlineStr"/>
     </row>
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B706" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C706" t="inlineStr">
         <is>
-          <t>Bank Loan Growth YoYJAN/03</t>
+          <t>Machinery Orders MoMNOV</t>
         </is>
       </c>
       <c r="D706" t="inlineStr"/>
       <c r="E706" t="inlineStr">
         <is>
-          <t>11.5%</t>
+          <t>2.1%</t>
         </is>
       </c>
       <c r="F706" t="inlineStr"/>
-      <c r="G706" t="inlineStr"/>
+      <c r="G706" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H706" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B707" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C707" t="inlineStr">
         <is>
-          <t>Deposit Growth YoYJAN/03</t>
+          <t>Machinery Orders YoYNOV</t>
         </is>
       </c>
       <c r="D707" t="inlineStr"/>
       <c r="E707" t="inlineStr">
         <is>
-          <t>11.5%</t>
+          <t>5.6%</t>
         </is>
       </c>
       <c r="F707" t="inlineStr"/>
-      <c r="G707" t="inlineStr"/>
+      <c r="G707" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
       <c r="H707" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>06:45 AM</t>
         </is>
       </c>
       <c r="B708" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C708" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/10</t>
+          <t>Loan Prime Rate 1Y</t>
         </is>
       </c>
       <c r="D708" t="inlineStr"/>
-      <c r="E708" t="inlineStr"/>
+      <c r="E708" t="inlineStr">
+        <is>
+          <t>3.1%</t>
+        </is>
+      </c>
       <c r="F708" t="inlineStr"/>
       <c r="G708" t="inlineStr"/>
       <c r="H708" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:45 AM</t>
         </is>
       </c>
       <c r="B709" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C709" t="inlineStr">
         <is>
-          <t>Foreign Securities PurchasesNOV</t>
+          <t>Loan Prime Rate 5YJAN</t>
         </is>
       </c>
       <c r="D709" t="inlineStr"/>
       <c r="E709" t="inlineStr">
         <is>
-          <t>C$21.55B</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="F709" t="inlineStr"/>
       <c r="G709" t="inlineStr"/>
       <c r="H709" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C710" t="inlineStr">
         <is>
-          <t>Foreign Securities Purchases by CanadiansNOV</t>
+          <t>Capacity Utilization MoMNOV</t>
         </is>
       </c>
       <c r="D710" t="inlineStr"/>
       <c r="E710" t="inlineStr">
         <is>
-          <t>C$-2.65B</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F710" t="inlineStr"/>
@@ -24478,135 +24020,131 @@
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C711" t="inlineStr">
         <is>
-          <t>Building Permits PrelDEC</t>
+          <t>Industrial Production MoM FinalNOV</t>
         </is>
       </c>
       <c r="D711" t="inlineStr"/>
       <c r="E711" t="inlineStr">
         <is>
-          <t>1.493M</t>
-        </is>
-      </c>
-      <c r="F711" t="inlineStr"/>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="F711" t="inlineStr">
+        <is>
+          <t>-2.3%</t>
+        </is>
+      </c>
       <c r="G711" t="inlineStr">
         <is>
-          <t>1.48M</t>
+          <t>-2.3%</t>
         </is>
       </c>
       <c r="H711" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B712" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C712" t="inlineStr">
         <is>
-          <t>Housing StartsDEC</t>
+          <t>Industrial Production YoY FinalNOV</t>
         </is>
       </c>
       <c r="D712" t="inlineStr"/>
       <c r="E712" t="inlineStr">
         <is>
-          <t>1.289M</t>
-        </is>
-      </c>
-      <c r="F712" t="inlineStr">
-        <is>
-          <t>1.31M</t>
-        </is>
-      </c>
+          <t>1.4%</t>
+        </is>
+      </c>
+      <c r="F712" t="inlineStr"/>
       <c r="G712" t="inlineStr">
         <is>
-          <t>1.32M</t>
+          <t>-2.8%</t>
         </is>
       </c>
       <c r="H712" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B713" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C713" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelDEC</t>
+          <t>Tertiary Industry Index MoMNOV</t>
         </is>
       </c>
       <c r="D713" t="inlineStr"/>
       <c r="E713" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F713" t="inlineStr"/>
-      <c r="G713" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
+      <c r="G713" t="inlineStr"/>
       <c r="H713" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B714" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C714" t="inlineStr">
         <is>
-          <t>Housing Starts MoMDEC</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D714" t="inlineStr"/>
       <c r="E714" t="inlineStr">
         <is>
-          <t>-1.8%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F714" t="inlineStr"/>
       <c r="G714" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H714" t="inlineStr">
@@ -24618,73 +24156,53 @@
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B715" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C715" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D715" t="inlineStr"/>
       <c r="E715" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F715" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F715" t="inlineStr"/>
       <c r="G715" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="H715" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="716">
-      <c r="A716" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
+      <c r="A716" t="inlineStr"/>
       <c r="B716" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C716" t="inlineStr">
         <is>
-          <t>Capacity UtilizationDEC</t>
+          <t>Eurogroup Meeting</t>
         </is>
       </c>
       <c r="D716" t="inlineStr"/>
-      <c r="E716" t="inlineStr">
-        <is>
-          <t>76.8%</t>
-        </is>
-      </c>
-      <c r="F716" t="inlineStr">
-        <is>
-          <t>77.6%</t>
-        </is>
-      </c>
-      <c r="G716" t="inlineStr">
-        <is>
-          <t>76.9%</t>
-        </is>
-      </c>
+      <c r="E716" t="inlineStr"/>
+      <c r="F716" t="inlineStr"/>
+      <c r="G716" t="inlineStr"/>
       <c r="H716" t="inlineStr">
         <is>
           <t>3</t>
@@ -24692,33 +24210,25 @@
       </c>
     </row>
     <row r="717">
-      <c r="A717" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
+      <c r="A717" t="inlineStr"/>
       <c r="B717" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C717" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>10-Year KTB Auction</t>
         </is>
       </c>
       <c r="D717" t="inlineStr"/>
       <c r="E717" t="inlineStr">
         <is>
-          <t>-0.9%</t>
+          <t>2.665%</t>
         </is>
       </c>
       <c r="F717" t="inlineStr"/>
-      <c r="G717" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
+      <c r="G717" t="inlineStr"/>
       <c r="H717" t="inlineStr">
         <is>
           <t>3</t>
@@ -24726,666 +24236,26 @@
       </c>
     </row>
     <row r="718">
-      <c r="A718" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
+      <c r="A718" t="inlineStr"/>
       <c r="B718" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C718" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMDEC</t>
+          <t>FDI (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D718" t="inlineStr"/>
       <c r="E718" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-27.9%</t>
         </is>
       </c>
       <c r="F718" t="inlineStr"/>
-      <c r="G718" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G718" t="inlineStr"/>
       <c r="H718" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="719">
-      <c r="A719" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B719" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C719" t="inlineStr">
-        <is>
-          <t>Manufacturing Production YoYDEC</t>
-        </is>
-      </c>
-      <c r="D719" t="inlineStr"/>
-      <c r="E719" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
-      <c r="F719" t="inlineStr"/>
-      <c r="G719" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="H719" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="720">
-      <c r="A720" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B720" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C720" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountJAN/17</t>
-        </is>
-      </c>
-      <c r="D720" t="inlineStr"/>
-      <c r="E720" t="inlineStr"/>
-      <c r="F720" t="inlineStr"/>
-      <c r="G720" t="inlineStr"/>
-      <c r="H720" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="721">
-      <c r="A721" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B721" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C721" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountJAN/17</t>
-        </is>
-      </c>
-      <c r="D721" t="inlineStr"/>
-      <c r="E721" t="inlineStr"/>
-      <c r="F721" t="inlineStr"/>
-      <c r="G721" t="inlineStr"/>
-      <c r="H721" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="722">
-      <c r="A722" t="inlineStr"/>
-      <c r="B722" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C722" t="inlineStr">
-        <is>
-          <t>50-Year KTB Auction</t>
-        </is>
-      </c>
-      <c r="D722" t="inlineStr"/>
-      <c r="E722" t="inlineStr">
-        <is>
-          <t>2.40%</t>
-        </is>
-      </c>
-      <c r="F722" t="inlineStr"/>
-      <c r="G722" t="inlineStr"/>
-      <c r="H722" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="723">
-      <c r="A723" t="inlineStr">
-        <is>
-          <t>Saturday January 18 2025</t>
-        </is>
-      </c>
-      <c r="B723" t="inlineStr"/>
-      <c r="C723" t="inlineStr"/>
-      <c r="D723" t="inlineStr"/>
-      <c r="E723" t="inlineStr"/>
-      <c r="F723" t="inlineStr"/>
-      <c r="G723" t="inlineStr"/>
-      <c r="H723" t="inlineStr"/>
-    </row>
-    <row r="724">
-      <c r="A724" t="inlineStr">
-        <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
-      <c r="B724" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C724" t="inlineStr">
-        <is>
-          <t>Net Long-term TIC FlowsNOV</t>
-        </is>
-      </c>
-      <c r="D724" t="inlineStr"/>
-      <c r="E724" t="inlineStr">
-        <is>
-          <t>$152.3B</t>
-        </is>
-      </c>
-      <c r="F724" t="inlineStr"/>
-      <c r="G724" t="inlineStr"/>
-      <c r="H724" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="725">
-      <c r="A725" t="inlineStr">
-        <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
-      <c r="B725" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C725" t="inlineStr">
-        <is>
-          <t>Foreign Bond InvestmentNOV</t>
-        </is>
-      </c>
-      <c r="D725" t="inlineStr"/>
-      <c r="E725" t="inlineStr">
-        <is>
-          <t>$92.1B</t>
-        </is>
-      </c>
-      <c r="F725" t="inlineStr"/>
-      <c r="G725" t="inlineStr"/>
-      <c r="H725" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="726">
-      <c r="A726" t="inlineStr">
-        <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
-      <c r="B726" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C726" t="inlineStr">
-        <is>
-          <t>Overall Net Capital FlowsNOV</t>
-        </is>
-      </c>
-      <c r="D726" t="inlineStr"/>
-      <c r="E726" t="inlineStr">
-        <is>
-          <t>$203.6B</t>
-        </is>
-      </c>
-      <c r="F726" t="inlineStr"/>
-      <c r="G726" t="inlineStr"/>
-      <c r="H726" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="727">
-      <c r="A727" t="inlineStr">
-        <is>
-          <t>Monday January 20 2025</t>
-        </is>
-      </c>
-      <c r="B727" t="inlineStr"/>
-      <c r="C727" t="inlineStr"/>
-      <c r="D727" t="inlineStr"/>
-      <c r="E727" t="inlineStr"/>
-      <c r="F727" t="inlineStr"/>
-      <c r="G727" t="inlineStr"/>
-      <c r="H727" t="inlineStr"/>
-    </row>
-    <row r="728">
-      <c r="A728" t="inlineStr">
-        <is>
-          <t>05:20 AM</t>
-        </is>
-      </c>
-      <c r="B728" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C728" t="inlineStr">
-        <is>
-          <t>Machinery Orders MoMNOV</t>
-        </is>
-      </c>
-      <c r="D728" t="inlineStr"/>
-      <c r="E728" t="inlineStr">
-        <is>
-          <t>2.1%</t>
-        </is>
-      </c>
-      <c r="F728" t="inlineStr"/>
-      <c r="G728" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H728" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="729">
-      <c r="A729" t="inlineStr">
-        <is>
-          <t>05:20 AM</t>
-        </is>
-      </c>
-      <c r="B729" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C729" t="inlineStr">
-        <is>
-          <t>Machinery Orders YoYNOV</t>
-        </is>
-      </c>
-      <c r="D729" t="inlineStr"/>
-      <c r="E729" t="inlineStr">
-        <is>
-          <t>5.6%</t>
-        </is>
-      </c>
-      <c r="F729" t="inlineStr"/>
-      <c r="G729" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
-      <c r="H729" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="730">
-      <c r="A730" t="inlineStr">
-        <is>
-          <t>06:45 AM</t>
-        </is>
-      </c>
-      <c r="B730" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C730" t="inlineStr">
-        <is>
-          <t>Loan Prime Rate 1Y</t>
-        </is>
-      </c>
-      <c r="D730" t="inlineStr"/>
-      <c r="E730" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="F730" t="inlineStr"/>
-      <c r="G730" t="inlineStr"/>
-      <c r="H730" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="731">
-      <c r="A731" t="inlineStr">
-        <is>
-          <t>06:45 AM</t>
-        </is>
-      </c>
-      <c r="B731" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C731" t="inlineStr">
-        <is>
-          <t>Loan Prime Rate 5YJAN</t>
-        </is>
-      </c>
-      <c r="D731" t="inlineStr"/>
-      <c r="E731" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="F731" t="inlineStr"/>
-      <c r="G731" t="inlineStr"/>
-      <c r="H731" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="732">
-      <c r="A732" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B732" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C732" t="inlineStr">
-        <is>
-          <t>Capacity Utilization MoMNOV</t>
-        </is>
-      </c>
-      <c r="D732" t="inlineStr"/>
-      <c r="E732" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="F732" t="inlineStr"/>
-      <c r="G732" t="inlineStr"/>
-      <c r="H732" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="733">
-      <c r="A733" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B733" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C733" t="inlineStr">
-        <is>
-          <t>Industrial Production MoM FinalNOV</t>
-        </is>
-      </c>
-      <c r="D733" t="inlineStr"/>
-      <c r="E733" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F733" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
-      <c r="G733" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
-      <c r="H733" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="734">
-      <c r="A734" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B734" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C734" t="inlineStr">
-        <is>
-          <t>Industrial Production YoY FinalNOV</t>
-        </is>
-      </c>
-      <c r="D734" t="inlineStr"/>
-      <c r="E734" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="F734" t="inlineStr"/>
-      <c r="G734" t="inlineStr">
-        <is>
-          <t>-2.8%</t>
-        </is>
-      </c>
-      <c r="H734" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="735">
-      <c r="A735" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B735" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C735" t="inlineStr">
-        <is>
-          <t>Tertiary Industry Index MoMNOV</t>
-        </is>
-      </c>
-      <c r="D735" t="inlineStr"/>
-      <c r="E735" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F735" t="inlineStr"/>
-      <c r="G735" t="inlineStr"/>
-      <c r="H735" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="736">
-      <c r="A736" t="inlineStr">
-        <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
-      <c r="B736" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C736" t="inlineStr">
-        <is>
-          <t>PPI MoMDEC</t>
-        </is>
-      </c>
-      <c r="D736" t="inlineStr"/>
-      <c r="E736" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="F736" t="inlineStr"/>
-      <c r="G736" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H736" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="737">
-      <c r="A737" t="inlineStr">
-        <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
-      <c r="B737" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C737" t="inlineStr">
-        <is>
-          <t>PPI YoYDEC</t>
-        </is>
-      </c>
-      <c r="D737" t="inlineStr"/>
-      <c r="E737" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F737" t="inlineStr"/>
-      <c r="G737" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
-      <c r="H737" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="738">
-      <c r="A738" t="inlineStr"/>
-      <c r="B738" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C738" t="inlineStr">
-        <is>
-          <t>Eurogroup Meeting</t>
-        </is>
-      </c>
-      <c r="D738" t="inlineStr"/>
-      <c r="E738" t="inlineStr"/>
-      <c r="F738" t="inlineStr"/>
-      <c r="G738" t="inlineStr"/>
-      <c r="H738" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="739">
-      <c r="A739" t="inlineStr"/>
-      <c r="B739" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C739" t="inlineStr">
-        <is>
-          <t>10-Year KTB Auction</t>
-        </is>
-      </c>
-      <c r="D739" t="inlineStr"/>
-      <c r="E739" t="inlineStr">
-        <is>
-          <t>2.665%</t>
-        </is>
-      </c>
-      <c r="F739" t="inlineStr"/>
-      <c r="G739" t="inlineStr"/>
-      <c r="H739" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="740">
-      <c r="A740" t="inlineStr"/>
-      <c r="B740" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C740" t="inlineStr">
-        <is>
-          <t>FDI (YTD) YoYDEC</t>
-        </is>
-      </c>
-      <c r="D740" t="inlineStr"/>
-      <c r="E740" t="inlineStr">
-        <is>
-          <t>-27.9%</t>
-        </is>
-      </c>
-      <c r="F740" t="inlineStr"/>
-      <c r="G740" t="inlineStr"/>
-      <c r="H740" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-20.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H729"/>
+  <dimension ref="A1:H708"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20853,10 +20853,8 @@
           <t>£-17.0B</t>
         </is>
       </c>
-      <c r="H609" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H609" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="610">
@@ -20887,10 +20885,8 @@
           <t>£-6.8B</t>
         </is>
       </c>
-      <c r="H610" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H610" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="611">
@@ -20921,10 +20917,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H611" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H611" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="612">
@@ -20955,10 +20949,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H612" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H612" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="613">
@@ -20989,10 +20981,8 @@
           <t>£-3.9B</t>
         </is>
       </c>
-      <c r="H613" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H613" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="614">
@@ -21023,10 +21013,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H614" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H614" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="615">
@@ -21057,10 +21045,8 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H615" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H615" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="616">
@@ -21091,10 +21077,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H616" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H616" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="617">
@@ -21125,10 +21109,8 @@
           <t>€3.2B</t>
         </is>
       </c>
-      <c r="H617" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H617" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="618">
@@ -21163,10 +21145,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H618" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H618" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="619">
@@ -21201,10 +21181,8 @@
           <t>1.3%</t>
         </is>
       </c>
-      <c r="H619" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H619" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="620">
@@ -21239,10 +21217,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H620" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H620" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="621">
@@ -21277,10 +21253,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H621" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H621" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="622">
@@ -21303,10 +21277,8 @@
       <c r="E622" t="inlineStr"/>
       <c r="F622" t="inlineStr"/>
       <c r="G622" t="inlineStr"/>
-      <c r="H622" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H622" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="623">
@@ -21329,10 +21301,8 @@
       <c r="E623" t="inlineStr"/>
       <c r="F623" t="inlineStr"/>
       <c r="G623" t="inlineStr"/>
-      <c r="H623" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H623" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="624">
@@ -21355,10 +21325,8 @@
       <c r="E624" t="inlineStr"/>
       <c r="F624" t="inlineStr"/>
       <c r="G624" t="inlineStr"/>
-      <c r="H624" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H624" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="625">
@@ -21381,10 +21349,8 @@
       <c r="E625" t="inlineStr"/>
       <c r="F625" t="inlineStr"/>
       <c r="G625" t="inlineStr"/>
-      <c r="H625" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H625" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="626">
@@ -21415,10 +21381,8 @@
           <t>€1.8B</t>
         </is>
       </c>
-      <c r="H626" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H626" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="627">
@@ -21445,10 +21409,8 @@
       </c>
       <c r="F627" t="inlineStr"/>
       <c r="G627" t="inlineStr"/>
-      <c r="H627" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H627" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="628">
@@ -21479,10 +21441,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H628" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H628" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="629">
@@ -21505,10 +21465,8 @@
       <c r="E629" t="inlineStr"/>
       <c r="F629" t="inlineStr"/>
       <c r="G629" t="inlineStr"/>
-      <c r="H629" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H629" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="630">
@@ -21539,10 +21497,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H630" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H630" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="631">
@@ -21573,10 +21529,8 @@
           <t>240.0K</t>
         </is>
       </c>
-      <c r="H631" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H631" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="632">
@@ -21611,10 +21565,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H632" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H632" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="633">
@@ -21645,10 +21597,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H633" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H633" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="634">
@@ -21679,10 +21629,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H634" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H634" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="635">
@@ -21713,10 +21661,8 @@
           <t>209.0K</t>
         </is>
       </c>
-      <c r="H635" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H635" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="636">
@@ -21747,10 +21693,8 @@
           <t>-10</t>
         </is>
       </c>
-      <c r="H636" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H636" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="637">
@@ -21785,10 +21729,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H637" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H637" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="638">
@@ -21819,10 +21761,8 @@
           <t>1870.0K</t>
         </is>
       </c>
-      <c r="H638" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H638" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="639">
@@ -21853,10 +21793,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H639" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H639" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="640">
@@ -21887,10 +21825,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H640" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H640" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="641">
@@ -21921,10 +21857,8 @@
           <t>215.0K</t>
         </is>
       </c>
-      <c r="H641" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H641" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="642">
@@ -21951,10 +21885,8 @@
       </c>
       <c r="F642" t="inlineStr"/>
       <c r="G642" t="inlineStr"/>
-      <c r="H642" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H642" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="643">
@@ -21981,10 +21913,8 @@
       </c>
       <c r="F643" t="inlineStr"/>
       <c r="G643" t="inlineStr"/>
-      <c r="H643" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H643" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="644">
@@ -22011,10 +21941,8 @@
       </c>
       <c r="F644" t="inlineStr"/>
       <c r="G644" t="inlineStr"/>
-      <c r="H644" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H644" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="645">
@@ -22041,10 +21969,8 @@
       </c>
       <c r="F645" t="inlineStr"/>
       <c r="G645" t="inlineStr"/>
-      <c r="H645" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H645" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="646">
@@ -22071,10 +21997,8 @@
       </c>
       <c r="F646" t="inlineStr"/>
       <c r="G646" t="inlineStr"/>
-      <c r="H646" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H646" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="647">
@@ -22105,10 +22029,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H647" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H647" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="648">
@@ -22139,10 +22061,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H648" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H648" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="649">
@@ -22177,10 +22097,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H649" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H649" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="650">
@@ -22215,10 +22133,8 @@
           <t>45</t>
         </is>
       </c>
-      <c r="H650" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H650" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="651">
@@ -22253,10 +22169,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H651" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H651" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="652">
@@ -22283,10 +22197,8 @@
       </c>
       <c r="F652" t="inlineStr"/>
       <c r="G652" t="inlineStr"/>
-      <c r="H652" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H652" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="653">
@@ -22313,10 +22225,8 @@
       </c>
       <c r="F653" t="inlineStr"/>
       <c r="G653" t="inlineStr"/>
-      <c r="H653" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H653" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="654">
@@ -22343,10 +22253,8 @@
       </c>
       <c r="F654" t="inlineStr"/>
       <c r="G654" t="inlineStr"/>
-      <c r="H654" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H654" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="655">
@@ -22373,10 +22281,8 @@
       </c>
       <c r="F655" t="inlineStr"/>
       <c r="G655" t="inlineStr"/>
-      <c r="H655" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H655" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="656">
@@ -22403,10 +22309,8 @@
       </c>
       <c r="F656" t="inlineStr"/>
       <c r="G656" t="inlineStr"/>
-      <c r="H656" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H656" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="657">
@@ -22429,110 +22333,144 @@
       <c r="E657" t="inlineStr"/>
       <c r="F657" t="inlineStr"/>
       <c r="G657" t="inlineStr"/>
-      <c r="H657" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H657" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>Friday January 17 2025</t>
-        </is>
-      </c>
-      <c r="B658" t="inlineStr"/>
-      <c r="C658" t="inlineStr"/>
+          <t>02:30 PM</t>
+        </is>
+      </c>
+      <c r="B658" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="C658" t="inlineStr">
+        <is>
+          <t>Current Account s.aNOV</t>
+        </is>
+      </c>
       <c r="D658" t="inlineStr"/>
-      <c r="E658" t="inlineStr"/>
+      <c r="E658" t="inlineStr">
+        <is>
+          <t>€33.5B</t>
+        </is>
+      </c>
       <c r="F658" t="inlineStr"/>
       <c r="G658" t="inlineStr"/>
-      <c r="H658" t="inlineStr"/>
+      <c r="H658" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C659" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJAN/15</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D659" t="inlineStr"/>
-      <c r="E659" t="inlineStr"/>
+      <c r="E659" t="inlineStr">
+        <is>
+          <t>€-3.93B</t>
+        </is>
+      </c>
       <c r="F659" t="inlineStr"/>
-      <c r="G659" t="inlineStr"/>
+      <c r="G659" t="inlineStr">
+        <is>
+          <t>€-4.2B</t>
+        </is>
+      </c>
       <c r="H659" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C660" t="inlineStr">
         <is>
-          <t>Reuters Tankan IndexJAN</t>
+          <t>Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D660" t="inlineStr"/>
       <c r="E660" t="inlineStr">
         <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="F660" t="inlineStr"/>
+          <t>2.2%</t>
+        </is>
+      </c>
+      <c r="F660" t="inlineStr">
+        <is>
+          <t>2.4%</t>
+        </is>
+      </c>
       <c r="G660" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="H660" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C661" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentJAN/11</t>
+          <t>Core Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D661" t="inlineStr"/>
       <c r="E661" t="inlineStr">
         <is>
-          <t>¥-331.8B</t>
-        </is>
-      </c>
-      <c r="F661" t="inlineStr"/>
-      <c r="G661" t="inlineStr"/>
+          <t>2.7%</t>
+        </is>
+      </c>
+      <c r="F661" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
+      <c r="G661" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="H661" t="inlineStr">
         <is>
           <t>3</t>
@@ -22542,27 +22480,35 @@
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C662" t="inlineStr">
         <is>
-          <t>Stock Investment by ForeignersJAN/11</t>
+          <t>Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D662" t="inlineStr"/>
       <c r="E662" t="inlineStr">
         <is>
-          <t>¥-74B</t>
-        </is>
-      </c>
-      <c r="F662" t="inlineStr"/>
-      <c r="G662" t="inlineStr"/>
+          <t>-0.3%</t>
+        </is>
+      </c>
+      <c r="F662" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="G662" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H662" t="inlineStr">
         <is>
           <t>3</t>
@@ -22572,29 +22518,33 @@
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C663" t="inlineStr">
         <is>
-          <t>Non-Oil Exports MoMDEC</t>
+          <t>CPI FinalDEC</t>
         </is>
       </c>
       <c r="D663" t="inlineStr"/>
       <c r="E663" t="inlineStr">
         <is>
-          <t>14.7%</t>
-        </is>
-      </c>
-      <c r="F663" t="inlineStr"/>
+          <t>126.62</t>
+        </is>
+      </c>
+      <c r="F663" t="inlineStr">
+        <is>
+          <t>127.08</t>
+        </is>
+      </c>
       <c r="G663" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>127.08</t>
         </is>
       </c>
       <c r="H663" t="inlineStr">
@@ -22606,35 +22556,23 @@
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C664" t="inlineStr">
         <is>
-          <t>Non-Oil Exports YoYDEC</t>
+          <t>Bundesbank Nagel Speech</t>
         </is>
       </c>
       <c r="D664" t="inlineStr"/>
-      <c r="E664" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="F664" t="inlineStr">
-        <is>
-          <t>6.2%</t>
-        </is>
-      </c>
-      <c r="G664" t="inlineStr">
-        <is>
-          <t>7.5%</t>
-        </is>
-      </c>
+      <c r="E664" t="inlineStr"/>
+      <c r="F664" t="inlineStr"/>
+      <c r="G664" t="inlineStr"/>
       <c r="H664" t="inlineStr">
         <is>
           <t>3</t>
@@ -22644,27 +22582,31 @@
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C665" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsJAN</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D665" t="inlineStr"/>
       <c r="E665" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>€5628M</t>
         </is>
       </c>
       <c r="F665" t="inlineStr"/>
-      <c r="G665" t="inlineStr"/>
+      <c r="G665" t="inlineStr">
+        <is>
+          <t>€2900.0M</t>
+        </is>
+      </c>
       <c r="H665" t="inlineStr">
         <is>
           <t>3</t>
@@ -22674,65 +22616,53 @@
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C666" t="inlineStr">
         <is>
-          <t>House Price Index YoYDEC</t>
+          <t>ECB Cipollone Speech</t>
         </is>
       </c>
       <c r="D666" t="inlineStr"/>
-      <c r="E666" t="inlineStr">
-        <is>
-          <t>-5.7%</t>
-        </is>
-      </c>
+      <c r="E666" t="inlineStr"/>
       <c r="F666" t="inlineStr"/>
-      <c r="G666" t="inlineStr">
-        <is>
-          <t>-5.8%</t>
-        </is>
-      </c>
+      <c r="G666" t="inlineStr"/>
       <c r="H666" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C667" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Bank Loan Growth YoYJAN/03</t>
         </is>
       </c>
       <c r="D667" t="inlineStr"/>
       <c r="E667" t="inlineStr">
         <is>
-          <t>$6.52B</t>
+          <t>11.5%</t>
         </is>
       </c>
       <c r="F667" t="inlineStr"/>
-      <c r="G667" t="inlineStr">
-        <is>
-          <t>$ 3.6B</t>
-        </is>
-      </c>
+      <c r="G667" t="inlineStr"/>
       <c r="H667" t="inlineStr">
         <is>
           <t>3</t>
@@ -22742,385 +22672,365 @@
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C668" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoYQ4</t>
+          <t>Deposit Growth YoYJAN/03</t>
         </is>
       </c>
       <c r="D668" t="inlineStr"/>
       <c r="E668" t="inlineStr">
         <is>
-          <t>4.6%</t>
-        </is>
-      </c>
-      <c r="F668" t="inlineStr">
-        <is>
-          <t>5.1%</t>
-        </is>
-      </c>
-      <c r="G668" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
+          <t>11.5%</t>
+        </is>
+      </c>
+      <c r="F668" t="inlineStr"/>
+      <c r="G668" t="inlineStr"/>
       <c r="H668" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C669" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Foreign Exchange ReservesJAN/10</t>
         </is>
       </c>
       <c r="D669" t="inlineStr"/>
       <c r="E669" t="inlineStr">
         <is>
-          <t>5.4%</t>
-        </is>
-      </c>
-      <c r="F669" t="inlineStr">
-        <is>
-          <t>5.4%</t>
-        </is>
-      </c>
-      <c r="G669" t="inlineStr">
-        <is>
-          <t>5.5%</t>
-        </is>
-      </c>
+          <t>$634.59B</t>
+        </is>
+      </c>
+      <c r="F669" t="inlineStr"/>
+      <c r="G669" t="inlineStr"/>
       <c r="H669" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C670" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Foreign Securities PurchasesNOV</t>
         </is>
       </c>
       <c r="D670" t="inlineStr"/>
       <c r="E670" t="inlineStr">
         <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="F670" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
-      <c r="G670" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
+          <t>C$21.55B</t>
+        </is>
+      </c>
+      <c r="F670" t="inlineStr"/>
+      <c r="G670" t="inlineStr"/>
       <c r="H670" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C671" t="inlineStr">
         <is>
-          <t>Fixed Asset Investment (YTD) YoYDEC</t>
+          <t>Foreign Securities Purchases by CanadiansNOV</t>
         </is>
       </c>
       <c r="D671" t="inlineStr"/>
       <c r="E671" t="inlineStr">
         <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="F671" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="G671" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
+          <t>C$-2.65B</t>
+        </is>
+      </c>
+      <c r="F671" t="inlineStr"/>
+      <c r="G671" t="inlineStr"/>
       <c r="H671" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C672" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQQ4</t>
+          <t>Building Permits PrelDEC</t>
         </is>
       </c>
       <c r="D672" t="inlineStr"/>
       <c r="E672" t="inlineStr">
         <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="F672" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
+          <t>1.493M</t>
+        </is>
+      </c>
+      <c r="F672" t="inlineStr"/>
       <c r="G672" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>1.48M</t>
         </is>
       </c>
       <c r="H672" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C673" t="inlineStr">
         <is>
-          <t>Industrial Capacity UtilizationQ4</t>
+          <t>Housing StartsDEC</t>
         </is>
       </c>
       <c r="D673" t="inlineStr"/>
       <c r="E673" t="inlineStr">
         <is>
-          <t>75.1%</t>
-        </is>
-      </c>
-      <c r="F673" t="inlineStr"/>
+          <t>1.289M</t>
+        </is>
+      </c>
+      <c r="F673" t="inlineStr">
+        <is>
+          <t>1.31M</t>
+        </is>
+      </c>
       <c r="G673" t="inlineStr">
         <is>
-          <t>75.3%</t>
+          <t>1.32M</t>
         </is>
       </c>
       <c r="H673" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C674" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Building Permits MoM PrelDEC</t>
         </is>
       </c>
       <c r="D674" t="inlineStr"/>
       <c r="E674" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="F674" t="inlineStr"/>
       <c r="G674" t="inlineStr">
         <is>
-          <t>5.00%</t>
+          <t>-0.9%</t>
         </is>
       </c>
       <c r="H674" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C675" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Housing Starts MoMDEC</t>
         </is>
       </c>
       <c r="D675" t="inlineStr"/>
       <c r="E675" t="inlineStr">
         <is>
-          <t>0.2402%</t>
+          <t>-1.8%</t>
         </is>
       </c>
       <c r="F675" t="inlineStr"/>
-      <c r="G675" t="inlineStr"/>
+      <c r="G675" t="inlineStr">
+        <is>
+          <t>2%</t>
+        </is>
+      </c>
       <c r="H675" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C676" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D676" t="inlineStr"/>
       <c r="E676" t="inlineStr">
         <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="F676" t="inlineStr">
+        <is>
           <t>0.2%</t>
         </is>
       </c>
-      <c r="F676" t="inlineStr"/>
       <c r="G676" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="H676" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C677" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Capacity UtilizationDEC</t>
         </is>
       </c>
       <c r="D677" t="inlineStr"/>
       <c r="E677" t="inlineStr">
         <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="F677" t="inlineStr"/>
+          <t>76.8%</t>
+        </is>
+      </c>
+      <c r="F677" t="inlineStr">
+        <is>
+          <t>77.6%</t>
+        </is>
+      </c>
       <c r="G677" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>76.9%</t>
         </is>
       </c>
       <c r="H677" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C678" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel MoMDEC</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D678" t="inlineStr"/>
       <c r="E678" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>-0.9%</t>
         </is>
       </c>
       <c r="F678" t="inlineStr"/>
       <c r="G678" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="H678" t="inlineStr">
@@ -23132,29 +23042,29 @@
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C679" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel YoYDEC</t>
+          <t>Manufacturing Production MoMDEC</t>
         </is>
       </c>
       <c r="D679" t="inlineStr"/>
       <c r="E679" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F679" t="inlineStr"/>
       <c r="G679" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H679" t="inlineStr">
@@ -23166,29 +23076,29 @@
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C680" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Manufacturing Production YoYDEC</t>
         </is>
       </c>
       <c r="D680" t="inlineStr"/>
       <c r="E680" t="inlineStr">
         <is>
-          <t>€32B</t>
+          <t>-1%</t>
         </is>
       </c>
       <c r="F680" t="inlineStr"/>
       <c r="G680" t="inlineStr">
         <is>
-          <t>€33.0B</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="H680" t="inlineStr">
@@ -23200,25 +23110,21 @@
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C681" t="inlineStr">
         <is>
-          <t>Current Account s.aNOV</t>
+          <t>Baker Hughes Oil Rig CountJAN/17</t>
         </is>
       </c>
       <c r="D681" t="inlineStr"/>
-      <c r="E681" t="inlineStr">
-        <is>
-          <t>€33.5B</t>
-        </is>
-      </c>
+      <c r="E681" t="inlineStr"/>
       <c r="F681" t="inlineStr"/>
       <c r="G681" t="inlineStr"/>
       <c r="H681" t="inlineStr">
@@ -23230,183 +23136,123 @@
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C682" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Baker Hughes Total Rigs CountJAN/17</t>
         </is>
       </c>
       <c r="D682" t="inlineStr"/>
-      <c r="E682" t="inlineStr">
-        <is>
-          <t>€-3.93B</t>
-        </is>
-      </c>
+      <c r="E682" t="inlineStr"/>
       <c r="F682" t="inlineStr"/>
-      <c r="G682" t="inlineStr">
-        <is>
-          <t>€-4.2B</t>
-        </is>
-      </c>
+      <c r="G682" t="inlineStr"/>
       <c r="H682" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="683">
-      <c r="A683" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
+      <c r="A683" t="inlineStr"/>
       <c r="B683" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C683" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FinalDEC</t>
+          <t>50-Year KTB Auction</t>
         </is>
       </c>
       <c r="D683" t="inlineStr"/>
       <c r="E683" t="inlineStr">
         <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="F683" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="G683" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
+          <t>2.40%</t>
+        </is>
+      </c>
+      <c r="F683" t="inlineStr"/>
+      <c r="G683" t="inlineStr"/>
       <c r="H683" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B684" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C684" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate YoY FinalDEC</t>
-        </is>
-      </c>
+          <t>Saturday January 18 2025</t>
+        </is>
+      </c>
+      <c r="B684" t="inlineStr"/>
+      <c r="C684" t="inlineStr"/>
       <c r="D684" t="inlineStr"/>
-      <c r="E684" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="F684" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="G684" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="H684" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="E684" t="inlineStr"/>
+      <c r="F684" t="inlineStr"/>
+      <c r="G684" t="inlineStr"/>
+      <c r="H684" t="inlineStr"/>
     </row>
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C685" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FinalDEC</t>
+          <t>Net Long-term TIC FlowsNOV</t>
         </is>
       </c>
       <c r="D685" t="inlineStr"/>
       <c r="E685" t="inlineStr">
         <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F685" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G685" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>$152.3B</t>
+        </is>
+      </c>
+      <c r="F685" t="inlineStr"/>
+      <c r="G685" t="inlineStr"/>
       <c r="H685" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C686" t="inlineStr">
         <is>
-          <t>CPI FinalDEC</t>
+          <t>Foreign Bond InvestmentNOV</t>
         </is>
       </c>
       <c r="D686" t="inlineStr"/>
       <c r="E686" t="inlineStr">
         <is>
-          <t>126.62</t>
-        </is>
-      </c>
-      <c r="F686" t="inlineStr">
-        <is>
-          <t>127.08</t>
-        </is>
-      </c>
-      <c r="G686" t="inlineStr">
-        <is>
-          <t>127.08</t>
-        </is>
-      </c>
+          <t>$92.1B</t>
+        </is>
+      </c>
+      <c r="F686" t="inlineStr"/>
+      <c r="G686" t="inlineStr"/>
       <c r="H686" t="inlineStr">
         <is>
           <t>3</t>
@@ -23416,21 +23262,25 @@
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C687" t="inlineStr">
         <is>
-          <t>Bundesbank Nagel Speech</t>
+          <t>Overall Net Capital FlowsNOV</t>
         </is>
       </c>
       <c r="D687" t="inlineStr"/>
-      <c r="E687" t="inlineStr"/>
+      <c r="E687" t="inlineStr">
+        <is>
+          <t>$203.6B</t>
+        </is>
+      </c>
       <c r="F687" t="inlineStr"/>
       <c r="G687" t="inlineStr"/>
       <c r="H687" t="inlineStr">
@@ -23442,173 +23292,165 @@
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B688" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C688" t="inlineStr">
-        <is>
-          <t>Current AccountNOV</t>
-        </is>
-      </c>
+          <t>Monday January 20 2025</t>
+        </is>
+      </c>
+      <c r="B688" t="inlineStr"/>
+      <c r="C688" t="inlineStr"/>
       <c r="D688" t="inlineStr"/>
-      <c r="E688" t="inlineStr">
-        <is>
-          <t>€5628M</t>
-        </is>
-      </c>
+      <c r="E688" t="inlineStr"/>
       <c r="F688" t="inlineStr"/>
-      <c r="G688" t="inlineStr">
-        <is>
-          <t>€2900.0M</t>
-        </is>
-      </c>
-      <c r="H688" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G688" t="inlineStr"/>
+      <c r="H688" t="inlineStr"/>
     </row>
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C689" t="inlineStr">
         <is>
-          <t>ECB Cipollone Speech</t>
+          <t>Machinery Orders MoMNOV</t>
         </is>
       </c>
       <c r="D689" t="inlineStr"/>
-      <c r="E689" t="inlineStr"/>
+      <c r="E689" t="inlineStr">
+        <is>
+          <t>2.1%</t>
+        </is>
+      </c>
       <c r="F689" t="inlineStr"/>
-      <c r="G689" t="inlineStr"/>
+      <c r="G689" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H689" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C690" t="inlineStr">
         <is>
-          <t>Bank Loan Growth YoYJAN/03</t>
+          <t>Machinery Orders YoYNOV</t>
         </is>
       </c>
       <c r="D690" t="inlineStr"/>
       <c r="E690" t="inlineStr">
         <is>
-          <t>11.5%</t>
+          <t>5.6%</t>
         </is>
       </c>
       <c r="F690" t="inlineStr"/>
-      <c r="G690" t="inlineStr"/>
+      <c r="G690" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
       <c r="H690" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>06:45 AM</t>
         </is>
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C691" t="inlineStr">
         <is>
-          <t>Deposit Growth YoYJAN/03</t>
+          <t>Loan Prime Rate 1Y</t>
         </is>
       </c>
       <c r="D691" t="inlineStr"/>
       <c r="E691" t="inlineStr">
         <is>
-          <t>11.5%</t>
+          <t>3.1%</t>
         </is>
       </c>
       <c r="F691" t="inlineStr"/>
       <c r="G691" t="inlineStr"/>
       <c r="H691" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>06:45 AM</t>
         </is>
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C692" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/10</t>
+          <t>Loan Prime Rate 5YJAN</t>
         </is>
       </c>
       <c r="D692" t="inlineStr"/>
       <c r="E692" t="inlineStr">
         <is>
-          <t>$634.59B</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="F692" t="inlineStr"/>
       <c r="G692" t="inlineStr"/>
       <c r="H692" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C693" t="inlineStr">
         <is>
-          <t>Foreign Securities PurchasesNOV</t>
+          <t>Capacity Utilization MoMNOV</t>
         </is>
       </c>
       <c r="D693" t="inlineStr"/>
       <c r="E693" t="inlineStr">
         <is>
-          <t>C$21.55B</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F693" t="inlineStr"/>
@@ -23622,27 +23464,35 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C694" t="inlineStr">
         <is>
-          <t>Foreign Securities Purchases by CanadiansNOV</t>
+          <t>Industrial Production MoM FinalNOV</t>
         </is>
       </c>
       <c r="D694" t="inlineStr"/>
       <c r="E694" t="inlineStr">
         <is>
-          <t>C$-2.65B</t>
-        </is>
-      </c>
-      <c r="F694" t="inlineStr"/>
-      <c r="G694" t="inlineStr"/>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="F694" t="inlineStr">
+        <is>
+          <t>-2.3%</t>
+        </is>
+      </c>
+      <c r="G694" t="inlineStr">
+        <is>
+          <t>-2.3%</t>
+        </is>
+      </c>
       <c r="H694" t="inlineStr">
         <is>
           <t>3</t>
@@ -23652,101 +23502,93 @@
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C695" t="inlineStr">
         <is>
-          <t>Building Permits PrelDEC</t>
+          <t>Industrial Production YoY FinalNOV</t>
         </is>
       </c>
       <c r="D695" t="inlineStr"/>
       <c r="E695" t="inlineStr">
         <is>
-          <t>1.493M</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F695" t="inlineStr"/>
       <c r="G695" t="inlineStr">
         <is>
-          <t>1.48M</t>
+          <t>-2.8%</t>
         </is>
       </c>
       <c r="H695" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C696" t="inlineStr">
         <is>
-          <t>Housing StartsDEC</t>
+          <t>Tertiary Industry Index MoMNOV</t>
         </is>
       </c>
       <c r="D696" t="inlineStr"/>
       <c r="E696" t="inlineStr">
         <is>
-          <t>1.289M</t>
-        </is>
-      </c>
-      <c r="F696" t="inlineStr">
-        <is>
-          <t>1.31M</t>
-        </is>
-      </c>
-      <c r="G696" t="inlineStr">
-        <is>
-          <t>1.32M</t>
-        </is>
-      </c>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F696" t="inlineStr"/>
+      <c r="G696" t="inlineStr"/>
       <c r="H696" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C697" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelDEC</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D697" t="inlineStr"/>
       <c r="E697" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F697" t="inlineStr"/>
       <c r="G697" t="inlineStr">
         <is>
-          <t>-0.9%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H697" t="inlineStr">
@@ -23758,107 +23600,95 @@
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C698" t="inlineStr">
         <is>
-          <t>Housing Starts MoMDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D698" t="inlineStr"/>
       <c r="E698" t="inlineStr">
         <is>
-          <t>-1.8%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F698" t="inlineStr"/>
       <c r="G698" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="H698" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>02:45 PM</t>
         </is>
       </c>
       <c r="B699" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C699" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>Construction Output YoYNOV</t>
         </is>
       </c>
       <c r="D699" t="inlineStr"/>
       <c r="E699" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F699" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>3.4%</t>
+        </is>
+      </c>
+      <c r="F699" t="inlineStr"/>
       <c r="G699" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H699" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B700" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C700" t="inlineStr">
         <is>
-          <t>Capacity UtilizationDEC</t>
+          <t>Construction Output YoYNOV</t>
         </is>
       </c>
       <c r="D700" t="inlineStr"/>
       <c r="E700" t="inlineStr">
         <is>
-          <t>76.8%</t>
-        </is>
-      </c>
-      <c r="F700" t="inlineStr">
-        <is>
-          <t>77.6%</t>
-        </is>
-      </c>
-      <c r="G700" t="inlineStr">
-        <is>
-          <t>76.9%</t>
-        </is>
-      </c>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="F700" t="inlineStr"/>
+      <c r="G700" t="inlineStr"/>
       <c r="H700" t="inlineStr">
         <is>
           <t>3</t>
@@ -23868,31 +23698,23 @@
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B701" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C701" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>3-Month Bubill Auction</t>
         </is>
       </c>
       <c r="D701" t="inlineStr"/>
-      <c r="E701" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
+      <c r="E701" t="inlineStr"/>
       <c r="F701" t="inlineStr"/>
-      <c r="G701" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
+      <c r="G701" t="inlineStr"/>
       <c r="H701" t="inlineStr">
         <is>
           <t>3</t>
@@ -23902,31 +23724,23 @@
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B702" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C702" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMDEC</t>
+          <t>9-Month Bubill Auction</t>
         </is>
       </c>
       <c r="D702" t="inlineStr"/>
-      <c r="E702" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E702" t="inlineStr"/>
       <c r="F702" t="inlineStr"/>
-      <c r="G702" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G702" t="inlineStr"/>
       <c r="H702" t="inlineStr">
         <is>
           <t>3</t>
@@ -23936,31 +23750,27 @@
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C703" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYDEC</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D703" t="inlineStr"/>
       <c r="E703" t="inlineStr">
         <is>
-          <t>-1%</t>
+          <t>$9.1B</t>
         </is>
       </c>
       <c r="F703" t="inlineStr"/>
-      <c r="G703" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="G703" t="inlineStr"/>
       <c r="H703" t="inlineStr">
         <is>
           <t>3</t>
@@ -23970,23 +23780,31 @@
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C704" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/17</t>
+          <t>Current AccountQ4</t>
         </is>
       </c>
       <c r="D704" t="inlineStr"/>
-      <c r="E704" t="inlineStr"/>
+      <c r="E704" t="inlineStr">
+        <is>
+          <t>$9.1B</t>
+        </is>
+      </c>
       <c r="F704" t="inlineStr"/>
-      <c r="G704" t="inlineStr"/>
+      <c r="G704" t="inlineStr">
+        <is>
+          <t>$ 10B</t>
+        </is>
+      </c>
       <c r="H704" t="inlineStr">
         <is>
           <t>3</t>
@@ -23994,19 +23812,15 @@
       </c>
     </row>
     <row r="705">
-      <c r="A705" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
+      <c r="A705" t="inlineStr"/>
       <c r="B705" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C705" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/17</t>
+          <t>Eurogroup Meeting</t>
         </is>
       </c>
       <c r="D705" t="inlineStr"/>
@@ -24028,13 +23842,13 @@
       </c>
       <c r="C706" t="inlineStr">
         <is>
-          <t>50-Year KTB Auction</t>
+          <t>10-Year KTB Auction</t>
         </is>
       </c>
       <c r="D706" t="inlineStr"/>
       <c r="E706" t="inlineStr">
         <is>
-          <t>2.40%</t>
+          <t>2.665%</t>
         </is>
       </c>
       <c r="F706" t="inlineStr"/>
@@ -24046,662 +23860,52 @@
       </c>
     </row>
     <row r="707">
-      <c r="A707" t="inlineStr">
-        <is>
-          <t>Saturday January 18 2025</t>
-        </is>
-      </c>
-      <c r="B707" t="inlineStr"/>
-      <c r="C707" t="inlineStr"/>
+      <c r="A707" t="inlineStr"/>
+      <c r="B707" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="C707" t="inlineStr">
+        <is>
+          <t>FDI (YTD) YoYDEC</t>
+        </is>
+      </c>
       <c r="D707" t="inlineStr"/>
-      <c r="E707" t="inlineStr"/>
+      <c r="E707" t="inlineStr">
+        <is>
+          <t>-27.9%</t>
+        </is>
+      </c>
       <c r="F707" t="inlineStr"/>
       <c r="G707" t="inlineStr"/>
-      <c r="H707" t="inlineStr"/>
+      <c r="H707" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="708">
-      <c r="A708" t="inlineStr">
-        <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
+      <c r="A708" t="inlineStr"/>
       <c r="B708" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C708" t="inlineStr">
         <is>
-          <t>Net Long-term TIC FlowsNOV</t>
+          <t>Consumer ConfidenceDEC</t>
         </is>
       </c>
       <c r="D708" t="inlineStr"/>
-      <c r="E708" t="inlineStr">
-        <is>
-          <t>$152.3B</t>
-        </is>
-      </c>
+      <c r="E708" t="inlineStr"/>
       <c r="F708" t="inlineStr"/>
-      <c r="G708" t="inlineStr"/>
+      <c r="G708" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
       <c r="H708" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="709">
-      <c r="A709" t="inlineStr">
-        <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
-      <c r="B709" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C709" t="inlineStr">
-        <is>
-          <t>Foreign Bond InvestmentNOV</t>
-        </is>
-      </c>
-      <c r="D709" t="inlineStr"/>
-      <c r="E709" t="inlineStr">
-        <is>
-          <t>$92.1B</t>
-        </is>
-      </c>
-      <c r="F709" t="inlineStr"/>
-      <c r="G709" t="inlineStr"/>
-      <c r="H709" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="710">
-      <c r="A710" t="inlineStr">
-        <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
-      <c r="B710" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C710" t="inlineStr">
-        <is>
-          <t>Overall Net Capital FlowsNOV</t>
-        </is>
-      </c>
-      <c r="D710" t="inlineStr"/>
-      <c r="E710" t="inlineStr">
-        <is>
-          <t>$203.6B</t>
-        </is>
-      </c>
-      <c r="F710" t="inlineStr"/>
-      <c r="G710" t="inlineStr"/>
-      <c r="H710" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="711">
-      <c r="A711" t="inlineStr">
-        <is>
-          <t>Monday January 20 2025</t>
-        </is>
-      </c>
-      <c r="B711" t="inlineStr"/>
-      <c r="C711" t="inlineStr"/>
-      <c r="D711" t="inlineStr"/>
-      <c r="E711" t="inlineStr"/>
-      <c r="F711" t="inlineStr"/>
-      <c r="G711" t="inlineStr"/>
-      <c r="H711" t="inlineStr"/>
-    </row>
-    <row r="712">
-      <c r="A712" t="inlineStr">
-        <is>
-          <t>05:20 AM</t>
-        </is>
-      </c>
-      <c r="B712" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C712" t="inlineStr">
-        <is>
-          <t>Machinery Orders MoMNOV</t>
-        </is>
-      </c>
-      <c r="D712" t="inlineStr"/>
-      <c r="E712" t="inlineStr">
-        <is>
-          <t>2.1%</t>
-        </is>
-      </c>
-      <c r="F712" t="inlineStr"/>
-      <c r="G712" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H712" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="713">
-      <c r="A713" t="inlineStr">
-        <is>
-          <t>05:20 AM</t>
-        </is>
-      </c>
-      <c r="B713" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C713" t="inlineStr">
-        <is>
-          <t>Machinery Orders YoYNOV</t>
-        </is>
-      </c>
-      <c r="D713" t="inlineStr"/>
-      <c r="E713" t="inlineStr">
-        <is>
-          <t>5.6%</t>
-        </is>
-      </c>
-      <c r="F713" t="inlineStr"/>
-      <c r="G713" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
-      <c r="H713" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="714">
-      <c r="A714" t="inlineStr">
-        <is>
-          <t>06:45 AM</t>
-        </is>
-      </c>
-      <c r="B714" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C714" t="inlineStr">
-        <is>
-          <t>Loan Prime Rate 1Y</t>
-        </is>
-      </c>
-      <c r="D714" t="inlineStr"/>
-      <c r="E714" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="F714" t="inlineStr"/>
-      <c r="G714" t="inlineStr"/>
-      <c r="H714" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="715">
-      <c r="A715" t="inlineStr">
-        <is>
-          <t>06:45 AM</t>
-        </is>
-      </c>
-      <c r="B715" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C715" t="inlineStr">
-        <is>
-          <t>Loan Prime Rate 5YJAN</t>
-        </is>
-      </c>
-      <c r="D715" t="inlineStr"/>
-      <c r="E715" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="F715" t="inlineStr"/>
-      <c r="G715" t="inlineStr"/>
-      <c r="H715" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="716">
-      <c r="A716" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B716" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C716" t="inlineStr">
-        <is>
-          <t>Capacity Utilization MoMNOV</t>
-        </is>
-      </c>
-      <c r="D716" t="inlineStr"/>
-      <c r="E716" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="F716" t="inlineStr"/>
-      <c r="G716" t="inlineStr"/>
-      <c r="H716" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="717">
-      <c r="A717" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B717" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C717" t="inlineStr">
-        <is>
-          <t>Industrial Production MoM FinalNOV</t>
-        </is>
-      </c>
-      <c r="D717" t="inlineStr"/>
-      <c r="E717" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F717" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
-      <c r="G717" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
-      <c r="H717" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="718">
-      <c r="A718" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B718" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C718" t="inlineStr">
-        <is>
-          <t>Industrial Production YoY FinalNOV</t>
-        </is>
-      </c>
-      <c r="D718" t="inlineStr"/>
-      <c r="E718" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="F718" t="inlineStr"/>
-      <c r="G718" t="inlineStr">
-        <is>
-          <t>-2.8%</t>
-        </is>
-      </c>
-      <c r="H718" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="719">
-      <c r="A719" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B719" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C719" t="inlineStr">
-        <is>
-          <t>Tertiary Industry Index MoMNOV</t>
-        </is>
-      </c>
-      <c r="D719" t="inlineStr"/>
-      <c r="E719" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F719" t="inlineStr"/>
-      <c r="G719" t="inlineStr"/>
-      <c r="H719" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="720">
-      <c r="A720" t="inlineStr">
-        <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
-      <c r="B720" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C720" t="inlineStr">
-        <is>
-          <t>PPI MoMDEC</t>
-        </is>
-      </c>
-      <c r="D720" t="inlineStr"/>
-      <c r="E720" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="F720" t="inlineStr"/>
-      <c r="G720" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H720" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="721">
-      <c r="A721" t="inlineStr">
-        <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
-      <c r="B721" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C721" t="inlineStr">
-        <is>
-          <t>PPI YoYDEC</t>
-        </is>
-      </c>
-      <c r="D721" t="inlineStr"/>
-      <c r="E721" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F721" t="inlineStr"/>
-      <c r="G721" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
-      <c r="H721" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="722">
-      <c r="A722" t="inlineStr">
-        <is>
-          <t>02:45 PM</t>
-        </is>
-      </c>
-      <c r="B722" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C722" t="inlineStr">
-        <is>
-          <t>Construction Output YoYNOV</t>
-        </is>
-      </c>
-      <c r="D722" t="inlineStr"/>
-      <c r="E722" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="F722" t="inlineStr"/>
-      <c r="G722" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="H722" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="723">
-      <c r="A723" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B723" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C723" t="inlineStr">
-        <is>
-          <t>Construction Output YoYNOV</t>
-        </is>
-      </c>
-      <c r="D723" t="inlineStr"/>
-      <c r="E723" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F723" t="inlineStr"/>
-      <c r="G723" t="inlineStr"/>
-      <c r="H723" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="724">
-      <c r="A724" t="inlineStr">
-        <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
-      <c r="B724" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C724" t="inlineStr">
-        <is>
-          <t>3-Month Bubill Auction</t>
-        </is>
-      </c>
-      <c r="D724" t="inlineStr"/>
-      <c r="E724" t="inlineStr"/>
-      <c r="F724" t="inlineStr"/>
-      <c r="G724" t="inlineStr"/>
-      <c r="H724" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="725">
-      <c r="A725" t="inlineStr">
-        <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
-      <c r="B725" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C725" t="inlineStr">
-        <is>
-          <t>9-Month Bubill Auction</t>
-        </is>
-      </c>
-      <c r="D725" t="inlineStr"/>
-      <c r="E725" t="inlineStr"/>
-      <c r="F725" t="inlineStr"/>
-      <c r="G725" t="inlineStr"/>
-      <c r="H725" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="726">
-      <c r="A726" t="inlineStr"/>
-      <c r="B726" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C726" t="inlineStr">
-        <is>
-          <t>Eurogroup Meeting</t>
-        </is>
-      </c>
-      <c r="D726" t="inlineStr"/>
-      <c r="E726" t="inlineStr"/>
-      <c r="F726" t="inlineStr"/>
-      <c r="G726" t="inlineStr"/>
-      <c r="H726" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="727">
-      <c r="A727" t="inlineStr"/>
-      <c r="B727" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C727" t="inlineStr">
-        <is>
-          <t>10-Year KTB Auction</t>
-        </is>
-      </c>
-      <c r="D727" t="inlineStr"/>
-      <c r="E727" t="inlineStr">
-        <is>
-          <t>2.665%</t>
-        </is>
-      </c>
-      <c r="F727" t="inlineStr"/>
-      <c r="G727" t="inlineStr"/>
-      <c r="H727" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="728">
-      <c r="A728" t="inlineStr"/>
-      <c r="B728" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C728" t="inlineStr">
-        <is>
-          <t>FDI (YTD) YoYDEC</t>
-        </is>
-      </c>
-      <c r="D728" t="inlineStr"/>
-      <c r="E728" t="inlineStr">
-        <is>
-          <t>-27.9%</t>
-        </is>
-      </c>
-      <c r="F728" t="inlineStr"/>
-      <c r="G728" t="inlineStr"/>
-      <c r="H728" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="729">
-      <c r="A729" t="inlineStr"/>
-      <c r="B729" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C729" t="inlineStr">
-        <is>
-          <t>Consumer ConfidenceDEC</t>
-        </is>
-      </c>
-      <c r="D729" t="inlineStr"/>
-      <c r="E729" t="inlineStr"/>
-      <c r="F729" t="inlineStr"/>
-      <c r="G729" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
-      </c>
-      <c r="H729" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-20.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H752"/>
+  <dimension ref="A1:H730"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17073,10 +17073,8 @@
       <c r="E485" t="inlineStr"/>
       <c r="F485" t="inlineStr"/>
       <c r="G485" t="inlineStr"/>
-      <c r="H485" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H485" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="486">
@@ -17107,10 +17105,8 @@
           <t>€-162.0B</t>
         </is>
       </c>
-      <c r="H486" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H486" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="487">
@@ -17133,10 +17129,8 @@
       <c r="E487" t="inlineStr"/>
       <c r="F487" t="inlineStr"/>
       <c r="G487" t="inlineStr"/>
-      <c r="H487" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H487" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="488">
@@ -17171,10 +17165,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H488" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H488" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="489">
@@ -17205,10 +17197,8 @@
           <t>-3.3%</t>
         </is>
       </c>
-      <c r="H489" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H489" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="490">
@@ -17235,10 +17225,8 @@
       </c>
       <c r="F490" t="inlineStr"/>
       <c r="G490" t="inlineStr"/>
-      <c r="H490" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H490" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="491">
@@ -17265,10 +17253,8 @@
       </c>
       <c r="F491" t="inlineStr"/>
       <c r="G491" t="inlineStr"/>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H491" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="492">
@@ -17295,10 +17281,8 @@
       </c>
       <c r="F492" t="inlineStr"/>
       <c r="G492" t="inlineStr"/>
-      <c r="H492" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H492" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="493">
@@ -17325,10 +17309,8 @@
       </c>
       <c r="F493" t="inlineStr"/>
       <c r="G493" t="inlineStr"/>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H493" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="494">
@@ -17351,10 +17333,8 @@
       <c r="E494" t="inlineStr"/>
       <c r="F494" t="inlineStr"/>
       <c r="G494" t="inlineStr"/>
-      <c r="H494" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H494" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="495">
@@ -17389,10 +17369,8 @@
           <t>102</t>
         </is>
       </c>
-      <c r="H495" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H495" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="496">
@@ -17427,10 +17405,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H496" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="497">
@@ -17465,10 +17441,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H497" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H497" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="498">
@@ -17503,10 +17477,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H498" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H498" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="499">
@@ -17537,10 +17509,8 @@
           <t>146.8</t>
         </is>
       </c>
-      <c r="H499" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H499" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="500">
@@ -17571,10 +17541,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H500" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H500" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="501">
@@ -17605,10 +17573,8 @@
           <t>3.5%</t>
         </is>
       </c>
-      <c r="H501" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H501" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="502">
@@ -17643,10 +17609,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H502" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H502" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="503">
@@ -17673,10 +17637,8 @@
       </c>
       <c r="F503" t="inlineStr"/>
       <c r="G503" t="inlineStr"/>
-      <c r="H503" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H503" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="504">
@@ -17699,10 +17661,8 @@
       <c r="E504" t="inlineStr"/>
       <c r="F504" t="inlineStr"/>
       <c r="G504" t="inlineStr"/>
-      <c r="H504" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H504" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="505">
@@ -17737,10 +17697,8 @@
           <t>54.2</t>
         </is>
       </c>
-      <c r="H505" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H505" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="506">
@@ -17767,10 +17725,8 @@
       </c>
       <c r="F506" t="inlineStr"/>
       <c r="G506" t="inlineStr"/>
-      <c r="H506" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H506" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="507">
@@ -17793,10 +17749,8 @@
       </c>
       <c r="F507" t="inlineStr"/>
       <c r="G507" t="inlineStr"/>
-      <c r="H507" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H507" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="508">
@@ -17841,10 +17795,8 @@
           <t>2.0%</t>
         </is>
       </c>
-      <c r="H509" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H509" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="510">
@@ -17875,10 +17827,8 @@
           <t>116.0%</t>
         </is>
       </c>
-      <c r="H510" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H510" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="511">
@@ -17901,10 +17851,8 @@
       <c r="E511" t="inlineStr"/>
       <c r="F511" t="inlineStr"/>
       <c r="G511" t="inlineStr"/>
-      <c r="H511" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H511" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="512">
@@ -17935,10 +17883,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H512" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H512" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="513">
@@ -17969,10 +17915,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H513" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H513" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="514">
@@ -17999,10 +17943,8 @@
       </c>
       <c r="F514" t="inlineStr"/>
       <c r="G514" t="inlineStr"/>
-      <c r="H514" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H514" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="515">
@@ -18033,10 +17975,8 @@
           <t>3</t>
         </is>
       </c>
-      <c r="H515" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H515" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="516">
@@ -18059,10 +17999,8 @@
       <c r="E516" t="inlineStr"/>
       <c r="F516" t="inlineStr"/>
       <c r="G516" t="inlineStr"/>
-      <c r="H516" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H516" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="517">
@@ -18097,10 +18035,8 @@
           <t>$ 2.8B</t>
         </is>
       </c>
-      <c r="H517" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H517" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="518">
@@ -18131,10 +18067,8 @@
         </is>
       </c>
       <c r="G518" t="inlineStr"/>
-      <c r="H518" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H518" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="519">
@@ -18165,10 +18099,8 @@
         </is>
       </c>
       <c r="G519" t="inlineStr"/>
-      <c r="H519" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H519" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="520">
@@ -18203,10 +18135,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H520" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H520" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="521">
@@ -18241,10 +18171,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H521" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H521" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="522">
@@ -18275,10 +18203,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H522" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H522" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="523">
@@ -18313,10 +18239,8 @@
           <t>2.7%</t>
         </is>
       </c>
-      <c r="H523" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H523" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="524">
@@ -18351,10 +18275,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H524" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H524" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="525">
@@ -18385,10 +18307,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H525" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H525" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="526">
@@ -18419,10 +18339,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H526" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H526" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="527">
@@ -18453,10 +18371,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H527" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H527" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="528">
@@ -18487,10 +18403,8 @@
           <t>2.1%</t>
         </is>
       </c>
-      <c r="H528" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H528" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="529">
@@ -18525,10 +18439,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H529" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H529" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="530">
@@ -18559,10 +18471,8 @@
           <t>-1%</t>
         </is>
       </c>
-      <c r="H530" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H530" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="531">
@@ -18597,10 +18507,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H531" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H531" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="532">
@@ -18631,10 +18539,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H532" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H532" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="533">
@@ -18665,10 +18571,8 @@
           <t>0.0%</t>
         </is>
       </c>
-      <c r="H533" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H533" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="534">
@@ -18703,10 +18607,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H534" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H534" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="535">
@@ -18737,10 +18639,8 @@
           <t>10%</t>
         </is>
       </c>
-      <c r="H535" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H535" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="536">
@@ -18771,10 +18671,8 @@
           <t>6%</t>
         </is>
       </c>
-      <c r="H536" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H536" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="537">
@@ -18805,10 +18703,8 @@
           <t>5.25%</t>
         </is>
       </c>
-      <c r="H537" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H537" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="538">
@@ -18839,10 +18735,8 @@
           <t>6.75%</t>
         </is>
       </c>
-      <c r="H538" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H538" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="539">
@@ -18877,10 +18771,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H539" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H539" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="540">
@@ -18915,10 +18807,8 @@
           <t>1.3%</t>
         </is>
       </c>
-      <c r="H540" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H540" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="541">
@@ -18953,10 +18843,8 @@
           <t>1.8%</t>
         </is>
       </c>
-      <c r="H541" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H541" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="542">
@@ -18991,10 +18879,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H542" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H542" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="543">
@@ -19017,10 +18903,8 @@
       <c r="E543" t="inlineStr"/>
       <c r="F543" t="inlineStr"/>
       <c r="G543" t="inlineStr"/>
-      <c r="H543" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H543" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="544">
@@ -19055,10 +18939,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H544" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H544" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="545">
@@ -19093,10 +18975,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H545" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H545" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="546">
@@ -19131,10 +19011,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H546" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H546" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="547">
@@ -19169,10 +19047,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H547" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H547" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="548">
@@ -19207,10 +19083,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H548" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H548" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="549">
@@ -19233,10 +19107,8 @@
       <c r="E549" t="inlineStr"/>
       <c r="F549" t="inlineStr"/>
       <c r="G549" t="inlineStr"/>
-      <c r="H549" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H549" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="550">
@@ -19271,10 +19143,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H550" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H550" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="551">
@@ -19309,10 +19179,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H551" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H551" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="552">
@@ -19347,10 +19215,8 @@
           <t>-1.5%</t>
         </is>
       </c>
-      <c r="H552" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H552" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="553">
@@ -19377,10 +19243,8 @@
       </c>
       <c r="F553" t="inlineStr"/>
       <c r="G553" t="inlineStr"/>
-      <c r="H553" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H553" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="554">
@@ -19407,10 +19271,8 @@
       </c>
       <c r="F554" t="inlineStr"/>
       <c r="G554" t="inlineStr"/>
-      <c r="H554" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H554" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="555">
@@ -19441,10 +19303,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H555" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H555" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="556">
@@ -19475,10 +19335,8 @@
           <t>-5.0%</t>
         </is>
       </c>
-      <c r="H556" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H556" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="557">
@@ -19505,10 +19363,8 @@
       </c>
       <c r="F557" t="inlineStr"/>
       <c r="G557" t="inlineStr"/>
-      <c r="H557" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H557" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="558">
@@ -19535,10 +19391,8 @@
       </c>
       <c r="F558" t="inlineStr"/>
       <c r="G558" t="inlineStr"/>
-      <c r="H558" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H558" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="559">
@@ -19565,10 +19419,8 @@
       </c>
       <c r="F559" t="inlineStr"/>
       <c r="G559" t="inlineStr"/>
-      <c r="H559" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H559" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="560">
@@ -19595,10 +19447,8 @@
       </c>
       <c r="F560" t="inlineStr"/>
       <c r="G560" t="inlineStr"/>
-      <c r="H560" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H560" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="561">
@@ -19625,10 +19475,8 @@
       </c>
       <c r="F561" t="inlineStr"/>
       <c r="G561" t="inlineStr"/>
-      <c r="H561" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H561" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="562">
@@ -19659,10 +19507,8 @@
           <t>$615.0B</t>
         </is>
       </c>
-      <c r="H562" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H562" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="563">
@@ -19697,10 +19543,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H563" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H563" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="564">
@@ -19727,10 +19571,8 @@
       </c>
       <c r="F564" t="inlineStr"/>
       <c r="G564" t="inlineStr"/>
-      <c r="H564" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H564" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="565">
@@ -19765,10 +19607,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H565" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H565" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="566">
@@ -19803,10 +19643,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H566" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H566" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="567">
@@ -19841,10 +19679,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H567" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H567" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="568">
@@ -19879,10 +19715,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H568" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H568" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="569">
@@ -19917,10 +19751,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H569" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H569" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="570">
@@ -19951,10 +19783,8 @@
           <t>315.6</t>
         </is>
       </c>
-      <c r="H570" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H570" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="571">
@@ -19985,10 +19815,8 @@
           <t>317.4</t>
         </is>
       </c>
-      <c r="H571" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H571" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="572">
@@ -20023,10 +19851,8 @@
           <t>0.15</t>
         </is>
       </c>
-      <c r="H572" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H572" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="573">
@@ -20049,10 +19875,8 @@
       <c r="E573" t="inlineStr"/>
       <c r="F573" t="inlineStr"/>
       <c r="G573" t="inlineStr"/>
-      <c r="H573" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H573" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="574">
@@ -20075,10 +19899,8 @@
       <c r="E574" t="inlineStr"/>
       <c r="F574" t="inlineStr"/>
       <c r="G574" t="inlineStr"/>
-      <c r="H574" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H574" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="575">
@@ -20105,10 +19927,8 @@
       </c>
       <c r="F575" t="inlineStr"/>
       <c r="G575" t="inlineStr"/>
-      <c r="H575" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H575" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="576">
@@ -20135,10 +19955,8 @@
       </c>
       <c r="F576" t="inlineStr"/>
       <c r="G576" t="inlineStr"/>
-      <c r="H576" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H576" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="577">
@@ -20165,10 +19983,8 @@
       </c>
       <c r="F577" t="inlineStr"/>
       <c r="G577" t="inlineStr"/>
-      <c r="H577" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H577" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="578">
@@ -20195,10 +20011,8 @@
       </c>
       <c r="F578" t="inlineStr"/>
       <c r="G578" t="inlineStr"/>
-      <c r="H578" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H578" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="579">
@@ -20225,10 +20039,8 @@
       </c>
       <c r="F579" t="inlineStr"/>
       <c r="G579" t="inlineStr"/>
-      <c r="H579" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H579" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="580">
@@ -20255,10 +20067,8 @@
       </c>
       <c r="F580" t="inlineStr"/>
       <c r="G580" t="inlineStr"/>
-      <c r="H580" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H580" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="581">
@@ -20285,10 +20095,8 @@
       </c>
       <c r="F581" t="inlineStr"/>
       <c r="G581" t="inlineStr"/>
-      <c r="H581" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H581" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="582">
@@ -20315,10 +20123,8 @@
       </c>
       <c r="F582" t="inlineStr"/>
       <c r="G582" t="inlineStr"/>
-      <c r="H582" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H582" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="583">
@@ -20345,10 +20151,8 @@
       </c>
       <c r="F583" t="inlineStr"/>
       <c r="G583" t="inlineStr"/>
-      <c r="H583" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H583" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="584">
@@ -20383,10 +20187,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H584" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H584" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="585">
@@ -20421,10 +20223,8 @@
           <t>9.5%</t>
         </is>
       </c>
-      <c r="H585" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H585" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="586">
@@ -20447,10 +20247,8 @@
       <c r="E586" t="inlineStr"/>
       <c r="F586" t="inlineStr"/>
       <c r="G586" t="inlineStr"/>
-      <c r="H586" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H586" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="587">
@@ -20477,10 +20275,8 @@
       </c>
       <c r="F587" t="inlineStr"/>
       <c r="G587" t="inlineStr"/>
-      <c r="H587" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H587" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="588">
@@ -20511,10 +20307,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H588" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H588" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="589">
@@ -20541,10 +20335,8 @@
       </c>
       <c r="F589" t="inlineStr"/>
       <c r="G589" t="inlineStr"/>
-      <c r="H589" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H589" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="590">
@@ -20567,10 +20359,8 @@
       <c r="E590" t="inlineStr"/>
       <c r="F590" t="inlineStr"/>
       <c r="G590" t="inlineStr"/>
-      <c r="H590" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H590" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="591">
@@ -20593,10 +20383,8 @@
       <c r="E591" t="inlineStr"/>
       <c r="F591" t="inlineStr"/>
       <c r="G591" t="inlineStr"/>
-      <c r="H591" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H591" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="592">
@@ -20619,10 +20407,8 @@
       </c>
       <c r="F592" t="inlineStr"/>
       <c r="G592" t="inlineStr"/>
-      <c r="H592" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H592" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="593">
@@ -20649,10 +20435,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H593" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H593" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="594">
@@ -20679,10 +20463,8 @@
           <t>2%</t>
         </is>
       </c>
-      <c r="H594" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H594" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="595">
@@ -20709,10 +20491,8 @@
           <t>1.0%</t>
         </is>
       </c>
-      <c r="H595" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H595" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="596">
@@ -20735,10 +20515,8 @@
       </c>
       <c r="F596" t="inlineStr"/>
       <c r="G596" t="inlineStr"/>
-      <c r="H596" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H596" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="597">
@@ -20757,10 +20535,8 @@
       <c r="E597" t="inlineStr"/>
       <c r="F597" t="inlineStr"/>
       <c r="G597" t="inlineStr"/>
-      <c r="H597" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H597" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="598">
@@ -20787,10 +20563,8 @@
           <t>$ -38.0B</t>
         </is>
       </c>
-      <c r="H598" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H598" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="599">
@@ -20817,10 +20591,8 @@
           <t>$ 32.5B</t>
         </is>
       </c>
-      <c r="H599" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H599" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="600">
@@ -20847,10 +20619,8 @@
           <t>$ 70.5B</t>
         </is>
       </c>
-      <c r="H600" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H600" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="601">
@@ -20887,10 +20657,8 @@
       <c r="E602" t="inlineStr"/>
       <c r="F602" t="inlineStr"/>
       <c r="G602" t="inlineStr"/>
-      <c r="H602" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H602" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="603">
@@ -20921,10 +20689,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H603" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H603" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="604">
@@ -20955,10 +20721,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H604" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H604" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="605">
@@ -20993,10 +20757,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H605" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H605" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="606">
@@ -21031,10 +20793,8 @@
           <t>26.0%</t>
         </is>
       </c>
-      <c r="H606" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H606" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="607">
@@ -21069,10 +20829,8 @@
           <t>3.9%</t>
         </is>
       </c>
-      <c r="H607" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H607" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="608">
@@ -21107,10 +20865,8 @@
           <t>25.1K</t>
         </is>
       </c>
-      <c r="H608" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H608" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="609">
@@ -21137,10 +20893,8 @@
       </c>
       <c r="F609" t="inlineStr"/>
       <c r="G609" t="inlineStr"/>
-      <c r="H609" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H609" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="610">
@@ -21167,10 +20921,8 @@
       </c>
       <c r="F610" t="inlineStr"/>
       <c r="G610" t="inlineStr"/>
-      <c r="H610" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H610" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="611">
@@ -21205,10 +20957,8 @@
           <t>66.8%</t>
         </is>
       </c>
-      <c r="H611" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H611" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="612">
@@ -21243,10 +20993,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H612" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H612" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="613">
@@ -21273,10 +21021,8 @@
       </c>
       <c r="F613" t="inlineStr"/>
       <c r="G613" t="inlineStr"/>
-      <c r="H613" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H613" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="614">
@@ -21303,10 +21049,8 @@
       </c>
       <c r="F614" t="inlineStr"/>
       <c r="G614" t="inlineStr"/>
-      <c r="H614" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H614" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="615">
@@ -21333,10 +21077,8 @@
       </c>
       <c r="F615" t="inlineStr"/>
       <c r="G615" t="inlineStr"/>
-      <c r="H615" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H615" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="616">
@@ -21371,10 +21113,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H616" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H616" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="617">
@@ -21409,10 +21149,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H617" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H617" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="618">
@@ -21447,10 +21185,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H618" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H618" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="619">
@@ -21485,10 +21221,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H619" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H619" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="620">
@@ -21523,10 +21257,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H620" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H620" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="621">
@@ -21557,10 +21289,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H621" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H621" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="622">
@@ -21595,10 +21325,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H622" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H622" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="623">
@@ -21633,10 +21361,8 @@
           <t>£-17.0B</t>
         </is>
       </c>
-      <c r="H623" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H623" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="624">
@@ -21667,10 +21393,8 @@
           <t>£-6.8B</t>
         </is>
       </c>
-      <c r="H624" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H624" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="625">
@@ -21705,10 +21429,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H625" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H625" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="626">
@@ -21743,10 +21465,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H626" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H626" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="627">
@@ -21777,10 +21497,8 @@
           <t>£-3.9B</t>
         </is>
       </c>
-      <c r="H627" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H627" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="628">
@@ -21811,10 +21529,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H628" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H628" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="629">
@@ -21849,10 +21565,8 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H629" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H629" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="630">
@@ -21887,10 +21601,8 @@
           <t>-0.4%</t>
         </is>
       </c>
-      <c r="H630" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H630" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="631">
@@ -21925,10 +21637,8 @@
           <t>€3.2B</t>
         </is>
       </c>
-      <c r="H631" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H631" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="632">
@@ -21963,10 +21673,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H632" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H632" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="633">
@@ -22001,10 +21709,8 @@
           <t>1.3%</t>
         </is>
       </c>
-      <c r="H633" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H633" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="634">
@@ -22039,10 +21745,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H634" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H634" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="635">
@@ -22077,10 +21781,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H635" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H635" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="636">
@@ -22103,10 +21805,8 @@
       <c r="E636" t="inlineStr"/>
       <c r="F636" t="inlineStr"/>
       <c r="G636" t="inlineStr"/>
-      <c r="H636" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H636" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="637">
@@ -22133,10 +21833,8 @@
       </c>
       <c r="F637" t="inlineStr"/>
       <c r="G637" t="inlineStr"/>
-      <c r="H637" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H637" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="638">
@@ -22159,10 +21857,8 @@
       <c r="E638" t="inlineStr"/>
       <c r="F638" t="inlineStr"/>
       <c r="G638" t="inlineStr"/>
-      <c r="H638" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H638" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="639">
@@ -22189,10 +21885,8 @@
       </c>
       <c r="F639" t="inlineStr"/>
       <c r="G639" t="inlineStr"/>
-      <c r="H639" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H639" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="640">
@@ -22223,10 +21917,8 @@
           <t>€1.8B</t>
         </is>
       </c>
-      <c r="H640" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H640" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="641">
@@ -22253,10 +21945,8 @@
       </c>
       <c r="F641" t="inlineStr"/>
       <c r="G641" t="inlineStr"/>
-      <c r="H641" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H641" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="642">
@@ -22287,10 +21977,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H642" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H642" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="643">
@@ -22313,10 +22001,8 @@
       <c r="E643" t="inlineStr"/>
       <c r="F643" t="inlineStr"/>
       <c r="G643" t="inlineStr"/>
-      <c r="H643" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H643" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="644">
@@ -22347,10 +22033,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H644" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H644" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="645">
@@ -22385,10 +22069,8 @@
           <t>240.0K</t>
         </is>
       </c>
-      <c r="H645" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H645" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="646">
@@ -22423,10 +22105,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H646" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H646" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="647">
@@ -22457,10 +22137,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H647" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H647" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="648">
@@ -22491,10 +22169,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H648" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H648" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="649">
@@ -22529,10 +22205,8 @@
           <t>209.0K</t>
         </is>
       </c>
-      <c r="H649" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H649" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="650">
@@ -22567,10 +22241,8 @@
           <t>-10</t>
         </is>
       </c>
-      <c r="H650" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H650" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="651">
@@ -22605,10 +22277,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H651" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H651" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="652">
@@ -22639,10 +22309,8 @@
           <t>1870.0K</t>
         </is>
       </c>
-      <c r="H652" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H652" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="653">
@@ -22673,10 +22341,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H653" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H653" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="654">
@@ -22707,10 +22373,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H654" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H654" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="655">
@@ -22741,10 +22405,8 @@
           <t>215.0K</t>
         </is>
       </c>
-      <c r="H655" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H655" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="656">
@@ -22771,10 +22433,8 @@
       </c>
       <c r="F656" t="inlineStr"/>
       <c r="G656" t="inlineStr"/>
-      <c r="H656" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H656" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="657">
@@ -22801,10 +22461,8 @@
       </c>
       <c r="F657" t="inlineStr"/>
       <c r="G657" t="inlineStr"/>
-      <c r="H657" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H657" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="658">
@@ -22831,10 +22489,8 @@
       </c>
       <c r="F658" t="inlineStr"/>
       <c r="G658" t="inlineStr"/>
-      <c r="H658" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H658" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="659">
@@ -22861,10 +22517,8 @@
       </c>
       <c r="F659" t="inlineStr"/>
       <c r="G659" t="inlineStr"/>
-      <c r="H659" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H659" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="660">
@@ -22891,10 +22545,8 @@
       </c>
       <c r="F660" t="inlineStr"/>
       <c r="G660" t="inlineStr"/>
-      <c r="H660" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H660" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="661">
@@ -22925,10 +22577,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H661" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H661" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="662">
@@ -22959,10 +22609,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H662" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H662" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="663">
@@ -22997,10 +22645,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H663" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H663" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="664">
@@ -23035,10 +22681,8 @@
           <t>45</t>
         </is>
       </c>
-      <c r="H664" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H664" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="665">
@@ -23073,10 +22717,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H665" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H665" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="666">
@@ -23103,10 +22745,8 @@
       </c>
       <c r="F666" t="inlineStr"/>
       <c r="G666" t="inlineStr"/>
-      <c r="H666" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H666" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="667">
@@ -23133,10 +22773,8 @@
       </c>
       <c r="F667" t="inlineStr"/>
       <c r="G667" t="inlineStr"/>
-      <c r="H667" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H667" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="668">
@@ -23163,10 +22801,8 @@
       </c>
       <c r="F668" t="inlineStr"/>
       <c r="G668" t="inlineStr"/>
-      <c r="H668" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H668" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="669">
@@ -23193,10 +22829,8 @@
       </c>
       <c r="F669" t="inlineStr"/>
       <c r="G669" t="inlineStr"/>
-      <c r="H669" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H669" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="670">
@@ -23223,10 +22857,8 @@
       </c>
       <c r="F670" t="inlineStr"/>
       <c r="G670" t="inlineStr"/>
-      <c r="H670" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H670" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="671">
@@ -23249,106 +22881,144 @@
       <c r="E671" t="inlineStr"/>
       <c r="F671" t="inlineStr"/>
       <c r="G671" t="inlineStr"/>
-      <c r="H671" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H671" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>Friday January 17 2025</t>
-        </is>
-      </c>
-      <c r="B672" t="inlineStr"/>
-      <c r="C672" t="inlineStr"/>
+          <t>02:30 PM</t>
+        </is>
+      </c>
+      <c r="B672" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="C672" t="inlineStr">
+        <is>
+          <t>Current Account s.aNOV</t>
+        </is>
+      </c>
       <c r="D672" t="inlineStr"/>
-      <c r="E672" t="inlineStr"/>
+      <c r="E672" t="inlineStr">
+        <is>
+          <t>€33.5B</t>
+        </is>
+      </c>
       <c r="F672" t="inlineStr"/>
       <c r="G672" t="inlineStr"/>
-      <c r="H672" t="inlineStr"/>
+      <c r="H672" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C673" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJAN/15</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D673" t="inlineStr"/>
-      <c r="E673" t="inlineStr"/>
+      <c r="E673" t="inlineStr">
+        <is>
+          <t>€-3.93B</t>
+        </is>
+      </c>
       <c r="F673" t="inlineStr"/>
-      <c r="G673" t="inlineStr"/>
+      <c r="G673" t="inlineStr">
+        <is>
+          <t>€-4.2B</t>
+        </is>
+      </c>
       <c r="H673" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C674" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentJAN/11</t>
+          <t>Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D674" t="inlineStr"/>
       <c r="E674" t="inlineStr">
         <is>
-          <t>¥-331.8B</t>
-        </is>
-      </c>
-      <c r="F674" t="inlineStr"/>
-      <c r="G674" t="inlineStr"/>
+          <t>2.2%</t>
+        </is>
+      </c>
+      <c r="F674" t="inlineStr">
+        <is>
+          <t>2.4%</t>
+        </is>
+      </c>
+      <c r="G674" t="inlineStr">
+        <is>
+          <t>2.4%</t>
+        </is>
+      </c>
       <c r="H674" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C675" t="inlineStr">
         <is>
-          <t>Stock Investment by ForeignersJAN/11</t>
+          <t>Core Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D675" t="inlineStr"/>
       <c r="E675" t="inlineStr">
         <is>
-          <t>¥-74B</t>
-        </is>
-      </c>
-      <c r="F675" t="inlineStr"/>
-      <c r="G675" t="inlineStr"/>
+          <t>2.7%</t>
+        </is>
+      </c>
+      <c r="F675" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
+      <c r="G675" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="H675" t="inlineStr">
         <is>
           <t>3</t>
@@ -23358,29 +23028,33 @@
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C676" t="inlineStr">
         <is>
-          <t>Non-Oil Exports MoMDEC</t>
+          <t>Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D676" t="inlineStr"/>
       <c r="E676" t="inlineStr">
         <is>
-          <t>14.7%</t>
-        </is>
-      </c>
-      <c r="F676" t="inlineStr"/>
+          <t>-0.3%</t>
+        </is>
+      </c>
+      <c r="F676" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="G676" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H676" t="inlineStr">
@@ -23392,33 +23066,33 @@
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C677" t="inlineStr">
         <is>
-          <t>Non-Oil Exports YoYDEC</t>
+          <t>CPI FinalDEC</t>
         </is>
       </c>
       <c r="D677" t="inlineStr"/>
       <c r="E677" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>126.62</t>
         </is>
       </c>
       <c r="F677" t="inlineStr">
         <is>
-          <t>6.2%</t>
+          <t>127.08</t>
         </is>
       </c>
       <c r="G677" t="inlineStr">
         <is>
-          <t>7.5%</t>
+          <t>127.08</t>
         </is>
       </c>
       <c r="H677" t="inlineStr">
@@ -23430,25 +23104,21 @@
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C678" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsJAN</t>
+          <t>Bundesbank Nagel Speech</t>
         </is>
       </c>
       <c r="D678" t="inlineStr"/>
-      <c r="E678" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
+      <c r="E678" t="inlineStr"/>
       <c r="F678" t="inlineStr"/>
       <c r="G678" t="inlineStr"/>
       <c r="H678" t="inlineStr">
@@ -23460,65 +23130,57 @@
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C679" t="inlineStr">
         <is>
-          <t>House Price Index YoYDEC</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D679" t="inlineStr"/>
       <c r="E679" t="inlineStr">
         <is>
-          <t>-5.7%</t>
+          <t>€5628M</t>
         </is>
       </c>
       <c r="F679" t="inlineStr"/>
       <c r="G679" t="inlineStr">
         <is>
-          <t>-5.8%</t>
+          <t>€2900.0M</t>
         </is>
       </c>
       <c r="H679" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C680" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>ECB Cipollone Speech</t>
         </is>
       </c>
       <c r="D680" t="inlineStr"/>
-      <c r="E680" t="inlineStr">
-        <is>
-          <t>$6.52B</t>
-        </is>
-      </c>
+      <c r="E680" t="inlineStr"/>
       <c r="F680" t="inlineStr"/>
-      <c r="G680" t="inlineStr">
-        <is>
-          <t>$ 3.6B</t>
-        </is>
-      </c>
+      <c r="G680" t="inlineStr"/>
       <c r="H680" t="inlineStr">
         <is>
           <t>3</t>
@@ -23528,363 +23190,327 @@
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C681" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoYQ4</t>
+          <t>Bank Loan Growth YoYJAN/03</t>
         </is>
       </c>
       <c r="D681" t="inlineStr"/>
       <c r="E681" t="inlineStr">
         <is>
-          <t>4.6%</t>
-        </is>
-      </c>
-      <c r="F681" t="inlineStr">
-        <is>
-          <t>5.1%</t>
-        </is>
-      </c>
-      <c r="G681" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
+          <t>11.5%</t>
+        </is>
+      </c>
+      <c r="F681" t="inlineStr"/>
+      <c r="G681" t="inlineStr"/>
       <c r="H681" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C682" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Deposit Growth YoYJAN/03</t>
         </is>
       </c>
       <c r="D682" t="inlineStr"/>
       <c r="E682" t="inlineStr">
         <is>
-          <t>5.4%</t>
-        </is>
-      </c>
-      <c r="F682" t="inlineStr">
-        <is>
-          <t>5.4%</t>
-        </is>
-      </c>
-      <c r="G682" t="inlineStr">
-        <is>
-          <t>5.5%</t>
-        </is>
-      </c>
+          <t>11.5%</t>
+        </is>
+      </c>
+      <c r="F682" t="inlineStr"/>
+      <c r="G682" t="inlineStr"/>
       <c r="H682" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B683" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C683" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Foreign Exchange ReservesJAN/10</t>
         </is>
       </c>
       <c r="D683" t="inlineStr"/>
       <c r="E683" t="inlineStr">
         <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="F683" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
-      <c r="G683" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
+          <t>$634.59B</t>
+        </is>
+      </c>
+      <c r="F683" t="inlineStr"/>
+      <c r="G683" t="inlineStr"/>
       <c r="H683" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C684" t="inlineStr">
         <is>
-          <t>Fixed Asset Investment (YTD) YoYDEC</t>
+          <t>Foreign Securities PurchasesNOV</t>
         </is>
       </c>
       <c r="D684" t="inlineStr"/>
       <c r="E684" t="inlineStr">
         <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="F684" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="G684" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
+          <t>C$21.55B</t>
+        </is>
+      </c>
+      <c r="F684" t="inlineStr"/>
+      <c r="G684" t="inlineStr"/>
       <c r="H684" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C685" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQQ4</t>
+          <t>Foreign Securities Purchases by CanadiansNOV</t>
         </is>
       </c>
       <c r="D685" t="inlineStr"/>
       <c r="E685" t="inlineStr">
         <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="F685" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
-      <c r="G685" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
+          <t>C$-2.65B</t>
+        </is>
+      </c>
+      <c r="F685" t="inlineStr"/>
+      <c r="G685" t="inlineStr"/>
       <c r="H685" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C686" t="inlineStr">
         <is>
-          <t>Industrial Capacity UtilizationQ4</t>
+          <t>Building Permits PrelDEC</t>
         </is>
       </c>
       <c r="D686" t="inlineStr"/>
       <c r="E686" t="inlineStr">
         <is>
-          <t>75.1%</t>
-        </is>
-      </c>
-      <c r="F686" t="inlineStr"/>
+          <t>1.493M</t>
+        </is>
+      </c>
+      <c r="F686" t="inlineStr">
+        <is>
+          <t>1.46M</t>
+        </is>
+      </c>
       <c r="G686" t="inlineStr">
         <is>
-          <t>75.3%</t>
+          <t>1.48M</t>
         </is>
       </c>
       <c r="H686" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C687" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Housing StartsDEC</t>
         </is>
       </c>
       <c r="D687" t="inlineStr"/>
       <c r="E687" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>1.289M</t>
         </is>
       </c>
       <c r="F687" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>1.31M</t>
         </is>
       </c>
       <c r="G687" t="inlineStr">
         <is>
-          <t>5.00%</t>
+          <t>1.32M</t>
         </is>
       </c>
       <c r="H687" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B688" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C688" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Building Permits MoM PrelDEC</t>
         </is>
       </c>
       <c r="D688" t="inlineStr"/>
       <c r="E688" t="inlineStr">
         <is>
-          <t>0.2402%</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="F688" t="inlineStr"/>
-      <c r="G688" t="inlineStr"/>
+      <c r="G688" t="inlineStr">
+        <is>
+          <t>-0.9%</t>
+        </is>
+      </c>
       <c r="H688" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C689" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Housing Starts MoMDEC</t>
         </is>
       </c>
       <c r="D689" t="inlineStr"/>
       <c r="E689" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F689" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>-1.8%</t>
+        </is>
+      </c>
+      <c r="F689" t="inlineStr"/>
       <c r="G689" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="H689" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C690" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D690" t="inlineStr"/>
       <c r="E690" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F690" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G690" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="H690" t="inlineStr">
@@ -23896,29 +23522,33 @@
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C691" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel MoMDEC</t>
+          <t>Capacity UtilizationDEC</t>
         </is>
       </c>
       <c r="D691" t="inlineStr"/>
       <c r="E691" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F691" t="inlineStr"/>
+          <t>76.8%</t>
+        </is>
+      </c>
+      <c r="F691" t="inlineStr">
+        <is>
+          <t>77.6%</t>
+        </is>
+      </c>
       <c r="G691" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>76.9%</t>
         </is>
       </c>
       <c r="H691" t="inlineStr">
@@ -23930,29 +23560,29 @@
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C692" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel YoYDEC</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D692" t="inlineStr"/>
       <c r="E692" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>-0.9%</t>
         </is>
       </c>
       <c r="F692" t="inlineStr"/>
       <c r="G692" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="H692" t="inlineStr">
@@ -23964,29 +23594,29 @@
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C693" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Manufacturing Production MoMDEC</t>
         </is>
       </c>
       <c r="D693" t="inlineStr"/>
       <c r="E693" t="inlineStr">
         <is>
-          <t>€32B</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F693" t="inlineStr"/>
       <c r="G693" t="inlineStr">
         <is>
-          <t>€33.0B</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H693" t="inlineStr">
@@ -23998,27 +23628,31 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C694" t="inlineStr">
         <is>
-          <t>Current Account s.aNOV</t>
+          <t>Manufacturing Production YoYDEC</t>
         </is>
       </c>
       <c r="D694" t="inlineStr"/>
       <c r="E694" t="inlineStr">
         <is>
-          <t>€33.5B</t>
+          <t>-1%</t>
         </is>
       </c>
       <c r="F694" t="inlineStr"/>
-      <c r="G694" t="inlineStr"/>
+      <c r="G694" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="H694" t="inlineStr">
         <is>
           <t>3</t>
@@ -24028,107 +23662,75 @@
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C695" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Baker Hughes Oil Rig CountJAN/17</t>
         </is>
       </c>
       <c r="D695" t="inlineStr"/>
-      <c r="E695" t="inlineStr">
-        <is>
-          <t>€-3.93B</t>
-        </is>
-      </c>
+      <c r="E695" t="inlineStr"/>
       <c r="F695" t="inlineStr"/>
-      <c r="G695" t="inlineStr">
-        <is>
-          <t>€-4.2B</t>
-        </is>
-      </c>
+      <c r="G695" t="inlineStr"/>
       <c r="H695" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C696" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FinalDEC</t>
+          <t>Baker Hughes Total Rigs CountJAN/17</t>
         </is>
       </c>
       <c r="D696" t="inlineStr"/>
-      <c r="E696" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="F696" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="G696" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
+      <c r="E696" t="inlineStr"/>
+      <c r="F696" t="inlineStr"/>
+      <c r="G696" t="inlineStr"/>
       <c r="H696" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="697">
-      <c r="A697" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
+      <c r="A697" t="inlineStr"/>
       <c r="B697" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C697" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FinalDEC</t>
+          <t>50-Year KTB Auction</t>
         </is>
       </c>
       <c r="D697" t="inlineStr"/>
       <c r="E697" t="inlineStr">
         <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="F697" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="G697" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+          <t>2.40%</t>
+        </is>
+      </c>
+      <c r="F697" t="inlineStr"/>
+      <c r="G697" t="inlineStr"/>
       <c r="H697" t="inlineStr">
         <is>
           <t>3</t>
@@ -24138,97 +23740,69 @@
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B698" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C698" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoM FinalDEC</t>
-        </is>
-      </c>
+          <t>Saturday January 18 2025</t>
+        </is>
+      </c>
+      <c r="B698" t="inlineStr"/>
+      <c r="C698" t="inlineStr"/>
       <c r="D698" t="inlineStr"/>
-      <c r="E698" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F698" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G698" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H698" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="E698" t="inlineStr"/>
+      <c r="F698" t="inlineStr"/>
+      <c r="G698" t="inlineStr"/>
+      <c r="H698" t="inlineStr"/>
     </row>
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B699" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C699" t="inlineStr">
         <is>
-          <t>CPI FinalDEC</t>
+          <t>Net Long-term TIC FlowsNOV</t>
         </is>
       </c>
       <c r="D699" t="inlineStr"/>
       <c r="E699" t="inlineStr">
         <is>
-          <t>126.62</t>
-        </is>
-      </c>
-      <c r="F699" t="inlineStr">
-        <is>
-          <t>127.08</t>
-        </is>
-      </c>
-      <c r="G699" t="inlineStr">
-        <is>
-          <t>127.08</t>
-        </is>
-      </c>
+          <t>$152.3B</t>
+        </is>
+      </c>
+      <c r="F699" t="inlineStr"/>
+      <c r="G699" t="inlineStr"/>
       <c r="H699" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B700" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C700" t="inlineStr">
         <is>
-          <t>Bundesbank Nagel Speech</t>
+          <t>Foreign Bond InvestmentNOV</t>
         </is>
       </c>
       <c r="D700" t="inlineStr"/>
-      <c r="E700" t="inlineStr"/>
+      <c r="E700" t="inlineStr">
+        <is>
+          <t>$92.1B</t>
+        </is>
+      </c>
       <c r="F700" t="inlineStr"/>
       <c r="G700" t="inlineStr"/>
       <c r="H700" t="inlineStr">
@@ -24240,31 +23814,27 @@
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B701" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C701" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Overall Net Capital FlowsNOV</t>
         </is>
       </c>
       <c r="D701" t="inlineStr"/>
       <c r="E701" t="inlineStr">
         <is>
-          <t>€5628M</t>
+          <t>$203.6B</t>
         </is>
       </c>
       <c r="F701" t="inlineStr"/>
-      <c r="G701" t="inlineStr">
-        <is>
-          <t>€2900.0M</t>
-        </is>
-      </c>
+      <c r="G701" t="inlineStr"/>
       <c r="H701" t="inlineStr">
         <is>
           <t>3</t>
@@ -24274,169 +23844,165 @@
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B702" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C702" t="inlineStr">
-        <is>
-          <t>ECB Cipollone Speech</t>
-        </is>
-      </c>
+          <t>Monday January 20 2025</t>
+        </is>
+      </c>
+      <c r="B702" t="inlineStr"/>
+      <c r="C702" t="inlineStr"/>
       <c r="D702" t="inlineStr"/>
       <c r="E702" t="inlineStr"/>
       <c r="F702" t="inlineStr"/>
       <c r="G702" t="inlineStr"/>
-      <c r="H702" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H702" t="inlineStr"/>
     </row>
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C703" t="inlineStr">
         <is>
-          <t>Bank Loan Growth YoYJAN/03</t>
+          <t>Machinery Orders MoMNOV</t>
         </is>
       </c>
       <c r="D703" t="inlineStr"/>
       <c r="E703" t="inlineStr">
         <is>
-          <t>11.5%</t>
+          <t>2.1%</t>
         </is>
       </c>
       <c r="F703" t="inlineStr"/>
-      <c r="G703" t="inlineStr"/>
+      <c r="G703" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H703" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C704" t="inlineStr">
         <is>
-          <t>Deposit Growth YoYJAN/03</t>
+          <t>Machinery Orders YoYNOV</t>
         </is>
       </c>
       <c r="D704" t="inlineStr"/>
       <c r="E704" t="inlineStr">
         <is>
-          <t>11.5%</t>
+          <t>5.6%</t>
         </is>
       </c>
       <c r="F704" t="inlineStr"/>
-      <c r="G704" t="inlineStr"/>
+      <c r="G704" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
       <c r="H704" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>06:45 AM</t>
         </is>
       </c>
       <c r="B705" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C705" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/10</t>
+          <t>Loan Prime Rate 1Y</t>
         </is>
       </c>
       <c r="D705" t="inlineStr"/>
       <c r="E705" t="inlineStr">
         <is>
-          <t>$634.59B</t>
+          <t>3.1%</t>
         </is>
       </c>
       <c r="F705" t="inlineStr"/>
       <c r="G705" t="inlineStr"/>
       <c r="H705" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:45 AM</t>
         </is>
       </c>
       <c r="B706" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C706" t="inlineStr">
         <is>
-          <t>Foreign Securities PurchasesNOV</t>
+          <t>Loan Prime Rate 5YJAN</t>
         </is>
       </c>
       <c r="D706" t="inlineStr"/>
       <c r="E706" t="inlineStr">
         <is>
-          <t>C$21.55B</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="F706" t="inlineStr"/>
       <c r="G706" t="inlineStr"/>
       <c r="H706" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B707" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C707" t="inlineStr">
         <is>
-          <t>Foreign Securities Purchases by CanadiansNOV</t>
+          <t>Capacity Utilization MoMNOV</t>
         </is>
       </c>
       <c r="D707" t="inlineStr"/>
       <c r="E707" t="inlineStr">
         <is>
-          <t>C$-2.65B</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F707" t="inlineStr"/>
@@ -24450,139 +24016,131 @@
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B708" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C708" t="inlineStr">
         <is>
-          <t>Building Permits PrelDEC</t>
+          <t>Industrial Production MoM FinalNOV</t>
         </is>
       </c>
       <c r="D708" t="inlineStr"/>
       <c r="E708" t="inlineStr">
         <is>
-          <t>1.493M</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F708" t="inlineStr">
         <is>
-          <t>1.46M</t>
+          <t>-2.3%</t>
         </is>
       </c>
       <c r="G708" t="inlineStr">
         <is>
-          <t>1.48M</t>
+          <t>-2.3%</t>
         </is>
       </c>
       <c r="H708" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B709" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C709" t="inlineStr">
         <is>
-          <t>Housing StartsDEC</t>
+          <t>Industrial Production YoY FinalNOV</t>
         </is>
       </c>
       <c r="D709" t="inlineStr"/>
       <c r="E709" t="inlineStr">
         <is>
-          <t>1.289M</t>
-        </is>
-      </c>
-      <c r="F709" t="inlineStr">
-        <is>
-          <t>1.31M</t>
-        </is>
-      </c>
+          <t>1.4%</t>
+        </is>
+      </c>
+      <c r="F709" t="inlineStr"/>
       <c r="G709" t="inlineStr">
         <is>
-          <t>1.32M</t>
+          <t>-2.8%</t>
         </is>
       </c>
       <c r="H709" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C710" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelDEC</t>
+          <t>Tertiary Industry Index MoMNOV</t>
         </is>
       </c>
       <c r="D710" t="inlineStr"/>
       <c r="E710" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F710" t="inlineStr"/>
-      <c r="G710" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
+      <c r="G710" t="inlineStr"/>
       <c r="H710" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C711" t="inlineStr">
         <is>
-          <t>Housing Starts MoMDEC</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D711" t="inlineStr"/>
       <c r="E711" t="inlineStr">
         <is>
-          <t>-1.8%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F711" t="inlineStr"/>
       <c r="G711" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H711" t="inlineStr">
@@ -24594,71 +24152,63 @@
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B712" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C712" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D712" t="inlineStr"/>
       <c r="E712" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F712" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F712" t="inlineStr"/>
       <c r="G712" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="H712" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>02:45 PM</t>
         </is>
       </c>
       <c r="B713" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C713" t="inlineStr">
         <is>
-          <t>Capacity UtilizationDEC</t>
+          <t>Construction Output YoYNOV</t>
         </is>
       </c>
       <c r="D713" t="inlineStr"/>
       <c r="E713" t="inlineStr">
         <is>
-          <t>76.8%</t>
-        </is>
-      </c>
-      <c r="F713" t="inlineStr">
-        <is>
-          <t>77.6%</t>
-        </is>
-      </c>
+          <t>3.4%</t>
+        </is>
+      </c>
+      <c r="F713" t="inlineStr"/>
       <c r="G713" t="inlineStr">
         <is>
-          <t>76.9%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H713" t="inlineStr">
@@ -24670,31 +24220,27 @@
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B714" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C714" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Construction Output YoYNOV</t>
         </is>
       </c>
       <c r="D714" t="inlineStr"/>
       <c r="E714" t="inlineStr">
         <is>
-          <t>-0.9%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F714" t="inlineStr"/>
-      <c r="G714" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
+      <c r="G714" t="inlineStr"/>
       <c r="H714" t="inlineStr">
         <is>
           <t>3</t>
@@ -24704,31 +24250,23 @@
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B715" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C715" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMDEC</t>
+          <t>3-Month Bubill Auction</t>
         </is>
       </c>
       <c r="D715" t="inlineStr"/>
-      <c r="E715" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E715" t="inlineStr"/>
       <c r="F715" t="inlineStr"/>
-      <c r="G715" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G715" t="inlineStr"/>
       <c r="H715" t="inlineStr">
         <is>
           <t>3</t>
@@ -24738,31 +24276,23 @@
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B716" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C716" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYDEC</t>
+          <t>9-Month Bubill Auction</t>
         </is>
       </c>
       <c r="D716" t="inlineStr"/>
-      <c r="E716" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
+      <c r="E716" t="inlineStr"/>
       <c r="F716" t="inlineStr"/>
-      <c r="G716" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="G716" t="inlineStr"/>
       <c r="H716" t="inlineStr">
         <is>
           <t>3</t>
@@ -24772,21 +24302,25 @@
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B717" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C717" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/17</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D717" t="inlineStr"/>
-      <c r="E717" t="inlineStr"/>
+      <c r="E717" t="inlineStr">
+        <is>
+          <t>$9.1B</t>
+        </is>
+      </c>
       <c r="F717" t="inlineStr"/>
       <c r="G717" t="inlineStr"/>
       <c r="H717" t="inlineStr">
@@ -24798,23 +24332,31 @@
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B718" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C718" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/17</t>
+          <t>Current AccountQ4</t>
         </is>
       </c>
       <c r="D718" t="inlineStr"/>
-      <c r="E718" t="inlineStr"/>
+      <c r="E718" t="inlineStr">
+        <is>
+          <t>$9.1B</t>
+        </is>
+      </c>
       <c r="F718" t="inlineStr"/>
-      <c r="G718" t="inlineStr"/>
+      <c r="G718" t="inlineStr">
+        <is>
+          <t>$ 10B</t>
+        </is>
+      </c>
       <c r="H718" t="inlineStr">
         <is>
           <t>3</t>
@@ -24822,23 +24364,23 @@
       </c>
     </row>
     <row r="719">
-      <c r="A719" t="inlineStr"/>
+      <c r="A719" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
       <c r="B719" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C719" t="inlineStr">
         <is>
-          <t>50-Year KTB Auction</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D719" t="inlineStr"/>
-      <c r="E719" t="inlineStr">
-        <is>
-          <t>2.40%</t>
-        </is>
-      </c>
+      <c r="E719" t="inlineStr"/>
       <c r="F719" t="inlineStr"/>
       <c r="G719" t="inlineStr"/>
       <c r="H719" t="inlineStr">
@@ -24850,101 +24392,109 @@
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>Saturday January 18 2025</t>
-        </is>
-      </c>
-      <c r="B720" t="inlineStr"/>
-      <c r="C720" t="inlineStr"/>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B720" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C720" t="inlineStr">
+        <is>
+          <t>3-Month BTF Auction</t>
+        </is>
+      </c>
       <c r="D720" t="inlineStr"/>
       <c r="E720" t="inlineStr"/>
       <c r="F720" t="inlineStr"/>
       <c r="G720" t="inlineStr"/>
-      <c r="H720" t="inlineStr"/>
+      <c r="H720" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B721" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C721" t="inlineStr">
         <is>
-          <t>Net Long-term TIC FlowsNOV</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D721" t="inlineStr"/>
-      <c r="E721" t="inlineStr">
-        <is>
-          <t>$152.3B</t>
-        </is>
-      </c>
+      <c r="E721" t="inlineStr"/>
       <c r="F721" t="inlineStr"/>
       <c r="G721" t="inlineStr"/>
       <c r="H721" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B722" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C722" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentNOV</t>
+          <t>BoC Business Outlook Survey</t>
         </is>
       </c>
       <c r="D722" t="inlineStr"/>
-      <c r="E722" t="inlineStr">
-        <is>
-          <t>$92.1B</t>
-        </is>
-      </c>
+      <c r="E722" t="inlineStr"/>
       <c r="F722" t="inlineStr"/>
       <c r="G722" t="inlineStr"/>
       <c r="H722" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C723" t="inlineStr">
         <is>
-          <t>Overall Net Capital FlowsNOV</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D723" t="inlineStr"/>
       <c r="E723" t="inlineStr">
         <is>
-          <t>$203.6B</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="F723" t="inlineStr"/>
-      <c r="G723" t="inlineStr"/>
+      <c r="G723" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="H723" t="inlineStr">
         <is>
           <t>3</t>
@@ -24954,91 +24504,87 @@
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>Monday January 20 2025</t>
-        </is>
-      </c>
-      <c r="B724" t="inlineStr"/>
-      <c r="C724" t="inlineStr"/>
+          <t>09:30 PM</t>
+        </is>
+      </c>
+      <c r="B724" t="inlineStr">
+        <is>
+          <t>RU</t>
+        </is>
+      </c>
+      <c r="C724" t="inlineStr">
+        <is>
+          <t>PPI YoYDEC</t>
+        </is>
+      </c>
       <c r="D724" t="inlineStr"/>
-      <c r="E724" t="inlineStr"/>
+      <c r="E724" t="inlineStr">
+        <is>
+          <t>3.9%</t>
+        </is>
+      </c>
       <c r="F724" t="inlineStr"/>
-      <c r="G724" t="inlineStr"/>
-      <c r="H724" t="inlineStr"/>
+      <c r="G724" t="inlineStr">
+        <is>
+          <t>4.4%</t>
+        </is>
+      </c>
+      <c r="H724" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="725">
-      <c r="A725" t="inlineStr">
-        <is>
-          <t>05:20 AM</t>
-        </is>
-      </c>
+      <c r="A725" t="inlineStr"/>
       <c r="B725" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C725" t="inlineStr">
         <is>
-          <t>Machinery Orders MoMNOV</t>
+          <t>Eurogroup Meeting</t>
         </is>
       </c>
       <c r="D725" t="inlineStr"/>
-      <c r="E725" t="inlineStr">
-        <is>
-          <t>2.1%</t>
-        </is>
-      </c>
+      <c r="E725" t="inlineStr"/>
       <c r="F725" t="inlineStr"/>
-      <c r="G725" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G725" t="inlineStr"/>
       <c r="H725" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="726">
-      <c r="A726" t="inlineStr">
-        <is>
-          <t>05:20 AM</t>
-        </is>
-      </c>
+      <c r="A726" t="inlineStr"/>
       <c r="B726" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C726" t="inlineStr">
         <is>
-          <t>Machinery Orders YoYNOV</t>
+          <t>10-Year KTB Auction</t>
         </is>
       </c>
       <c r="D726" t="inlineStr"/>
       <c r="E726" t="inlineStr">
         <is>
-          <t>5.6%</t>
+          <t>2.665%</t>
         </is>
       </c>
       <c r="F726" t="inlineStr"/>
-      <c r="G726" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
+      <c r="G726" t="inlineStr"/>
       <c r="H726" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="727">
-      <c r="A727" t="inlineStr">
-        <is>
-          <t>06:45 AM</t>
-        </is>
-      </c>
+      <c r="A727" t="inlineStr"/>
       <c r="B727" t="inlineStr">
         <is>
           <t>CN</t>
@@ -25046,77 +24592,73 @@
       </c>
       <c r="C727" t="inlineStr">
         <is>
-          <t>Loan Prime Rate 1Y</t>
+          <t>FDI (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D727" t="inlineStr"/>
       <c r="E727" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>-27.9%</t>
         </is>
       </c>
       <c r="F727" t="inlineStr"/>
       <c r="G727" t="inlineStr"/>
       <c r="H727" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="728">
-      <c r="A728" t="inlineStr">
-        <is>
-          <t>06:45 AM</t>
-        </is>
-      </c>
+      <c r="A728" t="inlineStr"/>
       <c r="B728" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C728" t="inlineStr">
         <is>
-          <t>Loan Prime Rate 5YJAN</t>
+          <t>Consumer ConfidenceDEC</t>
         </is>
       </c>
       <c r="D728" t="inlineStr"/>
-      <c r="E728" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
+      <c r="E728" t="inlineStr"/>
       <c r="F728" t="inlineStr"/>
-      <c r="G728" t="inlineStr"/>
+      <c r="G728" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
       <c r="H728" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="729">
-      <c r="A729" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A729" t="inlineStr"/>
       <c r="B729" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C729" t="inlineStr">
         <is>
-          <t>Capacity Utilization MoMNOV</t>
+          <t>Leading Indicator MoMDEC</t>
         </is>
       </c>
       <c r="D729" t="inlineStr"/>
       <c r="E729" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>1.44%</t>
         </is>
       </c>
       <c r="F729" t="inlineStr"/>
-      <c r="G729" t="inlineStr"/>
+      <c r="G729" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
       <c r="H729" t="inlineStr">
         <is>
           <t>3</t>
@@ -25124,682 +24666,30 @@
       </c>
     </row>
     <row r="730">
-      <c r="A730" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A730" t="inlineStr"/>
       <c r="B730" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C730" t="inlineStr">
         <is>
-          <t>Industrial Production MoM FinalNOV</t>
+          <t>Central Government DebtDEC</t>
         </is>
       </c>
       <c r="D730" t="inlineStr"/>
       <c r="E730" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F730" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
+          <t>TRY9.005T</t>
+        </is>
+      </c>
+      <c r="F730" t="inlineStr"/>
       <c r="G730" t="inlineStr">
         <is>
-          <t>-2.3%</t>
+          <t>TRY 9.0T</t>
         </is>
       </c>
       <c r="H730" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="731">
-      <c r="A731" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B731" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C731" t="inlineStr">
-        <is>
-          <t>Industrial Production YoY FinalNOV</t>
-        </is>
-      </c>
-      <c r="D731" t="inlineStr"/>
-      <c r="E731" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="F731" t="inlineStr"/>
-      <c r="G731" t="inlineStr">
-        <is>
-          <t>-2.8%</t>
-        </is>
-      </c>
-      <c r="H731" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="732">
-      <c r="A732" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B732" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C732" t="inlineStr">
-        <is>
-          <t>Tertiary Industry Index MoMNOV</t>
-        </is>
-      </c>
-      <c r="D732" t="inlineStr"/>
-      <c r="E732" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F732" t="inlineStr"/>
-      <c r="G732" t="inlineStr"/>
-      <c r="H732" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="733">
-      <c r="A733" t="inlineStr">
-        <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
-      <c r="B733" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C733" t="inlineStr">
-        <is>
-          <t>PPI MoMDEC</t>
-        </is>
-      </c>
-      <c r="D733" t="inlineStr"/>
-      <c r="E733" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="F733" t="inlineStr"/>
-      <c r="G733" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H733" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="734">
-      <c r="A734" t="inlineStr">
-        <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
-      <c r="B734" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C734" t="inlineStr">
-        <is>
-          <t>PPI YoYDEC</t>
-        </is>
-      </c>
-      <c r="D734" t="inlineStr"/>
-      <c r="E734" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F734" t="inlineStr"/>
-      <c r="G734" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
-      <c r="H734" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="735">
-      <c r="A735" t="inlineStr">
-        <is>
-          <t>02:45 PM</t>
-        </is>
-      </c>
-      <c r="B735" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C735" t="inlineStr">
-        <is>
-          <t>Construction Output YoYNOV</t>
-        </is>
-      </c>
-      <c r="D735" t="inlineStr"/>
-      <c r="E735" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="F735" t="inlineStr"/>
-      <c r="G735" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="H735" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="736">
-      <c r="A736" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B736" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C736" t="inlineStr">
-        <is>
-          <t>Construction Output YoYNOV</t>
-        </is>
-      </c>
-      <c r="D736" t="inlineStr"/>
-      <c r="E736" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F736" t="inlineStr"/>
-      <c r="G736" t="inlineStr"/>
-      <c r="H736" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="737">
-      <c r="A737" t="inlineStr">
-        <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
-      <c r="B737" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C737" t="inlineStr">
-        <is>
-          <t>3-Month Bubill Auction</t>
-        </is>
-      </c>
-      <c r="D737" t="inlineStr"/>
-      <c r="E737" t="inlineStr"/>
-      <c r="F737" t="inlineStr"/>
-      <c r="G737" t="inlineStr"/>
-      <c r="H737" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="738">
-      <c r="A738" t="inlineStr">
-        <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
-      <c r="B738" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C738" t="inlineStr">
-        <is>
-          <t>9-Month Bubill Auction</t>
-        </is>
-      </c>
-      <c r="D738" t="inlineStr"/>
-      <c r="E738" t="inlineStr"/>
-      <c r="F738" t="inlineStr"/>
-      <c r="G738" t="inlineStr"/>
-      <c r="H738" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="739">
-      <c r="A739" t="inlineStr">
-        <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
-      <c r="B739" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C739" t="inlineStr">
-        <is>
-          <t>Balance of TradeNOV</t>
-        </is>
-      </c>
-      <c r="D739" t="inlineStr"/>
-      <c r="E739" t="inlineStr">
-        <is>
-          <t>$9.1B</t>
-        </is>
-      </c>
-      <c r="F739" t="inlineStr"/>
-      <c r="G739" t="inlineStr"/>
-      <c r="H739" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="740">
-      <c r="A740" t="inlineStr">
-        <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
-      <c r="B740" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C740" t="inlineStr">
-        <is>
-          <t>Current AccountQ4</t>
-        </is>
-      </c>
-      <c r="D740" t="inlineStr"/>
-      <c r="E740" t="inlineStr">
-        <is>
-          <t>$9.1B</t>
-        </is>
-      </c>
-      <c r="F740" t="inlineStr"/>
-      <c r="G740" t="inlineStr">
-        <is>
-          <t>$ 10B</t>
-        </is>
-      </c>
-      <c r="H740" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="741">
-      <c r="A741" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B741" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C741" t="inlineStr">
-        <is>
-          <t>12-Month BTF Auction</t>
-        </is>
-      </c>
-      <c r="D741" t="inlineStr"/>
-      <c r="E741" t="inlineStr"/>
-      <c r="F741" t="inlineStr"/>
-      <c r="G741" t="inlineStr"/>
-      <c r="H741" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="742">
-      <c r="A742" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B742" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C742" t="inlineStr">
-        <is>
-          <t>3-Month BTF Auction</t>
-        </is>
-      </c>
-      <c r="D742" t="inlineStr"/>
-      <c r="E742" t="inlineStr"/>
-      <c r="F742" t="inlineStr"/>
-      <c r="G742" t="inlineStr"/>
-      <c r="H742" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="743">
-      <c r="A743" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B743" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C743" t="inlineStr">
-        <is>
-          <t>6-Month BTF Auction</t>
-        </is>
-      </c>
-      <c r="D743" t="inlineStr"/>
-      <c r="E743" t="inlineStr"/>
-      <c r="F743" t="inlineStr"/>
-      <c r="G743" t="inlineStr"/>
-      <c r="H743" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="744">
-      <c r="A744" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B744" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C744" t="inlineStr">
-        <is>
-          <t>BoC Business Outlook Survey</t>
-        </is>
-      </c>
-      <c r="D744" t="inlineStr"/>
-      <c r="E744" t="inlineStr"/>
-      <c r="F744" t="inlineStr"/>
-      <c r="G744" t="inlineStr"/>
-      <c r="H744" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="745">
-      <c r="A745" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B745" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C745" t="inlineStr">
-        <is>
-          <t>PPI MoMDEC</t>
-        </is>
-      </c>
-      <c r="D745" t="inlineStr"/>
-      <c r="E745" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
-      <c r="F745" t="inlineStr"/>
-      <c r="G745" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="H745" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="746">
-      <c r="A746" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B746" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C746" t="inlineStr">
-        <is>
-          <t>PPI YoYDEC</t>
-        </is>
-      </c>
-      <c r="D746" t="inlineStr"/>
-      <c r="E746" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
-      <c r="F746" t="inlineStr"/>
-      <c r="G746" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
-      <c r="H746" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="747">
-      <c r="A747" t="inlineStr"/>
-      <c r="B747" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C747" t="inlineStr">
-        <is>
-          <t>Eurogroup Meeting</t>
-        </is>
-      </c>
-      <c r="D747" t="inlineStr"/>
-      <c r="E747" t="inlineStr"/>
-      <c r="F747" t="inlineStr"/>
-      <c r="G747" t="inlineStr"/>
-      <c r="H747" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="748">
-      <c r="A748" t="inlineStr"/>
-      <c r="B748" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C748" t="inlineStr">
-        <is>
-          <t>10-Year KTB Auction</t>
-        </is>
-      </c>
-      <c r="D748" t="inlineStr"/>
-      <c r="E748" t="inlineStr">
-        <is>
-          <t>2.665%</t>
-        </is>
-      </c>
-      <c r="F748" t="inlineStr"/>
-      <c r="G748" t="inlineStr"/>
-      <c r="H748" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="749">
-      <c r="A749" t="inlineStr"/>
-      <c r="B749" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C749" t="inlineStr">
-        <is>
-          <t>FDI (YTD) YoYDEC</t>
-        </is>
-      </c>
-      <c r="D749" t="inlineStr"/>
-      <c r="E749" t="inlineStr">
-        <is>
-          <t>-27.9%</t>
-        </is>
-      </c>
-      <c r="F749" t="inlineStr"/>
-      <c r="G749" t="inlineStr"/>
-      <c r="H749" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="750">
-      <c r="A750" t="inlineStr"/>
-      <c r="B750" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C750" t="inlineStr">
-        <is>
-          <t>Consumer ConfidenceDEC</t>
-        </is>
-      </c>
-      <c r="D750" t="inlineStr"/>
-      <c r="E750" t="inlineStr"/>
-      <c r="F750" t="inlineStr"/>
-      <c r="G750" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
-      </c>
-      <c r="H750" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="751">
-      <c r="A751" t="inlineStr"/>
-      <c r="B751" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C751" t="inlineStr">
-        <is>
-          <t>Leading Indicator MoMDEC</t>
-        </is>
-      </c>
-      <c r="D751" t="inlineStr"/>
-      <c r="E751" t="inlineStr">
-        <is>
-          <t>1.44%</t>
-        </is>
-      </c>
-      <c r="F751" t="inlineStr"/>
-      <c r="G751" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="H751" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="752">
-      <c r="A752" t="inlineStr"/>
-      <c r="B752" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C752" t="inlineStr">
-        <is>
-          <t>Central Government DebtDEC</t>
-        </is>
-      </c>
-      <c r="D752" t="inlineStr"/>
-      <c r="E752" t="inlineStr">
-        <is>
-          <t>TRY9.005T</t>
-        </is>
-      </c>
-      <c r="F752" t="inlineStr"/>
-      <c r="G752" t="inlineStr">
-        <is>
-          <t>TRY 9.0T</t>
-        </is>
-      </c>
-      <c r="H752" t="inlineStr">
         <is>
           <t>3</t>
         </is>
